--- a/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
+++ b/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
@@ -8,23 +8,229 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:40009_{5261ABD2-7788-4AA4-8D97-EAD0F1F83B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17216833-EEC0-4DF2-A05A-34115E511281}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AA5B4C96-D9A2-4DF5-AD3E-B21AF2628C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7C78494-96E4-4F81-8187-D4B9A96F8BF2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCDO core contribution projects" sheetId="4" r:id="rId1"/>
-    <sheet name="RED programmes countries" sheetId="1" r:id="rId2"/>
+    <sheet name="Problematic IATI activities" sheetId="5" r:id="rId2"/>
+    <sheet name="RED programmes countries" sheetId="6" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RED programmes countries'!$A$1:$K$57</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="400">
+  <si>
+    <t>KENYA,MOZAMBIQUE,PAKISTAN,SIERRA LEONE,TUVALU</t>
+  </si>
+  <si>
+    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,GHANA,NIGERIA,MOZAMBIQUE,ZAMBIA,MALAWI,ZIMBABWE,DRC,SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>CGIAR 2017-22, Support to develop and deploy the next generation of agriculture technology to support poor farmers by the international agriculture research organisation the CGIAR, 2017-22</t>
+  </si>
+  <si>
+    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,ZAMBIA,MALAWI,RWANDA,PAKISTAN,SIERRA LEONE,NEPAL,ZIMBABWE,DRC,AFGHANISTAN,SOUTH SUDAN,SENEGAL,SOMALIA,SUDAN (THE),MALI,NIGER (THE),BENIN,BURKINA FASO,BURUNDI,CAMEROON,CHAD,CÔTE D’IVOIRE,GAMBIA (THE),JORDAN,LEBANON,MAURITANIA,TOGO,VIET NAM</t>
+  </si>
+  <si>
+    <t>South Asia Country Research Fund</t>
+  </si>
+  <si>
+    <t>BANGLADESH,PAKISTAN,NEPAL,INDIA,AFGHANISTAN,MYANMAR</t>
+  </si>
+  <si>
+    <t>GB-1-205053</t>
+  </si>
+  <si>
+    <t>programme_name</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300708</t>
+  </si>
+  <si>
+    <t>Evidence Fund</t>
+  </si>
+  <si>
+    <t>GB-1-200574</t>
+  </si>
+  <si>
+    <t>Annual subscription to CABI</t>
+  </si>
+  <si>
+    <t>GB-1-202960</t>
+  </si>
+  <si>
+    <t>Macroeconomic Research in Low-Income Countries</t>
+  </si>
+  <si>
+    <t>GB-1-203051-104</t>
+  </si>
+  <si>
+    <t>Economic Development and Institutions (EDI) research programme - MULTILATERAL COMPONENT</t>
+  </si>
+  <si>
+    <t>GB-1-203185-106</t>
+  </si>
+  <si>
+    <t>ARRCC - Contribution to World Bank Programme on Asia Resileince to Climate Change: supporting Research &amp; Innovation activities  - CDEL - Research and Evidence Division</t>
+  </si>
+  <si>
+    <t>GB-1-204153-109</t>
+  </si>
+  <si>
+    <t>African Economic Research Consortium’s Research and Capacity Building Project Phase 2 (2015-2019)2 - Research</t>
+  </si>
+  <si>
+    <t>GB-1-204624-105</t>
+  </si>
+  <si>
+    <t>WISER - MET Office - Research and Evidence Divisions programme (CDEL) investment to improve weather early warning systems and inform better agriculture decisons Research</t>
+  </si>
+  <si>
+    <t>GB-1-204764</t>
+  </si>
+  <si>
+    <t>GB-1-204765-104</t>
+  </si>
+  <si>
+    <t>WHO (World Health Organisation) Blueprint to Accelerate Research &amp; Development for Disease Outbreaks</t>
+  </si>
+  <si>
+    <t>FCDO support to QuantuMDx (a diagnostics developer company) for the development of a self-contained, laboratory-independent device and cartridge for a molecular diagnosis of COVID-19 (and later, potentially, other diseases) with application in LMIC.</t>
+  </si>
+  <si>
+    <t>GB-1-204765-111</t>
+  </si>
+  <si>
+    <t>iati_identifier</t>
+  </si>
+  <si>
+    <t>fcdo_geocoding_countries</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Funder</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Funder programme - IATI ID</t>
+  </si>
+  <si>
+    <t>Extending organisation - name</t>
+  </si>
+  <si>
+    <t>Extending organisation - award ID</t>
+  </si>
+  <si>
+    <t>Award title</t>
+  </si>
+  <si>
+    <t>Award description</t>
+  </si>
+  <si>
+    <t>Aims/Objectives</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Award amount (£)</t>
+  </si>
+  <si>
+    <t>Beneficiary country</t>
+  </si>
+  <si>
+    <t>Lead organisation - name</t>
+  </si>
+  <si>
+    <t>Lead organisation - country</t>
+  </si>
+  <si>
+    <t>Implementing partner(s) - name</t>
+  </si>
+  <si>
+    <t>Implementing partner(s) - country</t>
+  </si>
+  <si>
+    <t>Investigator(s) - name</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Foreign, Commonwealth and Development Office</t>
+  </si>
+  <si>
+    <t>FCDO Research - Programmes</t>
+  </si>
+  <si>
+    <t>GB-COH-00070527-IGC-P3</t>
+  </si>
+  <si>
+    <t>https://d-portal.org/ctrack.html?reporting_ref=GB-COH-00070527#view=act&amp;aid=GB-COH-00070527-IGC-P3</t>
+  </si>
+  <si>
+    <t>London School of Economics and Political Science</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>IGC Phase 3</t>
+  </si>
+  <si>
+    <t>The International Growth Centre (IGC) aims to promote sustainable growth in developing countries by providing demand-led policy advice based on frontier research.</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GB-1-205219</t>
+  </si>
+  <si>
+    <t>Kenya, India, Liberia, Uganda, Myanmar, Bangladesh, Sierra Leone, Pakistan, Ghana, Tanzania, Sudan, Zambia, Rwanda, South Sudan, Jordan, Lebanon, Mozambique, Ethiopia, Nigeria, Kenya, Brazil, DRC, China, Mongolia, Paraguay, Indonesia</t>
+  </si>
+  <si>
+    <t>GB-1-204931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-GOV-1-300125-104 </t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300125-108</t>
+  </si>
+  <si>
+    <t>KENYA,TANZANIA,ETHIOPIA,NIGERIA,MOZAMBIQUE,MALAWI,RWANDA,PAKISTAN,NEPAL,INDIA,SOUTH AFRICA,SENEGAL,GUINEA-BISSAU,IRAQ,LIBERIA,NICARAGUA,TUNISIA</t>
+  </si>
+  <si>
+    <t>Impact Evaluations on urban transport, transport corridors and road safety across multilateral development banks and bilateral programmes (ieConnect).</t>
+  </si>
+  <si>
+    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,MALAWI,PAKISTAN,SIERRA LEONE,INDIA,ZIMBABWE,SOUTH AFRICA,SOUTH SUDAN,SOMALIA,SUDAN (THE),PHILIPPINES (THE),LEBANON,MOROCCO,MONGOLIA,INDONESIA,CAMBODIA,LIBERIA,THAILAND</t>
+  </si>
   <si>
     <t>Project ID</t>
   </si>
@@ -59,6 +265,12 @@
     <t>Spend</t>
   </si>
   <si>
+    <t>The UK's CABI Membership</t>
+  </si>
+  <si>
+    <t>CABI is a not-for-profit organization established by a United Nations treaty level agreement between 40 member countries. Each member country has an equal role in the organization's governance, policies and strategic direction in addition to enjoying a number of privileges and services relating to our scientific expertise, products and resources. These include disease identification, capacity building and information products.</t>
+  </si>
+  <si>
     <t>Agriculture Research Team</t>
   </si>
   <si>
@@ -68,15 +280,45 @@
     <t>Implementation</t>
   </si>
   <si>
+    <t>Global Health Clinical Trials Initiative</t>
+  </si>
+  <si>
+    <t>To generate new knowledge that promises to contribute to improvement of health in developing countries. The programme will give priority to proposals that are most likely to produce implementable results and are designed to address the major causes of mortality or morbidity in developing countries.</t>
+  </si>
+  <si>
     <t>Health Research - RED</t>
   </si>
   <si>
+    <t>Jo Mulligan</t>
+  </si>
+  <si>
+    <t>This programme supports a global public good</t>
+  </si>
+  <si>
+    <t>I2I - Ideas to Impact - Testing new technologies and innovative approaches to address development challenges.</t>
+  </si>
+  <si>
+    <t>I2I stimulates technological innovations addressing intractable development challenges, initially in the focal areas of energy, water and climate, and then increasingly in emerging “frontier” technologies with broader applicability.  It tests different funding mechanisms and approaches - including prizes, peer-to-peer financing, Frontier Technology Livestreaming, and innovative cross-government partnerships - for ensuring technology ideas lead to a real-world development impact.</t>
+  </si>
+  <si>
     <t>Climate, Energy and Water Team</t>
   </si>
   <si>
     <t>Magdalena Banasiak</t>
   </si>
   <si>
+    <t>REACH: Improving water security for poor people</t>
+  </si>
+  <si>
+    <t>To support Sustainable reduction in water insecurity in developing countries by producing robust and accessible evidence for governments, municipalities and other investment\policy decision makers and therefore long term, improved wellbeing for poor people dependent on water for livelihoods, health, environmental services in Africa and South Asia. This contributes towards our MDGs by providing efficient and sustainably managed water systems which will support increased water security for between 2.5 - 5 million people, while helping sustain and preserve water resources by 2021.</t>
+  </si>
+  <si>
+    <t>Anna Nileshwar</t>
+  </si>
+  <si>
+    <t>This programme supports a regional public good</t>
+  </si>
+  <si>
     <t>Gender, Growth and Labour Markets in Low Income Countries G2LM|LIC</t>
   </si>
   <si>
@@ -101,9 +343,18 @@
     <t>KENYA,TANZANIA,ETHIOPIA,BANGLADESH,PAKISTAN,SOUTH AFRICA,SENEGAL,MYANMAR,NIGER (THE),NEW ZEALAND,UNITED STATES OF AMERICA (THE),VIET NAM,AUSTRALIA,SWITZERLAND</t>
   </si>
   <si>
+    <t>Global Research Partnership Programme (GRP)</t>
+  </si>
+  <si>
+    <t>To build a new UK-India research partnership with developing country researchers to deliver evidence-informed solutions for global development challenges on health, food and women.</t>
+  </si>
+  <si>
     <t>South Asia Research Hub (SARH)</t>
   </si>
   <si>
+    <t>Nupur Barua</t>
+  </si>
+  <si>
     <t>Private Enterprise Development in Low Income Countries (PEDL)</t>
   </si>
   <si>
@@ -113,6 +364,9 @@
     <t>KENYA,UGANDA,ETHIOPIA,BANGLADESH,MOZAMBIQUE,MALAWI,PAKISTAN</t>
   </si>
   <si>
+    <t>Deeper understanding of, and better engagement by, IMF policymakers on macroeconomic issues specifically relevant to low income countries, leading to improved policy-making in thematic areas.</t>
+  </si>
+  <si>
     <t>DFID-Royal Society Africa Initiative: Strengthening capacity in African Higher Education to support development through science</t>
   </si>
   <si>
@@ -146,9 +400,6 @@
     <t>To produce a body of research evidence and analysis indicating practical ways of changing institutions so as to increase economic growth in poor countries. This will enable a better understanding of how institutions improve and change economic performances, and by 2020 developing countries will be able to use this understanding to improve their economies through developing better institutions.</t>
   </si>
   <si>
-    <t>KENYA,MOZAMBIQUE,PAKISTAN,SIERRA LEONE,TUVALU</t>
-  </si>
-  <si>
     <t>AgResults: Innovation in Research and Delivery</t>
   </si>
   <si>
@@ -206,9 +457,27 @@
     <t>ETHIOPIA,BANGLADESH,RWANDA,NEPAL,JORDAN,LEBANON</t>
   </si>
   <si>
+    <t>Centre of Excellence for Development Impact and Learning (CEDIL)</t>
+  </si>
+  <si>
+    <t>The project will establish a Centre of Excellence for Impact Evaluation. The Centre  will provide a range of services to strengthen the evidence base for what does or does not work in international development. It will address gaps in existing evaluation practice  areas, and  maximise the effectiveness of UK funded international development by delivering high quality policy relevant studies of specific programmes and themes and by providing technical and policy advice to FCDO and developments partners on better use of impact evaluation as well as developing and testing new and innovative approaches to impact evaluation.</t>
+  </si>
+  <si>
     <t>Evaluation Unit</t>
   </si>
   <si>
+    <t>Esther Forgan</t>
+  </si>
+  <si>
+    <t>Anti Corruption Evidence ' ACE' Programme</t>
+  </si>
+  <si>
+    <t>The Anti-Corruption Evidence (ACE) programme will deliver new, practical research on 'what works' to tackle corruption in developing countries. Uptake of this new research by DFID and its partners will mean mean that anti-corruption initiatives are more effective and so corruption and leakage are measurably reduced. ACE will focus in 3-4 DFID priority countries drawn from a short list including Ghana, Uganda, Tanzania, Mozambique and Nigeria; and Bangladesh.</t>
+  </si>
+  <si>
+    <t>David Pedley</t>
+  </si>
+  <si>
     <t>M4D - Mobile for Development Strategic Partnership</t>
   </si>
   <si>
@@ -251,13 +520,31 @@
     <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,MOZAMBIQUE,ZAMBIA,MALAWI,RWANDA,PAKISTAN,NEPAL,INDIA,DRC,AFGHANISTAN,SENEGAL,ANGOLA,BENIN,BRAZIL,BURKINA FASO,CAMBODIA,COLOMBIA,COMOROS (THE),CROATIA,DOMINICAN REPUBLIC (THE),GEORGIA,HAITI,HONDURAS,KAZAKHSTAN,LIBERIA,MEXICO,NICARAGUA,PERU,VIET NAM</t>
   </si>
   <si>
+    <t>SIEF Strategic Impact Evaluation Fund</t>
+  </si>
+  <si>
+    <t>To strengthen the impact of global aid by learning lessons and generating evidence for design of new programmes. The Strategic Impact Evaluation Fund (SIEF), over 2011/12-2021/22, will be channelled through a World Bank executed Trust Fund. It is expected that SIEF will deliver a minimum of 54 high quality impact evaluations of key development interventions focusing on human development outcomes. In addition, SIEF will deliver 20 capacity building workshops and events to improve understanding of impact evaluation techniques.</t>
+  </si>
+  <si>
+    <t>UK Collaborative on Development Sciences (UKCDS) Phase 2</t>
+  </si>
+  <si>
+    <t>To improve the relevance and maximise the impact of UK research funding on the lives of the world's poorest people.  The UK Collaborative on Development Sciences (UKCDS) will provide a framework for a more co-ordinated approach to development sciences research by UK based funders and stakeholders in international development research.</t>
+  </si>
+  <si>
+    <t>Andrew Shaw</t>
+  </si>
+  <si>
     <t>Capacity for Economic Research and Policy making in Africa (CERPA)</t>
   </si>
   <si>
     <t>To increase the  number and quality of MSc and Phd Economics graduates in developing countries involved in research and policy activities,  and to improve ability of developing country researchers to undertake high quality economic research. This will enable developing countries to manage their economies better, which should help them to  achieve higher economic growth.</t>
   </si>
   <si>
-    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,GHANA,NIGERIA,MOZAMBIQUE,ZAMBIA,MALAWI,ZIMBABWE,DRC,SOUTH AFRICA</t>
+    <t>JPAL Post-Primary Education Initiative. Testing the impact and cost-effectiveness of education interventions</t>
+  </si>
+  <si>
+    <t>The JPAL Education and Government Initiative delivers the highest standards of quantitative research applied to critical policy questions on education. Researchers partner with education practitioners and governments to test, adapt and scale a wide range of promising interventions including returns to girls for completing school, digital support to secondary school teaching, and innovations in skills training for employability. Cost data is collected throughout, supporting evidence-based investment and dis-investment decisions by donors and country governments. JPAL is building the evidence base on interventions to support marginalised children following Covid-19 school closures, and directly responds to the manifesto commitment on girls' education.</t>
   </si>
   <si>
     <t>Education Research Team</t>
@@ -275,6 +562,12 @@
     <t>TANZANIA,ETHIOPIA,NIGERIA,PAKISTAN,INDIA,INDONESIA,VIET NAM</t>
   </si>
   <si>
+    <t>Raising Learning Outcomes (RLO)</t>
+  </si>
+  <si>
+    <t>To develop a portfolio of research that provides policymakers and practitioners with concrete ideas on how to improve learning, with particular attention on gender and disability. The RLO programme is a partnership with the Economic and Social Research Council (ESRC) that uses the best of British research commissioning processes to award research grants on policy-relevant questions and supports researchers to engage with policy makers and practioners to acheive impact. As of September 2019, 34 grants had been awarded on effective teaching, education in challenging contexts and accountability and a second phase of the programme is planned with a focus on teachers, teaching and girl's education. This programme directly responds to the manifesto commitment on girls' education.</t>
+  </si>
+  <si>
     <t>Joanne Fall</t>
   </si>
   <si>
@@ -305,6 +598,15 @@
     <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,MOZAMBIQUE,MALAWI,NEPAL,INDIA,NIGER (THE),BURKINA FASO,GUINEA,INDONESIA,VIET NAM</t>
   </si>
   <si>
+    <t>Empowerment and Accountability</t>
+  </si>
+  <si>
+    <t>To produce operationally relevant and robust new research on social and political action that leads to the development of – and investment in  - more effective policies and programmes by external partners, including DFID, resulting in measurably improved empowerment and accountability as demonstrated by enhanced voice, choice and control for poor and marginalised groups, including women and girls.</t>
+  </si>
+  <si>
+    <t>NIGERIA,MOZAMBIQUE,PAKISTAN,MYANMAR</t>
+  </si>
+  <si>
     <t>Programme on Early Childhood Development</t>
   </si>
   <si>
@@ -329,13 +631,13 @@
     <t>KENYA,TANZANIA,ETHIOPIA,GHANA,MOZAMBIQUE,MALAWI,ZIMBABWE</t>
   </si>
   <si>
-    <t>CGIAR 2017-22, Support to develop and deploy the next generation of agriculture technology to support poor farmers by the international agriculture research organisation the CGIAR, 2017-22</t>
-  </si>
-  <si>
     <t>To enable the CGIAR to scale up its research, contributing to the development of new crop varieties which are more productive and tolerant of biotic and abiotic stress.  Development of farming systems which are more resilient, including to the effects of climate change, and more productive, the development of markets and value chains which are better able to deliver benefits to poor people and policies and technology which will directly support better nutritional and health outcomes for the poor.</t>
   </si>
   <si>
-    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,ZAMBIA,MALAWI,RWANDA,PAKISTAN,SIERRA LEONE,NEPAL,ZIMBABWE,DRC,AFGHANISTAN,SOUTH SUDAN,SENEGAL,SOMALIA,SUDAN (THE),MALI,NIGER (THE),BENIN,BURKINA FASO,BURUNDI,CAMEROON,CHAD,CÔTE D’IVOIRE,GAMBIA (THE),JORDAN,LEBANON,MAURITANIA,TOGO,VIET NAM</t>
+    <t>Epidemics and Global Health Security Research Programme (Epidemics and GHS)</t>
+  </si>
+  <si>
+    <t>This programme will accelerate research and development for disease outbreaks (such as COVID19, Ebola etc) with the goal of preventing and tackling epidemics, saving lives and improving global health security.  The programme  will support the development of new vaccines, diagnostics and treatments for epidemic diseases and provide better evidence about outbreak diseases, to inform more effective preparedness and response activities.</t>
   </si>
   <si>
     <t>Applied Research on Energy and Growth</t>
@@ -371,27 +673,15 @@
     <t>KENYA,UGANDA,BANGLADESH,NIGERIA,ZAMBIA,RWANDA,PAKISTAN</t>
   </si>
   <si>
-    <t>Impact Evaluations on urban transport, transport corridors and road safety across multilateral development banks and bilateral programmes (ieConnect).</t>
-  </si>
-  <si>
     <t>To deliver a conclusive body of research which shows what works in terms of using transport infrastructure to impact on economic development.   The project will focus on three main themes, which are i) Urban Mobility; ii) Transport Corridors; iii) Road Safety and also the cross cutting areas of fragile/conflict affected states and Female Economic Empowerment.</t>
   </si>
   <si>
-    <t>KENYA,TANZANIA,ETHIOPIA,NIGERIA,MOZAMBIQUE,MALAWI,RWANDA,PAKISTAN,NEPAL,INDIA,SOUTH AFRICA,SENEGAL,GUINEA-BISSAU,IRAQ,LIBERIA,NICARAGUA,TUNISIA</t>
-  </si>
-  <si>
-    <t>South Asia Country Research Fund</t>
-  </si>
-  <si>
     <t>This Fund has been set up to provide operationally relevant research support to country offices in South Asia. Studies will be commissioned on the basis of demand from FCDO country offices in Afghanistan, Bangladesh, Burma, India, Nepal and Pakistan and the context-specific evidence generated will inform the design of new programmes and improve implementation of ongoing programmes in these country offices. It is expected that the evidence generated by the programme will also be useful for other donors and the wider development community. Gender will be a key focus in the programme.</t>
   </si>
   <si>
     <t>Anirban Ganguly</t>
   </si>
   <si>
-    <t>BANGLADESH,PAKISTAN,NEPAL,INDIA,AFGHANISTAN,MYANMAR</t>
-  </si>
-  <si>
     <t>Contribution to World Bank ELP (Early Learning Partnership) Trust Fund for Early Childhood Education Research</t>
   </si>
   <si>
@@ -401,6 +691,15 @@
     <t>ETHIOPIA,PAKISTAN,JAMAICA,LIBERIA</t>
   </si>
   <si>
+    <t>Evaluation Quality Assurance and Learning Services (EQuALS)</t>
+  </si>
+  <si>
+    <t>To provide support to the design and implementation of DFID's evaluations through our engagement of an Evaluation Quality Assurance and Learning Service.  This service will provide technical support to and assurance of DFID's evaluation portfolio. This will result in ensuring that we produce high quality DFID evaluations that influence how we approach our development interventions resulting in higher quality, more streamlined programmes that will help the most vulnerable in society and support the value for money of the UK's strategic development objectives.</t>
+  </si>
+  <si>
+    <t>Kate O'Shea</t>
+  </si>
+  <si>
     <t>Evidence-Based Knowledge for Development (K4D) – a service delivering evidence and knowledge through collaborative lesson learning</t>
   </si>
   <si>
@@ -431,7 +730,10 @@
     <t>Kate Ross</t>
   </si>
   <si>
-    <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,BANGLADESH,GHANA,NIGERIA,MALAWI,PAKISTAN,SIERRA LEONE,INDIA,ZIMBABWE,SOUTH AFRICA,SOUTH SUDAN,SOMALIA,SUDAN (THE),PHILIPPINES (THE),LEBANON,MOROCCO,MONGOLIA,INDONESIA,CAMBODIA,LIBERIA,THAILAND</t>
+    <t>Governance, Crime and Conflict Initiative</t>
+  </si>
+  <si>
+    <t>To deliver experimental research to help identify ‘what works’ to improve governance; reduce crime and violence; and promote peace and post conflict recovery; and engage with policy makers in defining, commissioning and using high quality operationally relevant research that meets real needs in low income countries.</t>
   </si>
   <si>
     <t>Cross Border Conflict Evidence and Policy Trends</t>
@@ -449,6 +751,51 @@
     <t>NIGERIA,PAKISTAN,AFGHANISTAN,SOUTH SUDAN,MYANMAR,SOMALIA,SUDAN (THE),IRAN (ISLAMIC REPUBLIC OF),IRAQ,SYRIAN ARAB REPUBLIC,YEMEN,EGYPT,LIBYAN ARAB JAMAHIRIYA,CHAD,TUNISIA,ALGERIA</t>
   </si>
   <si>
+    <t>Low Energy Inclusive Appliances</t>
+  </si>
+  <si>
+    <t>To undertake research to accelerate the availability, affordability, efficiency and performance of Low Energy Inclusive Appliances (LEIA) suited to developing country contexts.  Domestic and small-industrial electrical appliances are key to increasing the impact of energy access for poor consumers, expanding the markets for household solar and mini-grid systems, and enabling the most efficient use of available power where the grid is unreliable.”</t>
+  </si>
+  <si>
+    <t>Robert MacIver</t>
+  </si>
+  <si>
+    <t>MECS - Modern Energy Cooking Services</t>
+  </si>
+  <si>
+    <t>This programme will investigate how to rapidly accelerate a transition from biomass to genuinely "clean" cooking, i.e. with electric or gas.</t>
+  </si>
+  <si>
+    <t>SMEP - Sustainable Manufacturing and Environmental Pollution programme</t>
+  </si>
+  <si>
+    <t>The Sustainable Manufacturing and Environmental Pollution (SMEP) programme will tackle the problem of pollution generated by manufacturing and industrial activity in developing countries. Pollution linked to manufacturing and industry in developing countries is causing very high (and in some cases catastrophic) levels of environmental degradation, which are leading to long-term health problems among workers and the general population, as well as widespread contamination of vital resources, including drinking water, livestock, soils and food crops.   The SMEP programme will contribute to the identification, development and application of technology-based solutions, cleaner production methods and systems that will reduce the environmental impact and pollution generated by manufacturing in developing countries, leading to long-term environmental sustainability, improved health standards and greater production efficiency.</t>
+  </si>
+  <si>
+    <t>Tim Sumner</t>
+  </si>
+  <si>
+    <t>Climate Compatible Growth</t>
+  </si>
+  <si>
+    <t>To achieve conditions for infrastructure investment in developing countries that both supports economic growth and is low-carbon. The programme does this by providing tools and evidence that supports investment decision takers in countries in Africa and Asia take an integrated and climate compatible approach about deployment of critical infrastructure capital. With a focus on energy and transport the research addresses how the design of physical infrastructure, regulatory and market systems can promote decarbonisation and how different infrastructure systems interact and can evolve to secure low carbon futures.</t>
+  </si>
+  <si>
+    <t>CLARE - CLimate And REsilience Framework Programme</t>
+  </si>
+  <si>
+    <t>To develop new, more demand responsive evidence, innovation and capacity to enable developing country governments and communities to better address climate change challenges and opportunities and develop more effective disaster risk management and recovery. The programme will support research to improve our understanding of weather and climate systems across African and the likely impacts of future change. It will also support research and innovation focused on low-carbon and climate resilient technology as well as help strengthen local capacity to do and use cutting edge climate research and evidence for development.</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>African Cities Research Programme</t>
+  </si>
+  <si>
+    <t>Research which will produce new operationally-relevant knowledge and evidence on African ‘cities as systems’. The research will help policy makers and those who manage cities to tackle the most significant problems constraining growth and development in individual African Cities, leading to the development of, and investment in, more effective economic development and poverty-reduction policies and programmes in African cities, by DFID and its partners.</t>
+  </si>
+  <si>
     <t>Taxation and development</t>
   </si>
   <si>
@@ -476,9 +823,54 @@
     <t>UGANDA,TANZANIA,ETHIOPIA,GHANA,NIGERIA,MALAWI,RWANDA,SIERRA LEONE,ZIMBABWE,SOUTH AFRICA,MYANMAR,SOMALIA,SWAZILAND,DJIBOUTI,GAMBIA (THE),GUINEA-BISSAU,LIBERIA,NAMIBIA,GUYANA,SRI LANKA,THAILAND,TIMOR-LESTE,FIJI,PAPUA NEW GUINEA,VANUATU,ALBANIA</t>
   </si>
   <si>
+    <t>Building the evidence on forced displacement - a multi-stakeholder partnership</t>
+  </si>
+  <si>
+    <t>To improve  the effectiveness, efficiency and impact of current and potential interventions to support people affected by forced protracted displacement, by generating new research evidence that can be used by humanitarian and development organisations to support more effective policies and interventions for displaced people, hosting countries and communities. This will contribute toward the Sustainable Development Goals (SDGs), where the number of forcibly displaced people has increased on average by 1.6 million people per year over the period 2000-2014 posing significant challenges to achieving the SDGs.</t>
+  </si>
+  <si>
+    <t>Ciara Silke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Development Research programme (PDPs)</t>
+  </si>
+  <si>
+    <t>This programme in the Ross Fund Portfolio (which focusses on neglected tropical diseases, diseases of emerging resistance and diseases of epidemic potential) will support the development of new products (such as drugs, diagnostics and insecticides) for targeted diseases, including diseases of emerging resistance (that are becoming an increasing threat globally); neglected tropical diseases (that affect over a billion people worldwide); and diseases of epidemic potential (that can rapidly spread if not stopped).</t>
+  </si>
+  <si>
+    <t>Applied health research programme (Applied)</t>
+  </si>
+  <si>
+    <t>This programme in the Ross Fund Portfolio (which focusses on neglected tropical diseases, diseases of emerging resistance and diseases of epidemic potential) aims to build the evidence based on effective interventions and delivery mechanisms to tackle infectious diseases in low and middle income countries. The research programmes will take an integrated and multi-disciplinary approach to help DFID and the development community better understand what works most effectively to tackle infectious diseases, building upon the existing evidence base. The research addresses a number of core themes, including delivery through health systems, value for money of interventions, vulnerable groups, gender and building evidence on interventions in a range of contexts including (but not limited to) fragile and conflict affected states.</t>
+  </si>
+  <si>
     <t>Dirk Mueller</t>
   </si>
   <si>
+    <t>Support for research into tropical diseases, human reproduction and health policy and systems through WHO-based research programmes</t>
+  </si>
+  <si>
+    <t>To contribute to research leading to improvements in (i) health systems and policy, (ii) infectious disease knowledge, solutions and implementation of strategies, iii) research to improve sexual and reproductive health</t>
+  </si>
+  <si>
+    <t>Joint Health Systems Research Initiative 2017- 2022</t>
+  </si>
+  <si>
+    <t>To fund rigorous, high quality research that provides a step change in our understanding of the optimisation of health systems to deliver new or existing evidence-based interventions for the benefit of people in low and middle income countries, and to close the gap between the generation of research knowledge and its implementation and impact at scale.</t>
+  </si>
+  <si>
+    <t>Medical Research Council Concordat 2018-2023 for the funding of a portfolio of global health research</t>
+  </si>
+  <si>
+    <t>To produce evidence from high quality health research that will help reduce the burden of disease and improve health care for poor people living in low income countries, particularly in Africa and Asia. The research will address priority health issues including mother and child health, sexual and reproductive health, and communicable diseases such as malaria, tuberculosis and HIV. In the long-term the research will contribute to improved health of the poorest people.</t>
+  </si>
+  <si>
+    <t>icddr,b (International Centre for Diarrhoeal Disease Research, Bangladesh) Grant 2017-2022</t>
+  </si>
+  <si>
+    <t>To help fill the gaps in evidence to improve health outcomes of the poor and vulnerable in the areas of reproductive, maternal and newborn health, maternal and child nutrition, enteric (diarrhoea-related) diseases, and emerging and re-emerging infections.</t>
+  </si>
+  <si>
     <t>Education Research in Conflict and Protracted Crisis (ERICC)</t>
   </si>
   <si>
@@ -488,6 +880,12 @@
     <t>NIGERIA,SOUTH SUDAN,MYANMAR,SYRIAN ARAB REPUBLIC,JORDAN,LEBANON</t>
   </si>
   <si>
+    <t>M4H - Mobile for Humanitarian: Exploring the use of mobile technology to provide life-enhancing services during humanitarian response, recovery and preparedness.</t>
+  </si>
+  <si>
+    <t>The Mobile for Humanitarian programme will work with the mobile industry and humanitarian organisations to develop cost effective, scale-able solutions and business models for delivering a range of services to improve disaster preparedness, humanitarian response and recovery. This will include access to information and connectivity, financial services, access to water, sanitation and energy services, digital identity solutions and improving the effectiveness of delivery and distribution of humanitarian aid.</t>
+  </si>
+  <si>
     <t>Innovation in emergencies and protracted crises</t>
   </si>
   <si>
@@ -500,6 +898,15 @@
     <t>ETHIOPIA,DRC,SOUTH SUDAN,SUDAN (THE),LEBANON,IRAQ,SYRIAN ARAB REPUBLIC,SWITZERLAND,INDONESIA,UNITED STATES OF AMERICA (THE)</t>
   </si>
   <si>
+    <t>Building an evidence base on the protection of people affected by conflict (BEPAC)</t>
+  </si>
+  <si>
+    <t>DFID is committed to generating evidence on how to address the toughest challenges in the hardest places. In support of this, Building an Evidence Base on Humanitarian Protection of People Affected by Conflict (BEPAC), will improve our understanding of the risks people affected by conflict face, and what can be done to avoid/reduce and mitigate against them. Through studying the effectiveness of interventions that seek to improve the protection of persons affected by conflict, and improving our understanding of what factors increase or decrease rights violations, evidence will be generated to inform more effective programming and policy.   Click on component tab for more details.</t>
+  </si>
+  <si>
+    <t>Deborah Baglole</t>
+  </si>
+  <si>
     <t>The development and delivery of new effective and cheap animal vaccines and medicines to poor livestock keepers through support to the Global Alliance for Livestock Veterinary Medicines</t>
   </si>
   <si>
@@ -524,6 +931,12 @@
     <t>AFGHANISTAN</t>
   </si>
   <si>
+    <t>Results and Research Impact Programme (RRIP)</t>
+  </si>
+  <si>
+    <t>To support the generation of research and evaluation evidence to improve current understanding of the impact of DFID-funded health research. It will enable better analysis and learning from research data. This will allow DFID, and other research funders, to make better resource allocation decisions and more effectively demonstrate and communicate the contribution of health research to achieving international development objectives.</t>
+  </si>
+  <si>
     <t>Strengthening Impact Investment Markets for Agriculture (SIIMA)</t>
   </si>
   <si>
@@ -536,6 +949,15 @@
     <t>KENYA,UGANDA,TANZANIA,ETHIOPIA,GHANA,NIGERIA,ZAMBIA,RWANDA</t>
   </si>
   <si>
+    <t>Enhancing Digital and Innovations for Agri-food Systems and Livelihoods (eDIAL) Programme</t>
+  </si>
+  <si>
+    <t>The programme will increase productivity and incomes for farmers by harnessing digital and innovation; generate evidence on scalable approaches to deliver market access for smallholders at scale; and mainstream this evidence by improving open data policies in DFID focus countries. The programme will support DFID country offices with other UK ODA to maximise opportunities from digital in agriculture and market systems programmes. eDIAL has four components: partnership with the BMGF Digital Farmer Services portfolio, (2) partnership with GSMA on MNO-agribusiness investments, (3) support to GODAN on open data for ag, and (4) a new demand-driven facility to support country offices and other UK ODA with technical assistance for programme design and piloting new technologies.</t>
+  </si>
+  <si>
+    <t>This is a multi-lateral programme which is core funded</t>
+  </si>
+  <si>
     <t>Development and delivery of new biofortified crops at scale</t>
   </si>
   <si>
@@ -566,6 +988,12 @@
     <t>KENYA,UGANDA,ETHIOPIA,NIGERIA,SOUTH SUDAN,SOMALIA,SUDAN (THE),MALI,NIGER (THE),BURKINA FASO,CHAD,ERITREA,MAURITANIA,SYRIAN ARAB REPUBLIC,YEMEN</t>
   </si>
   <si>
+    <t>Structural Change and Economic Growth Programme (STEG)</t>
+  </si>
+  <si>
+    <t>This research programme will enable us to better understand which economic activities in developing countries generate the highest productivity gains and whether resources are allocated efficiently towards these most productive activities.  A better understanding of these processes will help developing countries determine what paths of economic development will best facilitate economic growth and sustained development. It will help shed light on what types of intervention (both policies and programmes) best support productivity gains and structural change. This will help to deliver the UK’s development objectives of sustainable economic growth and poverty reduction in developing countries.</t>
+  </si>
+  <si>
     <t>Africa Technology and Innovation Partnerships - ATIP</t>
   </si>
   <si>
@@ -581,6 +1009,18 @@
     <t>KENYA,TANZANIA,GHANA,NIGERIA,RWANDA,SOUTH AFRICA</t>
   </si>
   <si>
+    <t>The Evidence Fund - 300708</t>
+  </si>
+  <si>
+    <t>The Evidence Fund - a demand responsive programme designed to procure and manage country and country-specific research and evaluations that will inform policy and programming decisions. The programme will strengthen the evidence base and apply lessons across a broad range of operationally relevant themes across international development priorities, working closely with customers in country offices, policy and strategy teams to achieve x-HMG objectives.</t>
+  </si>
+  <si>
+    <t>Evidence into Action</t>
+  </si>
+  <si>
+    <t>Fran Davies</t>
+  </si>
+  <si>
     <t>Tackling global plant and animal health risks which threaten global food systems and health - in partnership with the Bill &amp; Melinda Gates Foundation (BMGF)</t>
   </si>
   <si>
@@ -602,6 +1042,15 @@
     <t>KENYA,ETHIOPIA,BANGLADESH,PAKISTAN,NEPAL,INDIA</t>
   </si>
   <si>
+    <t>Reversing Environmental Degradation in Africa and Asia (REDAA) - developing innovative approaches to managing the natural environment, supporting livelihoods and protecting wildlife.</t>
+  </si>
+  <si>
+    <t>This programme focuses on addressing the challenge of environmental degradation in Africa and Asia - seeking to improve the condition of natural landscapes in ways that enable people and nature to thrive together.  REDAA will expand the technical knowledge and evidence base for environmental restoration and sustainable natural resources management in Africa and Asia; and develop innovative solutions that address serious environmental challenges and support the design and implementation of sustainable livelihoods strategies for local communities.</t>
+  </si>
+  <si>
+    <t>Jonathan Hassall</t>
+  </si>
+  <si>
     <t>Getting children ready to learn and thrive - Research into implementing effective and quality Early Childhood Development at scale</t>
   </si>
   <si>
@@ -638,6 +1087,48 @@
     <t>NEPAL</t>
   </si>
   <si>
+    <t>AT2030 Life-changing Assistive Technologies for All</t>
+  </si>
+  <si>
+    <t>Over 1bn people live with moderate to severe functioning difficulties. 80% live in developing countries and 90% do not have access to the assistive technology, or 'AT', that they need. AT includes for example, wheelchairs, hearing-aids, digital devices, spectacles and prosthetics and orthotics.   Increasing access to AT for people with impairments reduces poverty through improving access to education, employment, vocational training, healthcare, etc. As a result, participation in society and the community also increases.  AT2030 will test and deliver proven methods of 'what works' to improve access to affordable AT, to the point they have started to reach scale or disrupt markets. It focusses on innovative products, new service delivery models and local capacity and will test novel approaches in four clusters - data and evidence, innovation, country implementation, and capacity and participation.  The programme works across over 13 countries.</t>
+  </si>
+  <si>
+    <t>Climate, Energy &amp; Water Team</t>
+  </si>
+  <si>
+    <t>Anne MacKinnon</t>
+  </si>
+  <si>
+    <t>Knowledge &amp; Education Evidence Products (KEEP)</t>
+  </si>
+  <si>
+    <t>This programme will secure UK leadership to produce global goods in education, catalyse mulitlateral, bilateral and philanthropic spend to address learning poverty,  and convene global and national policy reform events across 27 DFID countries. Funding will support research projects which respond to the urgent need to understand how to bring girls back into the classroom following Covid-19 school closures, and informs systems change to ensure all children can learn once they return to school. This programme directly responds to the manifesto commitment on girls' education.</t>
+  </si>
+  <si>
+    <t>Education Research Team (RED)</t>
+  </si>
+  <si>
+    <t>Research for Health in Humanitarian Crisis programme.</t>
+  </si>
+  <si>
+    <t>To improve the evidence base for delivering public health interventions in humanitarian crises. This will lead to more efficient and effective health interventions, health systems and emergency response programming. Ultimately, this is expected to  save lives and improve health outcomes in natural and humanitarian emergencies. These outcomes will contribute to the United Nations Sustainable Development Goal 3 of good-health-and-well-being.</t>
+  </si>
+  <si>
+    <t>Evaluation Quality Assurance and Learning Service 2 - EQUALS 2</t>
+  </si>
+  <si>
+    <t>This programme will provide independent, high quality efficient and effective advice and assurance throughout the programme cycle to ensure that Official Development Assistance (ODA) funds are used for undertaking high quality monitoring, evaluation and learning that meets the evolving needs in development. Other ODA spending government departments can access it to ensure evaluations of their programmes are of a high enough quality to be published.   Monitoring and evaluations can provide accountability for tax-payers money and enable learning and new evidence generation to inform current and future policy and programming across UK and other Governments. It will additionally be open to some Non ODA evaluations within FCDO for the same quality assurance and assistance.</t>
+  </si>
+  <si>
+    <t>Sophie Tanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New technologies for global health delivered by Product Development Partnerships</t>
+  </si>
+  <si>
+    <t>This programme which focusses on neglected tropical diseases, diseases of emerging resistance and diseases of epidemic potential will support the development of new products such as drugs, diagnostics and insecticides for targeted diseases, including diseases of emerging resistance that are becoming an increasing threat globally, neglected tropical diseases that affect over a billion people worldwide and diseases of epidemic potential that can rapidly spread if not stopped.</t>
+  </si>
+  <si>
     <t>Young Lives At Work, improved understanding of the effect of educational opportunities on labour market outcomes</t>
   </si>
   <si>
@@ -716,84 +1207,43 @@
     <t>TANZANIA,BENIN,CÔTE D’IVOIRE,CAMEROON</t>
   </si>
   <si>
-    <t>GB-1-205053</t>
-  </si>
-  <si>
-    <t>programme_name</t>
-  </si>
-  <si>
-    <t>GB-GOV-1-300708</t>
-  </si>
-  <si>
-    <t>Evidence Fund</t>
-  </si>
-  <si>
-    <t>GB-1-200574</t>
-  </si>
-  <si>
-    <t>Annual subscription to CABI</t>
-  </si>
-  <si>
-    <t>GB-1-202960</t>
-  </si>
-  <si>
-    <t>Macroeconomic Research in Low-Income Countries</t>
-  </si>
-  <si>
-    <t>GB-1-203051-104</t>
-  </si>
-  <si>
-    <t>Economic Development and Institutions (EDI) research programme - MULTILATERAL COMPONENT</t>
-  </si>
-  <si>
-    <t>GB-1-203185-106</t>
-  </si>
-  <si>
-    <t>ARRCC - Contribution to World Bank Programme on Asia Resileince to Climate Change: supporting Research &amp; Innovation activities  - CDEL - Research and Evidence Division</t>
-  </si>
-  <si>
-    <t>GB-1-204153-109</t>
-  </si>
-  <si>
-    <t>African Economic Research Consortium’s Research and Capacity Building Project Phase 2 (2015-2019)2 - Research</t>
-  </si>
-  <si>
-    <t>GB-1-204624-105</t>
-  </si>
-  <si>
-    <t>WISER - MET Office - Research and Evidence Divisions programme (CDEL) investment to improve weather early warning systems and inform better agriculture decisons Research</t>
-  </si>
-  <si>
-    <t>GB-1-204764</t>
-  </si>
-  <si>
-    <t>GB-1-204765-104</t>
-  </si>
-  <si>
-    <t>WHO (World Health Organisation) Blueprint to Accelerate Research &amp; Development for Disease Outbreaks</t>
-  </si>
-  <si>
-    <t>FCDO support to QuantuMDx (a diagnostics developer company) for the development of a self-contained, laboratory-independent device and cartridge for a molecular diagnosis of COVID-19 (and later, potentially, other diseases) with application in LMIC.</t>
-  </si>
-  <si>
-    <t>GB-1-204765-111</t>
-  </si>
-  <si>
-    <t>iati_identifier</t>
-  </si>
-  <si>
-    <t>fcdo_geocoding_countries</t>
+    <t>Peace and Conflict Resolution Evidence Platform</t>
+  </si>
+  <si>
+    <t>To deliver a new UK research and data platform to track conflict and its resolution, using technology (e.g. data analytics and Artificial Intelligence (AI)) and working with research partners in conflict affected countries. The programme will deliver world class research and provide ‘rapid response’ data and expertise for FCDO and our global partners which will help inform policies.</t>
+  </si>
+  <si>
+    <t>Governance, Conflict, Inclusion and Humanitarian</t>
+  </si>
+  <si>
+    <t>FCDO Expert Capability Programme</t>
+  </si>
+  <si>
+    <t>This Expert Capability Programme aims to consolidate our approach to accessing deep expertise across technical disciplines from trusted science, technology and innovation networks and to systematise our engagement with industry and academia. It will provide an agile partnership mechanism to access leading academics and deep expertise to respond to FCDO development priorities.</t>
+  </si>
+  <si>
+    <t>Research Dept – CDEL pay costs</t>
+  </si>
+  <si>
+    <t>Transfer of pay costs from admin and or FLD to CDEL. Treasury directive to capitalise Research pay ESA10</t>
+  </si>
+  <si>
+    <t>RED FINANCE TEAM</t>
+  </si>
+  <si>
+    <t>Gillian Steele</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,8 +1361,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,18 +1550,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF002060"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1220,6 +1670,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8EAADB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EAADB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1265,14 +1726,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1318,7 +1796,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1333,16 +1811,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1656,123 +2124,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F4EA4-DC3A-4C1B-81EE-634021F720DA}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="87.8984375" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="2" max="2" width="87.8984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="74.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>252</v>
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>233</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>237</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>243</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>249</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Columbia"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Columbia">
+      <formula>NOT(ISERROR(SEARCH("Columbia",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F38CAD-DB9A-497E-8299-DDCC12FE524F}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="42.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.296875" customWidth="1"/>
+    <col min="4" max="4" width="26.796875" customWidth="1"/>
+    <col min="5" max="5" width="42.8984375" customWidth="1"/>
+    <col min="6" max="6" width="24.296875" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" customWidth="1"/>
+    <col min="8" max="8" width="32.796875" customWidth="1"/>
+    <col min="10" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.3984375" customWidth="1"/>
+    <col min="16" max="16" width="14.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6">
+        <v>43739</v>
+      </c>
+      <c r="K2" s="6">
+        <v>46295</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2">
+        <v>57624995</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1780,1153 +2425,1136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K57"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A274C2EA-44BD-4C0C-A095-E8879E667E76}">
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.796875" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" customWidth="1"/>
-    <col min="9" max="9" width="49.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>202568</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>200574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>40695</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45747</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>24600000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>12461864.199999999</v>
+        <v>81</v>
+      </c>
+      <c r="G2" s="9">
+        <v>39904</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45016</v>
+      </c>
+      <c r="J2" s="10">
+        <v>17162788</v>
+      </c>
+      <c r="K2" s="11">
+        <v>15678567</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>202749</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>201267</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>41064</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44650</v>
+        <v>81</v>
+      </c>
+      <c r="G3" s="9">
+        <v>40148</v>
+      </c>
+      <c r="H3" s="9">
+        <v>46477</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2">
-        <v>11897567</v>
-      </c>
-      <c r="K3" s="3">
-        <v>11736364.4</v>
+        <v>86</v>
+      </c>
+      <c r="J3" s="10">
+        <v>77000000</v>
+      </c>
+      <c r="K3" s="11">
+        <v>60200023.200000003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>202835</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>201879</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40778</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45747</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2">
-        <v>36640000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>22713800.899999999</v>
+        <v>81</v>
+      </c>
+      <c r="G4" s="9">
+        <v>41376</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45016</v>
+      </c>
+      <c r="J4" s="10">
+        <v>40501000</v>
+      </c>
+      <c r="K4" s="11">
+        <v>24108119.600000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>203041</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>201880</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>41214</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44742</v>
+        <v>81</v>
+      </c>
+      <c r="G5" s="9">
+        <v>41460</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45436</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2">
-        <v>15376244</v>
-      </c>
-      <c r="K5" s="3">
-        <v>14783100</v>
+        <v>94</v>
+      </c>
+      <c r="J5" s="10">
+        <v>22500000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>15484470</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>203050</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>202568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>41275</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45107</v>
+        <v>81</v>
+      </c>
+      <c r="G6" s="9">
+        <v>40695</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45747</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2">
-        <v>19761356</v>
-      </c>
-      <c r="K6" s="3">
-        <v>19701355</v>
+        <v>99</v>
+      </c>
+      <c r="J6" s="10">
+        <v>24600000</v>
+      </c>
+      <c r="K6" s="11">
+        <v>12461864.199999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>203051</v>
+        <v>202749</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>41000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44651</v>
+        <v>81</v>
+      </c>
+      <c r="G7" s="9">
+        <v>41064</v>
+      </c>
+      <c r="H7" s="9">
+        <v>44650</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>14994000</v>
-      </c>
-      <c r="K7" s="3">
-        <v>14274938.800000001</v>
+        <v>102</v>
+      </c>
+      <c r="J7" s="10">
+        <v>11897567</v>
+      </c>
+      <c r="K7" s="11">
+        <v>11736364.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>203052</v>
+        <v>202766</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1">
-        <v>40891</v>
-      </c>
-      <c r="H8" s="1">
-        <v>47208</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="9">
+        <v>40994</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45382</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2">
-        <v>31131042</v>
-      </c>
-      <c r="K8" s="3">
-        <v>24057052.800000001</v>
+        <v>86</v>
+      </c>
+      <c r="J8" s="10">
+        <v>6128571</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5506031.7999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>203067</v>
+        <v>202835</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
-        <v>41730</v>
-      </c>
-      <c r="H9" s="1">
-        <v>45657</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="9">
+        <v>40778</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45747</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="2">
-        <v>17223776</v>
-      </c>
-      <c r="K9" s="3">
-        <v>12287517.9</v>
+        <v>109</v>
+      </c>
+      <c r="J9" s="10">
+        <v>36640000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>22713800.899999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>203089</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>202960</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1">
-        <v>41456</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44500</v>
+        <v>81</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40840</v>
+      </c>
+      <c r="H10" s="9">
+        <v>45747</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="2">
-        <v>11333974</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9904337.3000000007</v>
+        <v>86</v>
+      </c>
+      <c r="J10" s="10">
+        <v>19835986</v>
+      </c>
+      <c r="K10" s="11">
+        <v>17210000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>203212</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>203041</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1">
-        <v>41000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44651</v>
+        <v>81</v>
+      </c>
+      <c r="G11" s="9">
+        <v>41214</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44742</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2">
-        <v>9800000</v>
-      </c>
-      <c r="K11" s="3">
-        <v>8900000</v>
+        <v>115</v>
+      </c>
+      <c r="J11" s="10">
+        <v>15376244</v>
+      </c>
+      <c r="K11" s="11">
+        <v>14783100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>203529</v>
+        <v>203050</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1">
-        <v>41365</v>
-      </c>
-      <c r="H12" s="1">
-        <v>45565</v>
+        <v>81</v>
+      </c>
+      <c r="G12" s="9">
+        <v>41275</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45107</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="2">
-        <v>30896804</v>
-      </c>
-      <c r="K12" s="3">
-        <v>19957172.100000001</v>
+        <v>119</v>
+      </c>
+      <c r="J12" s="10">
+        <v>19761356</v>
+      </c>
+      <c r="K12" s="11">
+        <v>19701355</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>203804</v>
+        <v>203051</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1">
-        <v>41278</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45382</v>
+        <v>81</v>
+      </c>
+      <c r="G13" s="9">
+        <v>41000</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44651</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="2">
-        <v>76827334</v>
-      </c>
-      <c r="K13" s="3">
-        <v>50566292.700000003</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>14994000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>14274938.800000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>203835</v>
+        <v>203052</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>41316</v>
-      </c>
-      <c r="H14" s="1">
-        <v>44681</v>
+        <v>81</v>
+      </c>
+      <c r="G14" s="9">
+        <v>40891</v>
+      </c>
+      <c r="H14" s="9">
+        <v>47208</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="2">
-        <v>19418691</v>
-      </c>
-      <c r="K14" s="3">
-        <v>19118231.600000001</v>
+        <v>125</v>
+      </c>
+      <c r="J14" s="10">
+        <v>31131042</v>
+      </c>
+      <c r="K14" s="11">
+        <v>24057052.800000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>203844</v>
+        <v>203067</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1">
-        <v>41640</v>
-      </c>
-      <c r="H15" s="1">
-        <v>44927</v>
+        <v>81</v>
+      </c>
+      <c r="G15" s="9">
+        <v>41730</v>
+      </c>
+      <c r="H15" s="9">
+        <v>45657</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="2">
-        <v>18000000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7779152.4000000004</v>
+        <v>128</v>
+      </c>
+      <c r="J15" s="10">
+        <v>17223776</v>
+      </c>
+      <c r="K15" s="11">
+        <v>12287517.9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>203872</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>203089</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9">
         <v>41456</v>
       </c>
-      <c r="H16" s="1">
-        <v>44561</v>
+      <c r="H16" s="9">
+        <v>44500</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="2">
-        <v>24774033</v>
-      </c>
-      <c r="K16" s="3">
-        <v>24774033</v>
+        <v>132</v>
+      </c>
+      <c r="J16" s="10">
+        <v>11333974</v>
+      </c>
+      <c r="K16" s="11">
+        <v>9904337.3000000007</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>204153</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>203212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1">
-        <v>42064</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G17" s="9">
+        <v>41000</v>
+      </c>
+      <c r="H17" s="9">
+        <v>44651</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="2">
-        <v>22300000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>15686534</v>
+        <v>135</v>
+      </c>
+      <c r="J17" s="10">
+        <v>9800000</v>
+      </c>
+      <c r="K17" s="11">
+        <v>8900000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>204322</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>203529</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1">
-        <v>41730</v>
-      </c>
-      <c r="H18" s="1">
-        <v>45746</v>
+        <v>81</v>
+      </c>
+      <c r="G18" s="9">
+        <v>41365</v>
+      </c>
+      <c r="H18" s="9">
+        <v>45565</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="2">
-        <v>37660852</v>
-      </c>
-      <c r="K18" s="3">
-        <v>28199097.699999999</v>
+        <v>140</v>
+      </c>
+      <c r="J18" s="10">
+        <v>30896804</v>
+      </c>
+      <c r="K18" s="11">
+        <v>19957172.100000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>204415</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>84</v>
+        <v>203569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="9">
+        <v>41532</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45030</v>
+      </c>
+      <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1">
-        <v>41730</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45747</v>
-      </c>
-      <c r="I19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="2">
-        <v>40150002</v>
-      </c>
-      <c r="K19" s="3">
-        <v>20362597.199999999</v>
+      <c r="J19" s="10">
+        <v>20000000</v>
+      </c>
+      <c r="K19" s="11">
+        <v>5748956.4000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>204420</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>203752</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>41821</v>
-      </c>
-      <c r="H20" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G20" s="9">
+        <v>42005</v>
+      </c>
+      <c r="H20" s="9">
+        <v>44651</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="2">
-        <v>35000000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>18916870.100000001</v>
+        <v>86</v>
+      </c>
+      <c r="J20" s="10">
+        <v>16248812</v>
+      </c>
+      <c r="K20" s="11">
+        <v>13199472.699999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>204653</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>203804</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1">
-        <v>41715</v>
-      </c>
-      <c r="H21" s="1">
-        <v>43830</v>
+        <v>81</v>
+      </c>
+      <c r="G21" s="9">
+        <v>41278</v>
+      </c>
+      <c r="H21" s="9">
+        <v>45382</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1959860.9</v>
+        <v>150</v>
+      </c>
+      <c r="J21" s="10">
+        <v>76827334</v>
+      </c>
+      <c r="K21" s="11">
+        <v>50566292.700000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>204725</v>
+        <v>203835</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1">
-        <v>41883</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44620</v>
+        <v>81</v>
+      </c>
+      <c r="G22" s="9">
+        <v>41316</v>
+      </c>
+      <c r="H22" s="9">
+        <v>44681</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2">
-        <v>6782899</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6211834.2000000002</v>
+        <v>154</v>
+      </c>
+      <c r="J22" s="10">
+        <v>19418691</v>
+      </c>
+      <c r="K22" s="11">
+        <v>19118231.600000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>204764</v>
+        <v>203844</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1">
-        <v>43066</v>
-      </c>
-      <c r="H23" s="1">
-        <v>45046</v>
+        <v>81</v>
+      </c>
+      <c r="G23" s="9">
+        <v>41640</v>
+      </c>
+      <c r="H23" s="9">
+        <v>44927</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="2">
-        <v>139261429</v>
-      </c>
-      <c r="K23" s="3">
-        <v>139114489</v>
+        <v>157</v>
+      </c>
+      <c r="J23" s="10">
+        <v>18000000</v>
+      </c>
+      <c r="K23" s="11">
+        <v>7779152.4000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>204773</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>104</v>
+        <v>203872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1">
-        <v>42522</v>
-      </c>
-      <c r="H24" s="1">
-        <v>44834</v>
+        <v>81</v>
+      </c>
+      <c r="G24" s="9">
+        <v>41456</v>
+      </c>
+      <c r="H24" s="9">
+        <v>44561</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="2">
-        <v>15500000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>11146113.300000001</v>
+        <v>161</v>
+      </c>
+      <c r="J24" s="10">
+        <v>24774033</v>
+      </c>
+      <c r="K24" s="11">
+        <v>24774033</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>204836</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>203933</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1">
-        <v>43009</v>
-      </c>
-      <c r="H25" s="1">
-        <v>46445</v>
+        <v>81</v>
+      </c>
+      <c r="G25" s="9">
+        <v>41000</v>
+      </c>
+      <c r="H25" s="9">
+        <v>45534</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1574613.4</v>
+        <v>86</v>
+      </c>
+      <c r="J25" s="10">
+        <v>29904657</v>
+      </c>
+      <c r="K25" s="11">
+        <v>27196950</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>204867</v>
+        <v>204133</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1">
-        <v>42270</v>
-      </c>
-      <c r="H26" s="1">
-        <v>45382</v>
+        <v>81</v>
+      </c>
+      <c r="G26" s="9">
+        <v>41365</v>
+      </c>
+      <c r="H26" s="9">
+        <v>44651</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="2">
-        <v>99193930</v>
-      </c>
-      <c r="K26" s="3">
-        <v>76891056.900000006</v>
+        <v>86</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3103308</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1915865</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>204931</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>204153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1">
-        <v>42370</v>
-      </c>
-      <c r="H27" s="1">
-        <v>45291</v>
+        <v>81</v>
+      </c>
+      <c r="G27" s="9">
+        <v>42064</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45747</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="2">
-        <v>12250000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>11099855</v>
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>22300000</v>
+      </c>
+      <c r="K27" s="11">
+        <v>15686534</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>205053</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>118</v>
+        <v>204291</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1">
-        <v>42167</v>
-      </c>
-      <c r="H28" s="1">
-        <v>44773</v>
+        <v>81</v>
+      </c>
+      <c r="G28" s="9">
+        <v>41670</v>
+      </c>
+      <c r="H28" s="9">
+        <v>44650</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="2">
-        <v>4900000</v>
-      </c>
-      <c r="K28" s="3">
-        <v>4544146</v>
+        <v>86</v>
+      </c>
+      <c r="J28" s="10">
+        <v>4914002</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4278920.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>205103</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>204322</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1">
-        <v>42248</v>
-      </c>
-      <c r="H29" s="1">
-        <v>44544</v>
+        <v>81</v>
+      </c>
+      <c r="G29" s="9">
+        <v>41730</v>
+      </c>
+      <c r="H29" s="9">
+        <v>45746</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>4961891.2</v>
+        <v>175</v>
+      </c>
+      <c r="J29" s="10">
+        <v>37660852</v>
+      </c>
+      <c r="K29" s="11">
+        <v>28199097.699999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>205121</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>125</v>
+        <v>204324</v>
+      </c>
+      <c r="B30" t="s">
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1">
-        <v>42583</v>
-      </c>
-      <c r="H30" s="1">
-        <v>44834</v>
+        <v>81</v>
+      </c>
+      <c r="G30" s="9">
+        <v>41649</v>
+      </c>
+      <c r="H30" s="9">
+        <v>45747</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="2">
-        <v>9646279</v>
-      </c>
-      <c r="K30" s="3">
-        <v>8293978.7000000002</v>
+        <v>86</v>
+      </c>
+      <c r="J30" s="10">
+        <v>15000000</v>
+      </c>
+      <c r="K30" s="11">
+        <v>12858249.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>205271</v>
+        <v>204415</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1">
-        <v>42583</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45199</v>
+        <v>81</v>
+      </c>
+      <c r="G31" s="9">
+        <v>41730</v>
+      </c>
+      <c r="H31" s="9">
+        <v>45747</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="2">
-        <v>44925736</v>
-      </c>
-      <c r="K31" s="3">
-        <v>41125249</v>
+        <v>183</v>
+      </c>
+      <c r="J31" s="10">
+        <v>40150002</v>
+      </c>
+      <c r="K31" s="11">
+        <v>20362597.199999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>205288</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>204420</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1">
-        <v>42425</v>
-      </c>
-      <c r="H32" s="1">
-        <v>46554</v>
+        <v>81</v>
+      </c>
+      <c r="G32" s="9">
+        <v>41821</v>
+      </c>
+      <c r="H32" s="9">
+        <v>45747</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="2">
-        <v>36297928</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10566684</v>
+        <v>187</v>
+      </c>
+      <c r="J32" s="10">
+        <v>35000000</v>
+      </c>
+      <c r="K32" s="11">
+        <v>18916870.100000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>300100</v>
+        <v>204427</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
         <v>138</v>
@@ -2935,879 +3563,2330 @@
         <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1">
-        <v>43009</v>
-      </c>
-      <c r="H33" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G33" s="9">
+        <v>42156</v>
+      </c>
+      <c r="H33" s="9">
+        <v>44561</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="2">
-        <v>29000000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>7502239.7000000002</v>
+        <v>190</v>
+      </c>
+      <c r="J33" s="10">
+        <v>6500000</v>
+      </c>
+      <c r="K33" s="11">
+        <v>6232123.0999999996</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>300211</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>141</v>
+        <v>204653</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1">
-        <v>43617</v>
-      </c>
-      <c r="H34" s="1">
-        <v>45382</v>
+        <v>81</v>
+      </c>
+      <c r="G34" s="9">
+        <v>41715</v>
+      </c>
+      <c r="H34" s="9">
+        <v>43830</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="2">
-        <v>13300000</v>
-      </c>
-      <c r="K34" s="3">
-        <v>4306194</v>
+        <v>194</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1959860.9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>300288</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>145</v>
+        <v>204725</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1">
-        <v>42549</v>
-      </c>
-      <c r="H35" s="1">
-        <v>44561</v>
+        <v>81</v>
+      </c>
+      <c r="G35" s="9">
+        <v>41883</v>
+      </c>
+      <c r="H35" s="9">
+        <v>44620</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="2">
-        <v>17204352</v>
-      </c>
-      <c r="K35" s="3">
-        <v>17050931.800000001</v>
+        <v>198</v>
+      </c>
+      <c r="J35" s="10">
+        <v>6782899</v>
+      </c>
+      <c r="K35" s="11">
+        <v>6211834.2000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>300405</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>151</v>
+        <v>204764</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1">
-        <v>42917</v>
-      </c>
-      <c r="H36" s="1">
-        <v>46295</v>
+        <v>81</v>
+      </c>
+      <c r="G36" s="9">
+        <v>43066</v>
+      </c>
+      <c r="H36" s="9">
+        <v>45046</v>
       </c>
       <c r="I36" t="s">
-        <v>153</v>
-      </c>
-      <c r="J36" s="2">
-        <v>26500000</v>
-      </c>
-      <c r="K36" s="3">
-        <v>619341.4</v>
+        <v>3</v>
+      </c>
+      <c r="J36" s="10">
+        <v>139261429</v>
+      </c>
+      <c r="K36" s="11">
+        <v>139114489</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>300482</v>
+        <v>204765</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1">
-        <v>43191</v>
-      </c>
-      <c r="H37" s="1">
-        <v>45169</v>
+        <v>81</v>
+      </c>
+      <c r="G37" s="9">
+        <v>41729</v>
+      </c>
+      <c r="H37" s="9">
+        <v>44651</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
-      </c>
-      <c r="J37" s="2">
-        <v>38053854</v>
-      </c>
-      <c r="K37" s="3">
-        <v>9015201.4000000004</v>
+        <v>86</v>
+      </c>
+      <c r="J37" s="10">
+        <v>317065080</v>
+      </c>
+      <c r="K37" s="11">
+        <v>281590118.60000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>300504</v>
+        <v>204773</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1">
-        <v>43191</v>
-      </c>
-      <c r="H38" s="1">
-        <v>44926</v>
+        <v>81</v>
+      </c>
+      <c r="G38" s="9">
+        <v>42522</v>
+      </c>
+      <c r="H38" s="9">
+        <v>44834</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="2">
-        <v>12600000</v>
-      </c>
-      <c r="K38" s="3">
-        <v>7786167</v>
+        <v>204</v>
+      </c>
+      <c r="J38" s="10">
+        <v>15500000</v>
+      </c>
+      <c r="K38" s="11">
+        <v>11146113.300000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>300574</v>
+        <v>204836</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <v>43160</v>
-      </c>
-      <c r="H39" s="1">
-        <v>45016</v>
+        <v>81</v>
+      </c>
+      <c r="G39" s="9">
+        <v>43009</v>
+      </c>
+      <c r="H39" s="9">
+        <v>46445</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="2">
-        <v>9224743</v>
-      </c>
-      <c r="K39" s="3">
-        <v>3906211</v>
+        <v>208</v>
+      </c>
+      <c r="J39" s="10">
+        <v>12000000</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1574613.4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>300632</v>
+        <v>204867</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1">
-        <v>43556</v>
-      </c>
-      <c r="H40" s="1">
-        <v>45746</v>
+        <v>81</v>
+      </c>
+      <c r="G40" s="9">
+        <v>42270</v>
+      </c>
+      <c r="H40" s="9">
+        <v>45382</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J40" s="2">
-        <v>18535350</v>
-      </c>
-      <c r="K40" s="3">
-        <v>6940534</v>
+        <v>212</v>
+      </c>
+      <c r="J40" s="10">
+        <v>99193930</v>
+      </c>
+      <c r="K40" s="11">
+        <v>76891056.900000006</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>300649</v>
+        <v>204931</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1">
-        <v>43556</v>
-      </c>
-      <c r="H41" s="1">
-        <v>44651</v>
+        <v>81</v>
+      </c>
+      <c r="G41" s="9">
+        <v>42370</v>
+      </c>
+      <c r="H41" s="9">
+        <v>45291</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
-      </c>
-      <c r="J41" s="2">
-        <v>25828000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>25678000</v>
+        <v>63</v>
+      </c>
+      <c r="J41" s="10">
+        <v>12250000</v>
+      </c>
+      <c r="K41" s="11">
+        <v>11099855</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>300654</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>174</v>
+        <v>205053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1">
-        <v>43647</v>
-      </c>
-      <c r="H42" s="1">
-        <v>45869</v>
+        <v>81</v>
+      </c>
+      <c r="G42" s="9">
+        <v>42167</v>
+      </c>
+      <c r="H42" s="9">
+        <v>44773</v>
       </c>
       <c r="I42" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" s="2">
-        <v>12124941</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2103363.2999999998</v>
+        <v>5</v>
+      </c>
+      <c r="J42" s="10">
+        <v>4900000</v>
+      </c>
+      <c r="K42" s="11">
+        <v>4544146</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>300655</v>
+        <v>205103</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1">
-        <v>43435</v>
-      </c>
-      <c r="H43" s="1">
-        <v>46053</v>
+        <v>81</v>
+      </c>
+      <c r="G43" s="9">
+        <v>42248</v>
+      </c>
+      <c r="H43" s="9">
+        <v>44544</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3056192.1</v>
+        <v>218</v>
+      </c>
+      <c r="J43" s="10">
+        <v>5000000</v>
+      </c>
+      <c r="K43" s="11">
+        <v>4961891.2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>300704</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>180</v>
+        <v>205109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="1">
-        <v>43556</v>
-      </c>
-      <c r="H44" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G44" s="9">
+        <v>42705</v>
+      </c>
+      <c r="H44" s="9">
+        <v>44651</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
-      </c>
-      <c r="J44" s="2">
-        <v>32207530</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1729643.3</v>
+        <v>86</v>
+      </c>
+      <c r="J44" s="10">
+        <v>4500000</v>
+      </c>
+      <c r="K44" s="11">
+        <v>3759425.3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>300728</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>185</v>
+        <v>205121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="1">
-        <v>43647</v>
-      </c>
-      <c r="H45" s="1">
-        <v>45473</v>
+        <v>81</v>
+      </c>
+      <c r="G45" s="9">
+        <v>42583</v>
+      </c>
+      <c r="H45" s="9">
+        <v>44834</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" s="2">
-        <v>38000000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>6357872.0999999996</v>
+        <v>225</v>
+      </c>
+      <c r="J45" s="10">
+        <v>9646279</v>
+      </c>
+      <c r="K45" s="11">
+        <v>8293978.7000000002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>300755</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>188</v>
+        <v>205271</v>
+      </c>
+      <c r="B46" t="s">
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1">
-        <v>43586</v>
-      </c>
-      <c r="H46" s="1">
-        <v>45413</v>
+        <v>81</v>
+      </c>
+      <c r="G46" s="9">
+        <v>42583</v>
+      </c>
+      <c r="H46" s="9">
+        <v>45199</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J46" s="2">
-        <v>16000000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5603072.2999999998</v>
+        <v>228</v>
+      </c>
+      <c r="J46" s="10">
+        <v>44925736</v>
+      </c>
+      <c r="K46" s="11">
+        <v>41125249</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>300769</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>192</v>
+        <v>205288</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="1">
-        <v>43556</v>
-      </c>
-      <c r="H47" s="1">
-        <v>46387</v>
+        <v>81</v>
+      </c>
+      <c r="G47" s="9">
+        <v>42425</v>
+      </c>
+      <c r="H47" s="9">
+        <v>46554</v>
       </c>
       <c r="I47" t="s">
-        <v>194</v>
-      </c>
-      <c r="J47" s="2">
-        <v>20500000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>547195</v>
+        <v>65</v>
+      </c>
+      <c r="J47" s="10">
+        <v>36297928</v>
+      </c>
+      <c r="K47" s="11">
+        <v>10566684</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>300781</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>195</v>
+        <v>300049</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1">
-        <v>43431</v>
-      </c>
-      <c r="H48" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G48" s="9">
+        <v>42614</v>
+      </c>
+      <c r="H48" s="9">
+        <v>45382</v>
       </c>
       <c r="I48" t="s">
-        <v>199</v>
-      </c>
-      <c r="J48" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1397116</v>
+        <v>86</v>
+      </c>
+      <c r="J48" s="10">
+        <v>15300000</v>
+      </c>
+      <c r="K48" s="11">
+        <v>9887920.5999999996</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>300785</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>200</v>
+        <v>300100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1">
-        <v>43511</v>
-      </c>
-      <c r="H49" s="1">
-        <v>45382</v>
+        <v>81</v>
+      </c>
+      <c r="G49" s="9">
+        <v>43009</v>
+      </c>
+      <c r="H49" s="9">
+        <v>45747</v>
       </c>
       <c r="I49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J49" s="2">
-        <v>4985058</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1631848.6</v>
+        <v>238</v>
+      </c>
+      <c r="J49" s="10">
+        <v>29000000</v>
+      </c>
+      <c r="K49" s="11">
+        <v>7502239.7000000002</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>301108</v>
+        <v>300111</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="1">
-        <v>43831</v>
-      </c>
-      <c r="H50" s="1">
-        <v>45747</v>
+        <v>81</v>
+      </c>
+      <c r="G50" s="9">
+        <v>42485</v>
+      </c>
+      <c r="H50" s="9">
+        <v>44865</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
-      </c>
-      <c r="J50" s="2">
-        <v>9400000</v>
-      </c>
-      <c r="K50" s="3">
-        <v>2833458.1</v>
+        <v>86</v>
+      </c>
+      <c r="J50" s="10">
+        <v>18199769</v>
+      </c>
+      <c r="K50" s="11">
+        <v>15624119</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>301132</v>
+        <v>300123</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H51" s="1">
-        <v>46142</v>
+        <v>81</v>
+      </c>
+      <c r="G51" s="9">
+        <v>42485</v>
+      </c>
+      <c r="H51" s="9">
+        <v>45199</v>
       </c>
       <c r="I51" t="s">
-        <v>211</v>
-      </c>
-      <c r="J51" s="2">
-        <v>7972870</v>
-      </c>
-      <c r="K51" s="3">
-        <v>833464.7</v>
+        <v>86</v>
+      </c>
+      <c r="J51" s="10">
+        <v>40150001</v>
+      </c>
+      <c r="K51" s="11">
+        <v>15828676.300000001</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>301133</v>
+        <v>300124</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H52" s="1">
-        <v>46142</v>
+        <v>81</v>
+      </c>
+      <c r="G52" s="9">
+        <v>42826</v>
+      </c>
+      <c r="H52" s="9">
+        <v>45626</v>
       </c>
       <c r="I52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J52" s="2">
-        <v>7682213</v>
-      </c>
-      <c r="K52" s="3">
-        <v>928203.3</v>
+        <v>86</v>
+      </c>
+      <c r="J52" s="10">
+        <v>24650000</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1758681.7</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>301134</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>215</v>
+        <v>300125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H53" s="1">
-        <v>46142</v>
-      </c>
-      <c r="I53" t="s">
-        <v>217</v>
-      </c>
-      <c r="J53" s="2">
-        <v>6941624</v>
-      </c>
-      <c r="K53" s="3">
-        <v>957250.6</v>
+        <v>81</v>
+      </c>
+      <c r="G53" s="9">
+        <v>43709</v>
+      </c>
+      <c r="H53" s="9">
+        <v>45747</v>
+      </c>
+      <c r="J53" s="10">
+        <v>38000000</v>
+      </c>
+      <c r="K53" s="11">
+        <v>4113266.7</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>301135</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>218</v>
+        <v>300126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H54" s="1">
-        <v>46142</v>
+        <v>81</v>
+      </c>
+      <c r="G54" s="9">
+        <v>43457</v>
+      </c>
+      <c r="H54" s="9">
+        <v>46477</v>
       </c>
       <c r="I54" t="s">
-        <v>220</v>
-      </c>
-      <c r="J54" s="2">
-        <v>7953129</v>
-      </c>
-      <c r="K54" s="3">
-        <v>111034.1</v>
+        <v>86</v>
+      </c>
+      <c r="J54" s="10">
+        <v>102500000</v>
+      </c>
+      <c r="K54" s="11">
+        <v>9916381.6999999993</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>301136</v>
+        <v>300180</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H55" s="1">
-        <v>46142</v>
-      </c>
-      <c r="I55" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" s="2">
-        <v>8000000</v>
-      </c>
-      <c r="K55" s="3">
-        <v>167296.29999999999</v>
+        <v>81</v>
+      </c>
+      <c r="G55" s="9">
+        <v>43313</v>
+      </c>
+      <c r="H55" s="9">
+        <v>46295</v>
+      </c>
+      <c r="J55" s="10">
+        <v>32750000</v>
+      </c>
+      <c r="K55" s="11">
+        <v>809778.6</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>301138</v>
+        <v>300211</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="1">
-        <v>43891</v>
-      </c>
-      <c r="H56" s="1">
-        <v>46142</v>
+        <v>81</v>
+      </c>
+      <c r="G56" s="9">
+        <v>43617</v>
+      </c>
+      <c r="H56" s="9">
+        <v>45382</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
-      </c>
-      <c r="J56" s="2">
-        <v>7903834</v>
-      </c>
-      <c r="K56" s="3">
-        <v>956166.6</v>
+        <v>257</v>
+      </c>
+      <c r="J56" s="10">
+        <v>13300000</v>
+      </c>
+      <c r="K56" s="11">
+        <v>4306194</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>300288</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="9">
+        <v>42549</v>
+      </c>
+      <c r="H57" s="9">
+        <v>44561</v>
+      </c>
+      <c r="I57" t="s">
+        <v>262</v>
+      </c>
+      <c r="J57" s="10">
+        <v>17204352</v>
+      </c>
+      <c r="K57" s="11">
+        <v>17050931.800000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>300294</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="9">
+        <v>42569</v>
+      </c>
+      <c r="H58" s="9">
+        <v>44926</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="10">
+        <v>12923500</v>
+      </c>
+      <c r="K58" s="11">
+        <v>11948500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>300341</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="9">
+        <v>42826</v>
+      </c>
+      <c r="H59" s="9">
+        <v>44651</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="10">
+        <v>391033790</v>
+      </c>
+      <c r="K59" s="11">
+        <v>377489579.80000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>300342</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="9">
+        <v>42826</v>
+      </c>
+      <c r="H60" s="9">
+        <v>45382</v>
+      </c>
+      <c r="J60" s="10">
+        <v>26805635</v>
+      </c>
+      <c r="K60" s="11">
+        <v>21448728.199999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>300343</v>
+      </c>
+      <c r="B61" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="9">
+        <v>43191</v>
+      </c>
+      <c r="H61" s="9">
+        <v>45016</v>
+      </c>
+      <c r="J61" s="10">
+        <v>30214869</v>
+      </c>
+      <c r="K61" s="11">
+        <v>22214869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>300346</v>
+      </c>
+      <c r="B62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="9">
+        <v>43191</v>
+      </c>
+      <c r="H62" s="9">
+        <v>46112</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="10">
+        <v>10687612</v>
+      </c>
+      <c r="K62" s="11">
+        <v>5197310.4000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>300347</v>
+      </c>
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="9">
+        <v>43191</v>
+      </c>
+      <c r="H63" s="9">
+        <v>45016</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="10">
+        <v>23500000</v>
+      </c>
+      <c r="K63" s="11">
+        <v>15800000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>300384</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="9">
+        <v>42826</v>
+      </c>
+      <c r="H64" s="9">
+        <v>44651</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="10">
+        <v>11250000</v>
+      </c>
+      <c r="K64" s="11">
+        <v>11250000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>300405</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="9">
+        <v>42917</v>
+      </c>
+      <c r="H65" s="9">
+        <v>46295</v>
+      </c>
+      <c r="I65" t="s">
+        <v>281</v>
+      </c>
+      <c r="J65" s="10">
+        <v>26500000</v>
+      </c>
+      <c r="K65" s="11">
+        <v>619341.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>300446</v>
+      </c>
+      <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="9">
+        <v>42948</v>
+      </c>
+      <c r="H66" s="9">
+        <v>46112</v>
+      </c>
+      <c r="J66" s="10">
+        <v>15500000</v>
+      </c>
+      <c r="K66" s="11">
+        <v>11467782.699999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>300482</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="9">
+        <v>43191</v>
+      </c>
+      <c r="H67" s="9">
+        <v>45169</v>
+      </c>
+      <c r="I67" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="10">
+        <v>38053854</v>
+      </c>
+      <c r="K67" s="11">
+        <v>9015201.4000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>300484</v>
+      </c>
+      <c r="B68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="9">
+        <v>43454</v>
+      </c>
+      <c r="H68" s="9">
+        <v>45382</v>
+      </c>
+      <c r="J68" s="10">
+        <v>18099997</v>
+      </c>
+      <c r="K68" s="11">
+        <v>3740328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>300504</v>
+      </c>
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" t="s">
+        <v>292</v>
+      </c>
+      <c r="D69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="9">
+        <v>43191</v>
+      </c>
+      <c r="H69" s="9">
+        <v>44926</v>
+      </c>
+      <c r="I69" t="s">
+        <v>293</v>
+      </c>
+      <c r="J69" s="10">
+        <v>12600000</v>
+      </c>
+      <c r="K69" s="11">
+        <v>7786167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>300574</v>
+      </c>
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="9">
+        <v>43160</v>
+      </c>
+      <c r="H70" s="9">
+        <v>45016</v>
+      </c>
+      <c r="I70" t="s">
+        <v>298</v>
+      </c>
+      <c r="J70" s="10">
+        <v>9224743</v>
+      </c>
+      <c r="K70" s="11">
+        <v>3906211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>300615</v>
+      </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="9">
+        <v>43207</v>
+      </c>
+      <c r="H71" s="9">
+        <v>45747</v>
+      </c>
+      <c r="I71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="10">
+        <v>3505619</v>
+      </c>
+      <c r="K71" s="11">
+        <v>393186.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>300632</v>
+      </c>
+      <c r="B72" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H72" s="9">
+        <v>45746</v>
+      </c>
+      <c r="I72" t="s">
+        <v>304</v>
+      </c>
+      <c r="J72" s="10">
+        <v>18535350</v>
+      </c>
+      <c r="K72" s="11">
+        <v>6940534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>300644</v>
+      </c>
+      <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H73" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I73" t="s">
+        <v>307</v>
+      </c>
+      <c r="J73" s="10">
+        <v>37800000</v>
+      </c>
+      <c r="K73" s="11">
+        <v>7714532.0999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>300649</v>
+      </c>
+      <c r="B74" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>310</v>
+      </c>
+      <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H74" s="9">
+        <v>44651</v>
+      </c>
+      <c r="I74" t="s">
+        <v>311</v>
+      </c>
+      <c r="J74" s="10">
+        <v>25828000</v>
+      </c>
+      <c r="K74" s="11">
+        <v>25678000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>300654</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="9">
+        <v>43647</v>
+      </c>
+      <c r="H75" s="9">
+        <v>45869</v>
+      </c>
+      <c r="I75" t="s">
+        <v>314</v>
+      </c>
+      <c r="J75" s="10">
+        <v>12124941</v>
+      </c>
+      <c r="K75" s="11">
+        <v>2103363.2999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>300655</v>
+      </c>
+      <c r="B76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" t="s">
+        <v>316</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="9">
+        <v>43435</v>
+      </c>
+      <c r="H76" s="9">
+        <v>46053</v>
+      </c>
+      <c r="I76" t="s">
+        <v>317</v>
+      </c>
+      <c r="J76" s="10">
+        <v>20000000</v>
+      </c>
+      <c r="K76" s="11">
+        <v>3056192.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>300656</v>
+      </c>
+      <c r="B77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H77" s="9">
+        <v>45382</v>
+      </c>
+      <c r="J77" s="10">
+        <v>12000000</v>
+      </c>
+      <c r="K77" s="11">
+        <v>1666092.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>300704</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" t="s">
+        <v>323</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H78" s="9">
+        <v>45747</v>
+      </c>
+      <c r="I78" t="s">
+        <v>324</v>
+      </c>
+      <c r="J78" s="10">
+        <v>32207530</v>
+      </c>
+      <c r="K78" s="11">
+        <v>1729643.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>300708</v>
+      </c>
+      <c r="B79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" t="s">
+        <v>328</v>
+      </c>
+      <c r="F79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="9">
+        <v>43981</v>
+      </c>
+      <c r="H79" s="9">
+        <v>46112</v>
+      </c>
+      <c r="J79" s="10">
+        <v>49947720</v>
+      </c>
+      <c r="K79" s="11">
+        <v>4691326.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>300728</v>
+      </c>
+      <c r="B80" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80" t="s">
+        <v>330</v>
+      </c>
+      <c r="D80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="9">
+        <v>43647</v>
+      </c>
+      <c r="H80" s="9">
+        <v>45473</v>
+      </c>
+      <c r="I80" t="s">
+        <v>331</v>
+      </c>
+      <c r="J80" s="10">
+        <v>38000000</v>
+      </c>
+      <c r="K80" s="11">
+        <v>6357872.0999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>300755</v>
+      </c>
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>334</v>
+      </c>
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H81" s="9">
+        <v>45413</v>
+      </c>
+      <c r="I81" t="s">
+        <v>335</v>
+      </c>
+      <c r="J81" s="10">
+        <v>16000000</v>
+      </c>
+      <c r="K81" s="11">
+        <v>5603072.2999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>300760</v>
+      </c>
+      <c r="B82" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>338</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="9">
+        <v>43700</v>
+      </c>
+      <c r="H82" s="9">
+        <v>46112</v>
+      </c>
+      <c r="J82" s="10">
+        <v>35050000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>300769</v>
+      </c>
+      <c r="B83" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H83" s="9">
+        <v>46387</v>
+      </c>
+      <c r="I83" t="s">
+        <v>341</v>
+      </c>
+      <c r="J83" s="10">
+        <v>20500000</v>
+      </c>
+      <c r="K83" s="11">
+        <v>547195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>300781</v>
+      </c>
+      <c r="B84" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="9">
+        <v>43431</v>
+      </c>
+      <c r="H84" s="9">
+        <v>45747</v>
+      </c>
+      <c r="I84" t="s">
+        <v>346</v>
+      </c>
+      <c r="J84" s="10">
+        <v>20000000</v>
+      </c>
+      <c r="K84" s="11">
+        <v>1397116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>300785</v>
+      </c>
+      <c r="B85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="9">
+        <v>43511</v>
+      </c>
+      <c r="H85" s="9">
+        <v>45382</v>
+      </c>
+      <c r="I85" t="s">
+        <v>350</v>
+      </c>
+      <c r="J85" s="10">
+        <v>4985058</v>
+      </c>
+      <c r="K85" s="11">
+        <v>1631848.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>300815</v>
+      </c>
+      <c r="B86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="9">
+        <v>43556</v>
+      </c>
+      <c r="H86" s="9">
+        <v>45566</v>
+      </c>
+      <c r="J86" s="10">
+        <v>19800000</v>
+      </c>
+      <c r="K86" s="11">
+        <v>12633595.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>300849</v>
+      </c>
+      <c r="B87" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" t="s">
+        <v>356</v>
+      </c>
+      <c r="D87" t="s">
+        <v>357</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="9">
+        <v>43739</v>
+      </c>
+      <c r="H87" s="9">
+        <v>45565</v>
+      </c>
+      <c r="I87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" s="10">
+        <v>4900000</v>
+      </c>
+      <c r="K87" s="11">
+        <v>1079504.6000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>300966</v>
+      </c>
+      <c r="B88" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="9">
+        <v>43641</v>
+      </c>
+      <c r="H88" s="9">
+        <v>45747</v>
+      </c>
+      <c r="J88" s="10">
+        <v>19266871</v>
+      </c>
+      <c r="K88" s="11">
+        <v>6445497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>301050</v>
+      </c>
+      <c r="B89" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" t="s">
+        <v>361</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="9">
+        <v>44562</v>
+      </c>
+      <c r="H89" s="9">
+        <v>45747</v>
+      </c>
+      <c r="J89" s="10">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>301067</v>
+      </c>
+      <c r="B90" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>364</v>
+      </c>
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="9">
+        <v>44287</v>
+      </c>
+      <c r="H90" s="9">
+        <v>45747</v>
+      </c>
+      <c r="J90" s="10">
+        <v>32850000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>301108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="9">
+        <v>43831</v>
+      </c>
+      <c r="H91" s="9">
+        <v>45747</v>
+      </c>
+      <c r="I91" t="s">
+        <v>368</v>
+      </c>
+      <c r="J91" s="10">
+        <v>9400000</v>
+      </c>
+      <c r="K91" s="11">
+        <v>2833458.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>301132</v>
+      </c>
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H92" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I92" t="s">
+        <v>372</v>
+      </c>
+      <c r="J92" s="10">
+        <v>7972870</v>
+      </c>
+      <c r="K92" s="11">
+        <v>833464.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>301133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" t="s">
+        <v>371</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H93" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I93" t="s">
+        <v>375</v>
+      </c>
+      <c r="J93" s="10">
+        <v>7682213</v>
+      </c>
+      <c r="K93" s="11">
+        <v>928203.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>301134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" t="s">
+        <v>371</v>
+      </c>
+      <c r="F94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H94" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I94" t="s">
+        <v>378</v>
+      </c>
+      <c r="J94" s="10">
+        <v>6941624</v>
+      </c>
+      <c r="K94" s="11">
+        <v>957250.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>301135</v>
+      </c>
+      <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" t="s">
+        <v>371</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H95" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I95" t="s">
+        <v>381</v>
+      </c>
+      <c r="J95" s="10">
+        <v>7953129</v>
+      </c>
+      <c r="K95" s="11">
+        <v>111034.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>301136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>382</v>
+      </c>
+      <c r="C96" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H96" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I96" t="s">
+        <v>384</v>
+      </c>
+      <c r="J96" s="10">
+        <v>8000000</v>
+      </c>
+      <c r="K96" s="11">
+        <v>167296.29999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>301138</v>
+      </c>
+      <c r="B97" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" s="9">
+        <v>43891</v>
+      </c>
+      <c r="H97" s="9">
+        <v>46142</v>
+      </c>
+      <c r="I97" t="s">
+        <v>387</v>
+      </c>
+      <c r="J97" s="10">
+        <v>7903834</v>
+      </c>
+      <c r="K97" s="11">
+        <v>956166.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>301139</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" s="9">
         <v>43891</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H98" s="9">
         <v>46142</v>
       </c>
-      <c r="I57" t="s">
-        <v>229</v>
-      </c>
-      <c r="J57" s="2">
+      <c r="I98" t="s">
+        <v>390</v>
+      </c>
+      <c r="J98" s="10">
         <v>7812831</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K98" s="11">
         <v>781523.6</v>
       </c>
     </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>301263</v>
+      </c>
+      <c r="B99" t="s">
+        <v>391</v>
+      </c>
+      <c r="C99" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" t="s">
+        <v>81</v>
+      </c>
+      <c r="G99" s="9">
+        <v>44287</v>
+      </c>
+      <c r="H99" s="9">
+        <v>46660</v>
+      </c>
+      <c r="J99" s="10">
+        <v>19000000</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>301290</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" t="s">
+        <v>395</v>
+      </c>
+      <c r="E100" t="s">
+        <v>328</v>
+      </c>
+      <c r="F100" t="s">
+        <v>81</v>
+      </c>
+      <c r="G100" s="9">
+        <v>44166</v>
+      </c>
+      <c r="H100" s="9">
+        <v>45382</v>
+      </c>
+      <c r="J100" s="10">
+        <v>4790000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>301291</v>
+      </c>
+      <c r="B101" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" t="s">
+        <v>397</v>
+      </c>
+      <c r="D101" t="s">
+        <v>398</v>
+      </c>
+      <c r="E101" t="s">
+        <v>399</v>
+      </c>
+      <c r="F101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" s="9">
+        <v>44168</v>
+      </c>
+      <c r="H101" s="9">
+        <v>45747</v>
+      </c>
+      <c r="J101" s="10">
+        <v>10739851</v>
+      </c>
+      <c r="K101" s="11">
+        <v>8360472.9000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
-      <sortCondition ref="A1:A57"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Columbia">
-      <formula>NOT(ISERROR(SEARCH("Columbia",I1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Columbia"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
+++ b/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AA5B4C96-D9A2-4DF5-AD3E-B21AF2628C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7C78494-96E4-4F81-8187-D4B9A96F8BF2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{AA5B4C96-D9A2-4DF5-AD3E-B21AF2628C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D556F325-4C07-4835-9957-10538316DE92}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCDO core contribution projects" sheetId="4" r:id="rId1"/>
-    <sheet name="Problematic IATI activities" sheetId="5" r:id="rId2"/>
-    <sheet name="RED programmes countries" sheetId="6" r:id="rId3"/>
+    <sheet name="RED programmes countries" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="374">
   <si>
     <t>KENYA,MOZAMBIQUE,PAKISTAN,SIERRA LEONE,TUVALU</t>
   </si>
@@ -121,99 +120,6 @@
     <t>fcdo_geocoding_countries</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Funder</t>
-  </si>
-  <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Funder programme - IATI ID</t>
-  </si>
-  <si>
-    <t>Extending organisation - name</t>
-  </si>
-  <si>
-    <t>Extending organisation - award ID</t>
-  </si>
-  <si>
-    <t>Award title</t>
-  </si>
-  <si>
-    <t>Award description</t>
-  </si>
-  <si>
-    <t>Aims/Objectives</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Award amount (£)</t>
-  </si>
-  <si>
-    <t>Beneficiary country</t>
-  </si>
-  <si>
-    <t>Lead organisation - name</t>
-  </si>
-  <si>
-    <t>Lead organisation - country</t>
-  </si>
-  <si>
-    <t>Implementing partner(s) - name</t>
-  </si>
-  <si>
-    <t>Implementing partner(s) - country</t>
-  </si>
-  <si>
-    <t>Investigator(s) - name</t>
-  </si>
-  <si>
-    <t>Data source</t>
-  </si>
-  <si>
-    <t>Foreign, Commonwealth and Development Office</t>
-  </si>
-  <si>
-    <t>FCDO Research - Programmes</t>
-  </si>
-  <si>
-    <t>GB-COH-00070527-IGC-P3</t>
-  </si>
-  <si>
-    <t>https://d-portal.org/ctrack.html?reporting_ref=GB-COH-00070527#view=act&amp;aid=GB-COH-00070527-IGC-P3</t>
-  </si>
-  <si>
-    <t>London School of Economics and Political Science</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>IGC Phase 3</t>
-  </si>
-  <si>
-    <t>The International Growth Centre (IGC) aims to promote sustainable growth in developing countries by providing demand-led policy advice based on frontier research.</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>GB-1-205219</t>
-  </si>
-  <si>
-    <t>Kenya, India, Liberia, Uganda, Myanmar, Bangladesh, Sierra Leone, Pakistan, Ghana, Tanzania, Sudan, Zambia, Rwanda, South Sudan, Jordan, Lebanon, Mozambique, Ethiopia, Nigeria, Kenya, Brazil, DRC, China, Mongolia, Paraguay, Indonesia</t>
-  </si>
-  <si>
     <t>GB-1-204931</t>
   </si>
   <si>
@@ -1232,16 +1138,30 @@
   </si>
   <si>
     <t>Gillian Steele</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300294</t>
+  </si>
+  <si>
+    <t>Building the evidence on forced displacement - a multi stakeholder partnership</t>
+  </si>
+  <si>
+    <t>GB-GOV-10-EDCTP2_2020WP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	GB-GOV-10-GACD_Membership</t>
+  </si>
+  <si>
+    <t>GB-GOV-10-GACD_Mental_Health</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1362,13 +1282,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,14 +1467,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF002060"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1670,17 +1583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF8EAADB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EAADB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1726,24 +1628,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2124,25 +2013,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F4EA4-DC3A-4C1B-81EE-634021F720DA}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="2" max="2" width="87.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="74.296875" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="87.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2150,7 +2039,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -2161,7 +2050,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2169,7 +2058,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2177,7 +2066,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2185,7 +2074,7 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -2196,7 +2085,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2204,7 +2093,7 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
@@ -2215,7 +2104,7 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2223,7 +2112,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -2234,7 +2123,7 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2242,32 +2131,56 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Columbia"</formula>
@@ -2282,192 +2195,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F38CAD-DB9A-497E-8299-DDCC12FE524F}">
-  <dimension ref="A1:X2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="42.796875" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" customWidth="1"/>
-    <col min="5" max="5" width="42.8984375" customWidth="1"/>
-    <col min="6" max="6" width="24.296875" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" customWidth="1"/>
-    <col min="8" max="8" width="32.796875" customWidth="1"/>
-    <col min="10" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="6">
-        <v>43739</v>
-      </c>
-      <c r="K2" s="6">
-        <v>46295</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2">
-        <v>57624995</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A274C2EA-44BD-4C0C-A095-E8879E667E76}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2475,30 +2244,30 @@
         <v>200574</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="9">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4">
         <v>39904</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>45016</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="5">
         <v>17162788</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="6">
         <v>15678567</v>
       </c>
     </row>
@@ -2507,33 +2276,33 @@
         <v>201267</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="9">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4">
         <v>40148</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>46477</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="10">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
         <v>77000000</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="6">
         <v>60200023.200000003</v>
       </c>
     </row>
@@ -2542,30 +2311,30 @@
         <v>201879</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="9">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4">
         <v>41376</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>45016</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>40501000</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="6">
         <v>24108119.600000001</v>
       </c>
     </row>
@@ -2574,33 +2343,33 @@
         <v>201880</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="9">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
         <v>41460</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>45436</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="10">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5">
         <v>22500000</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="6">
         <v>15484470</v>
       </c>
     </row>
@@ -2609,33 +2378,33 @@
         <v>202568</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="9">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
         <v>40695</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4">
         <v>45747</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="10">
+        <v>68</v>
+      </c>
+      <c r="J6" s="5">
         <v>24600000</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="6">
         <v>12461864.199999999</v>
       </c>
     </row>
@@ -2644,33 +2413,33 @@
         <v>202749</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="9">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
         <v>41064</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>44650</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="10">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5">
         <v>11897567</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="6">
         <v>11736364.4</v>
       </c>
     </row>
@@ -2679,33 +2448,33 @@
         <v>202766</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="9">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4">
         <v>40994</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>45382</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="10">
+        <v>55</v>
+      </c>
+      <c r="J8" s="5">
         <v>6128571</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="6">
         <v>5506031.7999999998</v>
       </c>
     </row>
@@ -2714,33 +2483,33 @@
         <v>202835</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4">
         <v>40778</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>45747</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="10">
+        <v>78</v>
+      </c>
+      <c r="J9" s="5">
         <v>36640000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="6">
         <v>22713800.899999999</v>
       </c>
     </row>
@@ -2752,30 +2521,30 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="9">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4">
         <v>40840</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>45747</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="10">
+        <v>55</v>
+      </c>
+      <c r="J10" s="5">
         <v>19835986</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="6">
         <v>17210000</v>
       </c>
     </row>
@@ -2784,33 +2553,33 @@
         <v>203041</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="9">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4">
         <v>41214</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>44742</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="10">
+        <v>84</v>
+      </c>
+      <c r="J11" s="5">
         <v>15376244</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="6">
         <v>14783100</v>
       </c>
     </row>
@@ -2819,33 +2588,33 @@
         <v>203050</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="9">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4">
         <v>41275</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4">
         <v>45107</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="10">
+        <v>88</v>
+      </c>
+      <c r="J12" s="5">
         <v>19761356</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="6">
         <v>19701355</v>
       </c>
     </row>
@@ -2854,33 +2623,33 @@
         <v>203051</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="9">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
         <v>41000</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>44651</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="5">
         <v>14994000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="6">
         <v>14274938.800000001</v>
       </c>
     </row>
@@ -2889,33 +2658,33 @@
         <v>203052</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="9">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
         <v>40891</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="4">
         <v>47208</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="10">
+        <v>94</v>
+      </c>
+      <c r="J14" s="5">
         <v>31131042</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <v>24057052.800000001</v>
       </c>
     </row>
@@ -2924,33 +2693,33 @@
         <v>203067</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="9">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4">
         <v>41730</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>45657</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="10">
+        <v>97</v>
+      </c>
+      <c r="J15" s="5">
         <v>17223776</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="6">
         <v>12287517.9</v>
       </c>
     </row>
@@ -2959,33 +2728,33 @@
         <v>203089</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="9">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
         <v>41456</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4">
         <v>44500</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="10">
+        <v>101</v>
+      </c>
+      <c r="J16" s="5">
         <v>11333974</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <v>9904337.3000000007</v>
       </c>
     </row>
@@ -2994,33 +2763,33 @@
         <v>203212</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="9">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4">
         <v>41000</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4">
         <v>44651</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="10">
+        <v>104</v>
+      </c>
+      <c r="J17" s="5">
         <v>9800000</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <v>8900000</v>
       </c>
     </row>
@@ -3029,33 +2798,33 @@
         <v>203529</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="9">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4">
         <v>41365</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="4">
         <v>45565</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="10">
+        <v>109</v>
+      </c>
+      <c r="J18" s="5">
         <v>30896804</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="6">
         <v>19957172.100000001</v>
       </c>
     </row>
@@ -3064,33 +2833,33 @@
         <v>203569</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="9">
+        <v>50</v>
+      </c>
+      <c r="G19" s="4">
         <v>41532</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="4">
         <v>45030</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="10">
+        <v>55</v>
+      </c>
+      <c r="J19" s="5">
         <v>20000000</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="6">
         <v>5748956.4000000004</v>
       </c>
     </row>
@@ -3099,33 +2868,33 @@
         <v>203752</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="9">
+        <v>50</v>
+      </c>
+      <c r="G20" s="4">
         <v>42005</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="4">
         <v>44651</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="10">
+        <v>55</v>
+      </c>
+      <c r="J20" s="5">
         <v>16248812</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="6">
         <v>13199472.699999999</v>
       </c>
     </row>
@@ -3134,33 +2903,33 @@
         <v>203804</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="9">
+        <v>50</v>
+      </c>
+      <c r="G21" s="4">
         <v>41278</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="4">
         <v>45382</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="10">
+        <v>119</v>
+      </c>
+      <c r="J21" s="5">
         <v>76827334</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="6">
         <v>50566292.700000003</v>
       </c>
     </row>
@@ -3169,33 +2938,33 @@
         <v>203835</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="9">
+        <v>50</v>
+      </c>
+      <c r="G22" s="4">
         <v>41316</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="4">
         <v>44681</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="10">
+        <v>123</v>
+      </c>
+      <c r="J22" s="5">
         <v>19418691</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="6">
         <v>19118231.600000001</v>
       </c>
     </row>
@@ -3204,33 +2973,33 @@
         <v>203844</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="9">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4">
         <v>41640</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="4">
         <v>44927</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="10">
+        <v>126</v>
+      </c>
+      <c r="J23" s="5">
         <v>18000000</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="6">
         <v>7779152.4000000004</v>
       </c>
     </row>
@@ -3239,33 +3008,33 @@
         <v>203872</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="9">
+        <v>50</v>
+      </c>
+      <c r="G24" s="4">
         <v>41456</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="4">
         <v>44561</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="10">
+        <v>130</v>
+      </c>
+      <c r="J24" s="5">
         <v>24774033</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="6">
         <v>24774033</v>
       </c>
     </row>
@@ -3274,30 +3043,30 @@
         <v>203933</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="9">
+        <v>50</v>
+      </c>
+      <c r="G25" s="4">
         <v>41000</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="4">
         <v>45534</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="10">
+        <v>55</v>
+      </c>
+      <c r="J25" s="5">
         <v>29904657</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="6">
         <v>27196950</v>
       </c>
     </row>
@@ -3306,33 +3075,33 @@
         <v>204133</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="9">
+        <v>50</v>
+      </c>
+      <c r="G26" s="4">
         <v>41365</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="4">
         <v>44651</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="10">
+        <v>55</v>
+      </c>
+      <c r="J26" s="5">
         <v>3103308</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="6">
         <v>1915865</v>
       </c>
     </row>
@@ -3341,33 +3110,33 @@
         <v>204153</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="9">
+        <v>50</v>
+      </c>
+      <c r="G27" s="4">
         <v>42064</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="4">
         <v>45747</v>
       </c>
       <c r="I27" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="5">
         <v>22300000</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="6">
         <v>15686534</v>
       </c>
     </row>
@@ -3376,33 +3145,33 @@
         <v>204291</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="9">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4">
         <v>41670</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="4">
         <v>44650</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="10">
+        <v>55</v>
+      </c>
+      <c r="J28" s="5">
         <v>4914002</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="6">
         <v>4278920.5</v>
       </c>
     </row>
@@ -3411,33 +3180,33 @@
         <v>204322</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="9">
+        <v>50</v>
+      </c>
+      <c r="G29" s="4">
         <v>41730</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="4">
         <v>45746</v>
       </c>
       <c r="I29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" s="10">
+        <v>144</v>
+      </c>
+      <c r="J29" s="5">
         <v>37660852</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="6">
         <v>28199097.699999999</v>
       </c>
     </row>
@@ -3446,33 +3215,33 @@
         <v>204324</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="9">
+        <v>50</v>
+      </c>
+      <c r="G30" s="4">
         <v>41649</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="4">
         <v>45747</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="10">
+        <v>55</v>
+      </c>
+      <c r="J30" s="5">
         <v>15000000</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="6">
         <v>12858249.5</v>
       </c>
     </row>
@@ -3481,33 +3250,33 @@
         <v>204415</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="9">
+        <v>50</v>
+      </c>
+      <c r="G31" s="4">
         <v>41730</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="4">
         <v>45747</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="10">
+        <v>152</v>
+      </c>
+      <c r="J31" s="5">
         <v>40150002</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="6">
         <v>20362597.199999999</v>
       </c>
     </row>
@@ -3516,33 +3285,33 @@
         <v>204420</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="9">
+        <v>50</v>
+      </c>
+      <c r="G32" s="4">
         <v>41821</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="4">
         <v>45747</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="10">
+        <v>156</v>
+      </c>
+      <c r="J32" s="5">
         <v>35000000</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="6">
         <v>18916870.100000001</v>
       </c>
     </row>
@@ -3551,33 +3320,33 @@
         <v>204427</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="9">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4">
         <v>42156</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="4">
         <v>44561</v>
       </c>
       <c r="I33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" s="10">
+        <v>159</v>
+      </c>
+      <c r="J33" s="5">
         <v>6500000</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="6">
         <v>6232123.0999999996</v>
       </c>
     </row>
@@ -3586,33 +3355,33 @@
         <v>204653</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="9">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4">
         <v>41715</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="4">
         <v>43830</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J34" s="10">
+        <v>163</v>
+      </c>
+      <c r="J34" s="5">
         <v>2000000</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="6">
         <v>1959860.9</v>
       </c>
     </row>
@@ -3621,33 +3390,33 @@
         <v>204725</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="9">
+        <v>50</v>
+      </c>
+      <c r="G35" s="4">
         <v>41883</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="4">
         <v>44620</v>
       </c>
       <c r="I35" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" s="10">
+        <v>167</v>
+      </c>
+      <c r="J35" s="5">
         <v>6782899</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="6">
         <v>6211834.2000000002</v>
       </c>
     </row>
@@ -3659,30 +3428,30 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="9">
+        <v>50</v>
+      </c>
+      <c r="G36" s="4">
         <v>43066</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="4">
         <v>45046</v>
       </c>
       <c r="I36" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="5">
         <v>139261429</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="6">
         <v>139114489</v>
       </c>
     </row>
@@ -3691,33 +3460,33 @@
         <v>204765</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="9">
+        <v>50</v>
+      </c>
+      <c r="G37" s="4">
         <v>41729</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="4">
         <v>44651</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="10">
+        <v>55</v>
+      </c>
+      <c r="J37" s="5">
         <v>317065080</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="6">
         <v>281590118.60000002</v>
       </c>
     </row>
@@ -3726,33 +3495,33 @@
         <v>204773</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="9">
+        <v>50</v>
+      </c>
+      <c r="G38" s="4">
         <v>42522</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="4">
         <v>44834</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="10">
+        <v>173</v>
+      </c>
+      <c r="J38" s="5">
         <v>15500000</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="6">
         <v>11146113.300000001</v>
       </c>
     </row>
@@ -3761,33 +3530,33 @@
         <v>204836</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="9">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
         <v>43009</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="4">
         <v>46445</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
-      </c>
-      <c r="J39" s="10">
+        <v>177</v>
+      </c>
+      <c r="J39" s="5">
         <v>12000000</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="6">
         <v>1574613.4</v>
       </c>
     </row>
@@ -3796,33 +3565,33 @@
         <v>204867</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="9">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4">
         <v>42270</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="4">
         <v>45382</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="10">
+        <v>181</v>
+      </c>
+      <c r="J40" s="5">
         <v>99193930</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="6">
         <v>76891056.900000006</v>
       </c>
     </row>
@@ -3831,33 +3600,33 @@
         <v>204931</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="9">
+        <v>50</v>
+      </c>
+      <c r="G41" s="4">
         <v>42370</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="4">
         <v>45291</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="10">
+        <v>32</v>
+      </c>
+      <c r="J41" s="5">
         <v>12250000</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="6">
         <v>11099855</v>
       </c>
     </row>
@@ -3869,30 +3638,30 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="9">
+        <v>50</v>
+      </c>
+      <c r="G42" s="4">
         <v>42167</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="4">
         <v>44773</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="5">
         <v>4900000</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="6">
         <v>4544146</v>
       </c>
     </row>
@@ -3901,33 +3670,33 @@
         <v>205103</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="9">
+        <v>50</v>
+      </c>
+      <c r="G43" s="4">
         <v>42248</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="4">
         <v>44544</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
-      </c>
-      <c r="J43" s="10">
+        <v>187</v>
+      </c>
+      <c r="J43" s="5">
         <v>5000000</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="6">
         <v>4961891.2</v>
       </c>
     </row>
@@ -3936,33 +3705,33 @@
         <v>205109</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="9">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4">
         <v>42705</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="4">
         <v>44651</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="10">
+        <v>55</v>
+      </c>
+      <c r="J44" s="5">
         <v>4500000</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="6">
         <v>3759425.3</v>
       </c>
     </row>
@@ -3971,30 +3740,30 @@
         <v>205121</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="9">
+        <v>50</v>
+      </c>
+      <c r="G45" s="4">
         <v>42583</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="4">
         <v>44834</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45" s="10">
+        <v>194</v>
+      </c>
+      <c r="J45" s="5">
         <v>9646279</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="6">
         <v>8293978.7000000002</v>
       </c>
     </row>
@@ -4003,33 +3772,33 @@
         <v>205271</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="9">
+        <v>50</v>
+      </c>
+      <c r="G46" s="4">
         <v>42583</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="4">
         <v>45199</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
-      </c>
-      <c r="J46" s="10">
+        <v>197</v>
+      </c>
+      <c r="J46" s="5">
         <v>44925736</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="6">
         <v>41125249</v>
       </c>
     </row>
@@ -4038,33 +3807,33 @@
         <v>205288</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="9">
+        <v>50</v>
+      </c>
+      <c r="G47" s="4">
         <v>42425</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="4">
         <v>46554</v>
       </c>
       <c r="I47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="10">
+        <v>34</v>
+      </c>
+      <c r="J47" s="5">
         <v>36297928</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="6">
         <v>10566684</v>
       </c>
     </row>
@@ -4073,33 +3842,33 @@
         <v>300049</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="9">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4">
         <v>42614</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="4">
         <v>45382</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="10">
+        <v>55</v>
+      </c>
+      <c r="J48" s="5">
         <v>15300000</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="6">
         <v>9887920.5999999996</v>
       </c>
     </row>
@@ -4108,33 +3877,33 @@
         <v>300100</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="9">
+        <v>50</v>
+      </c>
+      <c r="G49" s="4">
         <v>43009</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="4">
         <v>45747</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="10">
+        <v>207</v>
+      </c>
+      <c r="J49" s="5">
         <v>29000000</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="6">
         <v>7502239.7000000002</v>
       </c>
     </row>
@@ -4143,33 +3912,33 @@
         <v>300111</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="9">
+        <v>50</v>
+      </c>
+      <c r="G50" s="4">
         <v>42485</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="4">
         <v>44865</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="10">
+        <v>55</v>
+      </c>
+      <c r="J50" s="5">
         <v>18199769</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="6">
         <v>15624119</v>
       </c>
     </row>
@@ -4178,33 +3947,33 @@
         <v>300123</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="9">
+        <v>50</v>
+      </c>
+      <c r="G51" s="4">
         <v>42485</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="4">
         <v>45199</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="10">
+        <v>55</v>
+      </c>
+      <c r="J51" s="5">
         <v>40150001</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="6">
         <v>15828676.300000001</v>
       </c>
     </row>
@@ -4213,33 +3982,33 @@
         <v>300124</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="9">
+        <v>50</v>
+      </c>
+      <c r="G52" s="4">
         <v>42826</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="4">
         <v>45626</v>
       </c>
       <c r="I52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="10">
+        <v>55</v>
+      </c>
+      <c r="J52" s="5">
         <v>24650000</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="6">
         <v>1758681.7</v>
       </c>
     </row>
@@ -4248,27 +4017,27 @@
         <v>300125</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="9">
+        <v>50</v>
+      </c>
+      <c r="G53" s="4">
         <v>43709</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="4">
         <v>45747</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="5">
         <v>38000000</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="6">
         <v>4113266.7</v>
       </c>
     </row>
@@ -4277,33 +4046,33 @@
         <v>300126</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="9">
+        <v>50</v>
+      </c>
+      <c r="G54" s="4">
         <v>43457</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="4">
         <v>46477</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54" s="10">
+        <v>55</v>
+      </c>
+      <c r="J54" s="5">
         <v>102500000</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="6">
         <v>9916381.6999999993</v>
       </c>
     </row>
@@ -4312,30 +4081,30 @@
         <v>300180</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="9">
+        <v>50</v>
+      </c>
+      <c r="G55" s="4">
         <v>43313</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="4">
         <v>46295</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="5">
         <v>32750000</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="6">
         <v>809778.6</v>
       </c>
     </row>
@@ -4344,33 +4113,33 @@
         <v>300211</v>
       </c>
       <c r="B56" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="9">
+        <v>50</v>
+      </c>
+      <c r="G56" s="4">
         <v>43617</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="4">
         <v>45382</v>
       </c>
       <c r="I56" t="s">
-        <v>257</v>
-      </c>
-      <c r="J56" s="10">
+        <v>226</v>
+      </c>
+      <c r="J56" s="5">
         <v>13300000</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="6">
         <v>4306194</v>
       </c>
     </row>
@@ -4379,33 +4148,33 @@
         <v>300288</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" s="9">
+        <v>50</v>
+      </c>
+      <c r="G57" s="4">
         <v>42549</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="4">
         <v>44561</v>
       </c>
       <c r="I57" t="s">
-        <v>262</v>
-      </c>
-      <c r="J57" s="10">
+        <v>231</v>
+      </c>
+      <c r="J57" s="5">
         <v>17204352</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="6">
         <v>17050931.800000001</v>
       </c>
     </row>
@@ -4414,33 +4183,33 @@
         <v>300294</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="9">
+        <v>50</v>
+      </c>
+      <c r="G58" s="4">
         <v>42569</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="4">
         <v>44926</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="10">
+        <v>55</v>
+      </c>
+      <c r="J58" s="5">
         <v>12923500</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="6">
         <v>11948500</v>
       </c>
     </row>
@@ -4449,33 +4218,33 @@
         <v>300341</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="9">
+        <v>50</v>
+      </c>
+      <c r="G59" s="4">
         <v>42826</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="4">
         <v>44651</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-      <c r="J59" s="10">
+        <v>55</v>
+      </c>
+      <c r="J59" s="5">
         <v>391033790</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="6">
         <v>377489579.80000001</v>
       </c>
     </row>
@@ -4484,30 +4253,30 @@
         <v>300342</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" s="9">
+        <v>50</v>
+      </c>
+      <c r="G60" s="4">
         <v>42826</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="4">
         <v>45382</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="5">
         <v>26805635</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="6">
         <v>21448728.199999999</v>
       </c>
     </row>
@@ -4516,30 +4285,30 @@
         <v>300343</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="9">
+        <v>50</v>
+      </c>
+      <c r="G61" s="4">
         <v>43191</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="4">
         <v>45016</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="5">
         <v>30214869</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="6">
         <v>22214869</v>
       </c>
     </row>
@@ -4548,33 +4317,33 @@
         <v>300346</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="9">
+        <v>50</v>
+      </c>
+      <c r="G62" s="4">
         <v>43191</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="4">
         <v>46112</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="10">
+        <v>55</v>
+      </c>
+      <c r="J62" s="5">
         <v>10687612</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="6">
         <v>5197310.4000000004</v>
       </c>
     </row>
@@ -4583,33 +4352,33 @@
         <v>300347</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="9">
+        <v>50</v>
+      </c>
+      <c r="G63" s="4">
         <v>43191</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="4">
         <v>45016</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J63" s="10">
+        <v>55</v>
+      </c>
+      <c r="J63" s="5">
         <v>23500000</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="6">
         <v>15800000</v>
       </c>
     </row>
@@ -4618,30 +4387,30 @@
         <v>300384</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="9">
+        <v>50</v>
+      </c>
+      <c r="G64" s="4">
         <v>42826</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="4">
         <v>44651</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-      <c r="J64" s="10">
+        <v>55</v>
+      </c>
+      <c r="J64" s="5">
         <v>11250000</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="6">
         <v>11250000</v>
       </c>
     </row>
@@ -4650,33 +4419,33 @@
         <v>300405</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="9">
+        <v>50</v>
+      </c>
+      <c r="G65" s="4">
         <v>42917</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="4">
         <v>46295</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
-      </c>
-      <c r="J65" s="10">
+        <v>250</v>
+      </c>
+      <c r="J65" s="5">
         <v>26500000</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="6">
         <v>619341.4</v>
       </c>
     </row>
@@ -4685,30 +4454,30 @@
         <v>300446</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="9">
+        <v>50</v>
+      </c>
+      <c r="G66" s="4">
         <v>42948</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="4">
         <v>46112</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="5">
         <v>15500000</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="6">
         <v>11467782.699999999</v>
       </c>
     </row>
@@ -4717,33 +4486,33 @@
         <v>300482</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="9">
+        <v>50</v>
+      </c>
+      <c r="G67" s="4">
         <v>43191</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="4">
         <v>45169</v>
       </c>
       <c r="I67" t="s">
-        <v>287</v>
-      </c>
-      <c r="J67" s="10">
+        <v>256</v>
+      </c>
+      <c r="J67" s="5">
         <v>38053854</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="6">
         <v>9015201.4000000004</v>
       </c>
     </row>
@@ -4752,30 +4521,30 @@
         <v>300484</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="9">
+        <v>50</v>
+      </c>
+      <c r="G68" s="4">
         <v>43454</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="4">
         <v>45382</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="5">
         <v>18099997</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="6">
         <v>3740328</v>
       </c>
     </row>
@@ -4784,33 +4553,33 @@
         <v>300504</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="9">
+        <v>50</v>
+      </c>
+      <c r="G69" s="4">
         <v>43191</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="4">
         <v>44926</v>
       </c>
       <c r="I69" t="s">
-        <v>293</v>
-      </c>
-      <c r="J69" s="10">
+        <v>262</v>
+      </c>
+      <c r="J69" s="5">
         <v>12600000</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="6">
         <v>7786167</v>
       </c>
     </row>
@@ -4819,33 +4588,33 @@
         <v>300574</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="9">
+        <v>50</v>
+      </c>
+      <c r="G70" s="4">
         <v>43160</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="4">
         <v>45016</v>
       </c>
       <c r="I70" t="s">
-        <v>298</v>
-      </c>
-      <c r="J70" s="10">
+        <v>267</v>
+      </c>
+      <c r="J70" s="5">
         <v>9224743</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="6">
         <v>3906211</v>
       </c>
     </row>
@@ -4854,30 +4623,30 @@
         <v>300615</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="9">
+        <v>50</v>
+      </c>
+      <c r="G71" s="4">
         <v>43207</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="4">
         <v>45747</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
-      </c>
-      <c r="J71" s="10">
+        <v>55</v>
+      </c>
+      <c r="J71" s="5">
         <v>3505619</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="6">
         <v>393186.1</v>
       </c>
     </row>
@@ -4886,33 +4655,33 @@
         <v>300632</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="9">
+        <v>50</v>
+      </c>
+      <c r="G72" s="4">
         <v>43556</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="4">
         <v>45746</v>
       </c>
       <c r="I72" t="s">
-        <v>304</v>
-      </c>
-      <c r="J72" s="10">
+        <v>273</v>
+      </c>
+      <c r="J72" s="5">
         <v>18535350</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="6">
         <v>6940534</v>
       </c>
     </row>
@@ -4921,33 +4690,33 @@
         <v>300644</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C73" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="9">
+        <v>50</v>
+      </c>
+      <c r="G73" s="4">
         <v>43586</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="4">
         <v>46142</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
-      </c>
-      <c r="J73" s="10">
+        <v>276</v>
+      </c>
+      <c r="J73" s="5">
         <v>37800000</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="6">
         <v>7714532.0999999996</v>
       </c>
     </row>
@@ -4956,33 +4725,33 @@
         <v>300649</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C74" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="9">
+        <v>50</v>
+      </c>
+      <c r="G74" s="4">
         <v>43556</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="4">
         <v>44651</v>
       </c>
       <c r="I74" t="s">
-        <v>311</v>
-      </c>
-      <c r="J74" s="10">
+        <v>280</v>
+      </c>
+      <c r="J74" s="5">
         <v>25828000</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="6">
         <v>25678000</v>
       </c>
     </row>
@@ -4991,33 +4760,33 @@
         <v>300654</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="9">
+        <v>50</v>
+      </c>
+      <c r="G75" s="4">
         <v>43647</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="4">
         <v>45869</v>
       </c>
       <c r="I75" t="s">
-        <v>314</v>
-      </c>
-      <c r="J75" s="10">
+        <v>283</v>
+      </c>
+      <c r="J75" s="5">
         <v>12124941</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="6">
         <v>2103363.2999999998</v>
       </c>
     </row>
@@ -5026,33 +4795,33 @@
         <v>300655</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="9">
+        <v>50</v>
+      </c>
+      <c r="G76" s="4">
         <v>43435</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="4">
         <v>46053</v>
       </c>
       <c r="I76" t="s">
-        <v>317</v>
-      </c>
-      <c r="J76" s="10">
+        <v>286</v>
+      </c>
+      <c r="J76" s="5">
         <v>20000000</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="6">
         <v>3056192.1</v>
       </c>
     </row>
@@ -5061,30 +4830,30 @@
         <v>300656</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="9">
+        <v>50</v>
+      </c>
+      <c r="G77" s="4">
         <v>43556</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="4">
         <v>45382</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="5">
         <v>12000000</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="6">
         <v>1666092.8</v>
       </c>
     </row>
@@ -5093,33 +4862,33 @@
         <v>300704</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="9">
+        <v>50</v>
+      </c>
+      <c r="G78" s="4">
         <v>43556</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="4">
         <v>45747</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
-      </c>
-      <c r="J78" s="10">
+        <v>293</v>
+      </c>
+      <c r="J78" s="5">
         <v>32207530</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="6">
         <v>1729643.3</v>
       </c>
     </row>
@@ -5128,30 +4897,30 @@
         <v>300708</v>
       </c>
       <c r="B79" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="D79" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="9">
+        <v>50</v>
+      </c>
+      <c r="G79" s="4">
         <v>43981</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="4">
         <v>46112</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="5">
         <v>49947720</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="6">
         <v>4691326.2</v>
       </c>
     </row>
@@ -5160,33 +4929,33 @@
         <v>300728</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="9">
+        <v>50</v>
+      </c>
+      <c r="G80" s="4">
         <v>43647</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="4">
         <v>45473</v>
       </c>
       <c r="I80" t="s">
-        <v>331</v>
-      </c>
-      <c r="J80" s="10">
+        <v>300</v>
+      </c>
+      <c r="J80" s="5">
         <v>38000000</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="6">
         <v>6357872.0999999996</v>
       </c>
     </row>
@@ -5195,33 +4964,33 @@
         <v>300755</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="9">
+        <v>50</v>
+      </c>
+      <c r="G81" s="4">
         <v>43586</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="4">
         <v>45413</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
-      </c>
-      <c r="J81" s="10">
+        <v>304</v>
+      </c>
+      <c r="J81" s="5">
         <v>16000000</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="6">
         <v>5603072.2999999998</v>
       </c>
     </row>
@@ -5230,27 +4999,27 @@
         <v>300760</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="9">
+        <v>50</v>
+      </c>
+      <c r="G82" s="4">
         <v>43700</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="4">
         <v>46112</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="5">
         <v>35050000</v>
       </c>
     </row>
@@ -5259,33 +5028,33 @@
         <v>300769</v>
       </c>
       <c r="B83" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C83" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="9">
+        <v>50</v>
+      </c>
+      <c r="G83" s="4">
         <v>43556</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="4">
         <v>46387</v>
       </c>
       <c r="I83" t="s">
-        <v>341</v>
-      </c>
-      <c r="J83" s="10">
+        <v>310</v>
+      </c>
+      <c r="J83" s="5">
         <v>20500000</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="6">
         <v>547195</v>
       </c>
     </row>
@@ -5294,33 +5063,33 @@
         <v>300781</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="9">
+        <v>50</v>
+      </c>
+      <c r="G84" s="4">
         <v>43431</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="4">
         <v>45747</v>
       </c>
       <c r="I84" t="s">
-        <v>346</v>
-      </c>
-      <c r="J84" s="10">
+        <v>315</v>
+      </c>
+      <c r="J84" s="5">
         <v>20000000</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="6">
         <v>1397116</v>
       </c>
     </row>
@@ -5329,33 +5098,33 @@
         <v>300785</v>
       </c>
       <c r="B85" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="9">
+        <v>50</v>
+      </c>
+      <c r="G85" s="4">
         <v>43511</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="4">
         <v>45382</v>
       </c>
       <c r="I85" t="s">
-        <v>350</v>
-      </c>
-      <c r="J85" s="10">
+        <v>319</v>
+      </c>
+      <c r="J85" s="5">
         <v>4985058</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="6">
         <v>1631848.6</v>
       </c>
     </row>
@@ -5364,30 +5133,30 @@
         <v>300815</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="9">
+        <v>50</v>
+      </c>
+      <c r="G86" s="4">
         <v>43556</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="4">
         <v>45566</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J86" s="5">
         <v>19800000</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="6">
         <v>12633595.9</v>
       </c>
     </row>
@@ -5396,33 +5165,33 @@
         <v>300849</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C87" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="9">
+        <v>50</v>
+      </c>
+      <c r="G87" s="4">
         <v>43739</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="4">
         <v>45565</v>
       </c>
       <c r="I87" t="s">
-        <v>86</v>
-      </c>
-      <c r="J87" s="10">
+        <v>55</v>
+      </c>
+      <c r="J87" s="5">
         <v>4900000</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="6">
         <v>1079504.6000000001</v>
       </c>
     </row>
@@ -5431,30 +5200,30 @@
         <v>300966</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="9">
+        <v>50</v>
+      </c>
+      <c r="G88" s="4">
         <v>43641</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="4">
         <v>45747</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J88" s="5">
         <v>19266871</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="6">
         <v>6445497</v>
       </c>
     </row>
@@ -5463,27 +5232,27 @@
         <v>301050</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="9">
+        <v>50</v>
+      </c>
+      <c r="G89" s="4">
         <v>44562</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="4">
         <v>45747</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J89" s="5">
         <v>4700000</v>
       </c>
     </row>
@@ -5492,27 +5261,27 @@
         <v>301067</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="9">
+        <v>50</v>
+      </c>
+      <c r="G90" s="4">
         <v>44287</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="4">
         <v>45747</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J90" s="5">
         <v>32850000</v>
       </c>
     </row>
@@ -5521,33 +5290,33 @@
         <v>301108</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="9">
+        <v>50</v>
+      </c>
+      <c r="G91" s="4">
         <v>43831</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="4">
         <v>45747</v>
       </c>
       <c r="I91" t="s">
-        <v>368</v>
-      </c>
-      <c r="J91" s="10">
+        <v>337</v>
+      </c>
+      <c r="J91" s="5">
         <v>9400000</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="6">
         <v>2833458.1</v>
       </c>
     </row>
@@ -5556,33 +5325,33 @@
         <v>301132</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="9">
+        <v>50</v>
+      </c>
+      <c r="G92" s="4">
         <v>43891</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="4">
         <v>46142</v>
       </c>
       <c r="I92" t="s">
-        <v>372</v>
-      </c>
-      <c r="J92" s="10">
+        <v>341</v>
+      </c>
+      <c r="J92" s="5">
         <v>7972870</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="6">
         <v>833464.7</v>
       </c>
     </row>
@@ -5591,33 +5360,33 @@
         <v>301133</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="9">
+        <v>50</v>
+      </c>
+      <c r="G93" s="4">
         <v>43891</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="4">
         <v>46142</v>
       </c>
       <c r="I93" t="s">
-        <v>375</v>
-      </c>
-      <c r="J93" s="10">
+        <v>344</v>
+      </c>
+      <c r="J93" s="5">
         <v>7682213</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K93" s="6">
         <v>928203.3</v>
       </c>
     </row>
@@ -5626,33 +5395,33 @@
         <v>301134</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E94" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="9">
+        <v>50</v>
+      </c>
+      <c r="G94" s="4">
         <v>43891</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="4">
         <v>46142</v>
       </c>
       <c r="I94" t="s">
-        <v>378</v>
-      </c>
-      <c r="J94" s="10">
+        <v>347</v>
+      </c>
+      <c r="J94" s="5">
         <v>6941624</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K94" s="6">
         <v>957250.6</v>
       </c>
     </row>
@@ -5661,33 +5430,33 @@
         <v>301135</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="9">
+        <v>50</v>
+      </c>
+      <c r="G95" s="4">
         <v>43891</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="4">
         <v>46142</v>
       </c>
       <c r="I95" t="s">
-        <v>381</v>
-      </c>
-      <c r="J95" s="10">
+        <v>350</v>
+      </c>
+      <c r="J95" s="5">
         <v>7953129</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="6">
         <v>111034.1</v>
       </c>
     </row>
@@ -5696,33 +5465,33 @@
         <v>301136</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="9">
+        <v>50</v>
+      </c>
+      <c r="G96" s="4">
         <v>43891</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="4">
         <v>46142</v>
       </c>
       <c r="I96" t="s">
-        <v>384</v>
-      </c>
-      <c r="J96" s="10">
+        <v>353</v>
+      </c>
+      <c r="J96" s="5">
         <v>8000000</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="6">
         <v>167296.29999999999</v>
       </c>
     </row>
@@ -5731,33 +5500,33 @@
         <v>301138</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="9">
+        <v>50</v>
+      </c>
+      <c r="G97" s="4">
         <v>43891</v>
       </c>
-      <c r="H97" s="9">
+      <c r="H97" s="4">
         <v>46142</v>
       </c>
       <c r="I97" t="s">
-        <v>387</v>
-      </c>
-      <c r="J97" s="10">
+        <v>356</v>
+      </c>
+      <c r="J97" s="5">
         <v>7903834</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="6">
         <v>956166.6</v>
       </c>
     </row>
@@ -5766,33 +5535,33 @@
         <v>301139</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="9">
+        <v>50</v>
+      </c>
+      <c r="G98" s="4">
         <v>43891</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="4">
         <v>46142</v>
       </c>
       <c r="I98" t="s">
-        <v>390</v>
-      </c>
-      <c r="J98" s="10">
+        <v>359</v>
+      </c>
+      <c r="J98" s="5">
         <v>7812831</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="6">
         <v>781523.6</v>
       </c>
     </row>
@@ -5801,30 +5570,30 @@
         <v>301263</v>
       </c>
       <c r="B99" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C99" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="9">
+        <v>50</v>
+      </c>
+      <c r="G99" s="4">
         <v>44287</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="4">
         <v>46660</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="5">
         <v>19000000</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5833,24 +5602,24 @@
         <v>301290</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C100" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="E100" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
-      </c>
-      <c r="G100" s="9">
+        <v>50</v>
+      </c>
+      <c r="G100" s="4">
         <v>44166</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="4">
         <v>45382</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J100" s="5">
         <v>4790000</v>
       </c>
     </row>
@@ -5859,30 +5628,30 @@
         <v>301291</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="E101" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F101" t="s">
-        <v>81</v>
-      </c>
-      <c r="G101" s="9">
+        <v>50</v>
+      </c>
+      <c r="G101" s="4">
         <v>44168</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="4">
         <v>45747</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="5">
         <v>10739851</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="6">
         <v>8360472.9000000004</v>
       </c>
     </row>

--- a/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
+++ b/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-clegg\Documents\GitHub projects\ODA_research_and_innovation\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{AA5B4C96-D9A2-4DF5-AD3E-B21AF2628C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45A4A303-0AF2-47EE-BE3F-DBE8EDA44EEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070E39C3-B5FA-4896-9E25-FB4E27AA2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCDO core contribution projects" sheetId="4" r:id="rId1"/>
     <sheet name="RED geotagging (from AMP)" sheetId="6" r:id="rId2"/>
+    <sheet name="RED geotagging (from AMP) (2)" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCDO core contribution projects'!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCDO core contribution projects'!$A$1:$C$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RED geotagging (from AMP)'!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RED geotagging (from AMP) (2)'!$A$1:$L$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="408">
   <si>
     <t>KENYA,MOZAMBIQUE,PAKISTAN,SIERRA LEONE,TUVALU</t>
   </si>
@@ -1076,6 +1078,189 @@
   </si>
   <si>
     <t>GB-1-203052-104</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>This Programme Supports A Global Public Good</t>
+  </si>
+  <si>
+    <t>This Programme Supports A Regional Public Good</t>
+  </si>
+  <si>
+    <t>Kenya,Tanzania,Ghana,Nigeria,Rwanda,South Africa</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Ethiopia,Bangladesh,Mozambique,Malawi,Pakistan</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Nigeria,Zambia,Senegal,Viet Nam,Indonesia</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Rwanda,Pakistan,Sierra Leone,Nepal,India,Afghanistan,Bhutan,Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Kenya,Mozambique,Pakistan,Sierra Leone,Tuvalu</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Mozambique,Zambia,Malawi,Zimbabwe,Drc,South Africa</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Zambia,Malawi,Rwanda,Pakistan,Sierra Leone,Nepal,Zimbabwe,Drc,Afghanistan,South Sudan,Senegal,Somalia,Sudan (The),Mali,Niger (The),Benin,Burkina Faso,Burundi,Cameroon,Chad,Côte D’Ivoire,Gambia (The),Jordan,Lebanon,Mauritania,Togo,Viet Nam</t>
+  </si>
+  <si>
+    <t>Nigeria,Pakistan,Afghanistan,South Sudan,Myanmar,Somalia,Sudan (The),Iran (Islamic Republic Of),Iraq,Syrian Arab Republic,Yemen,Egypt,Libyan Arab Jamahiriya,Chad,Tunisia,Algeria</t>
+  </si>
+  <si>
+    <t>Ethiopia,Bangladesh,Rwanda,Nepal,Jordan,Lebanon</t>
+  </si>
+  <si>
+    <t>Ethiopia,Bangladesh,Zambia,Malawi,Nepal</t>
+  </si>
+  <si>
+    <t>Tanzania,Ethiopia,Bangladesh,Nigeria,Mozambique,India,Myanmar,Madagascar</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Ethiopia,Bangladesh,Nigeria</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ghana,Nigeria,Zambia,Malawi,Zimbabwe,Drc,South Africa,Senegal,Botswana,Burkina Faso,Cameroon,Gabon,Mauritius,Namibia,Congo (The)</t>
+  </si>
+  <si>
+    <t>Nigeria,South Sudan,Myanmar,Syrian Arab Republic,Jordan,Lebanon</t>
+  </si>
+  <si>
+    <t>Nigeria,Mozambique,Pakistan,Myanmar</t>
+  </si>
+  <si>
+    <t>Nigeria,Drc,South Sudan,Somalia</t>
+  </si>
+  <si>
+    <t>Kenya,Tanzania,Ethiopia,Ghana,Mozambique,Malawi,Zimbabwe</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Ethiopia,Bangladesh,Ghana,Nigeria,Zambia,Rwanda,Pakistan,Nepal,India,Myanmar,Sudan (The),Egypt,Philippines (The)</t>
+  </si>
+  <si>
+    <t>Kenya,Tanzania,Ethiopia,Nigeria,Mozambique,Malawi,Rwanda,Pakistan,Nepal,India,South Africa,Senegal,Guinea-Bissau,Iraq,Liberia,Nicaragua,Tunisia</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Mozambique,Zambia,Malawi,Rwanda,Sierra Leone,Drc,South Africa,South Sudan,Somalia,Niger (The),Côte D’Ivoire,Benin,Burkina Faso,Cameroon,Central African Republic (The),Guinea,Liberia,Madagascar,Mauritania,Congo (The),Togo</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Nigeria,Malawi</t>
+  </si>
+  <si>
+    <t>Bangladesh,Pakistan,Nepal,India,Afghanistan,Myanmar</t>
+  </si>
+  <si>
+    <t>Ethiopia,Pakistan,Jamaica,Liberia</t>
+  </si>
+  <si>
+    <t>United Kingdom Of Great Britain And Northern Ireland (The)</t>
+  </si>
+  <si>
+    <t>Tanzania,Ethiopia,Nigeria,Pakistan,India,Indonesia,Viet Nam</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Malawi,Nepal,India,Niger (The),Burkina Faso,Guinea,Indonesia,Viet Nam</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Zambia,Rwanda</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Rwanda</t>
+  </si>
+  <si>
+    <t>Ethiopia,Drc,South Sudan,Sudan (The),Lebanon,Iraq,Syrian Arab Republic,Switzerland,Indonesia,United States Of America (The)</t>
+  </si>
+  <si>
+    <t>Kenya,Tanzania,Ghana,Nepal,Senegal,Côte D’Ivoire</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Nigeria,Malawi,Sierra Leone,South Sudan</t>
+  </si>
+  <si>
+    <t>This Is A Multi-Lateral Programme Which Is Core Funded</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Zambia,Malawi,Rwanda,Pakistan,Nepal,India,Drc,South Africa,Afghanistan,Myanmar,Somalia,Benin,Brazil,Burkina Faso,Burundi,Cambodia,Côte D’Ivoire,Indonesia,Lao Peoples Democratic Republic (The),Madagascar,Mauritius,Nicaragua,Sri Lanka,Tajikistan,Thailand,Viet Nam</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Ethiopia,Nigeria,South Sudan,Somalia,Sudan (The),Mali,Niger (The),Burkina Faso,Chad,Eritrea,Mauritania,Syrian Arab Republic,Yemen</t>
+  </si>
+  <si>
+    <t>Kenya,Ethiopia,Ghana,Nigeria,Mozambique,Malawi,Rwanda,Sierra Leone,Drc,Benin,Burkina Faso,Cameroon,Côte D’Ivoire,Gabon,Togo</t>
+  </si>
+  <si>
+    <t>Kenya,Ethiopia,Bangladesh,Pakistan,Nepal,India</t>
+  </si>
+  <si>
+    <t>Tanzania,Ethiopia,Ghana,Rwanda,Pakistan,Sierra Leone,South Sudan,Lebanon,Kiribati</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Bangladesh,Nigeria,Zambia,Rwanda,Pakistan</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Ethiopia,India,Viet Nam,Peru</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Malawi,Pakistan,Sierra Leone,India,Zimbabwe,South Africa,South Sudan,Somalia,Sudan (The),Philippines (The),Lebanon,Morocco,Mongolia,Indonesia,Cambodia,Liberia,Thailand</t>
+  </si>
+  <si>
+    <t>Sierra Leone,Nepal,Myanmar,United Kingdom Of Great Britain And Northern Ireland (The),Lebanon</t>
+  </si>
+  <si>
+    <t>Uganda,Tanzania,Bangladesh,Nigeria,Malawi,Tajikistan,Mongolia,Uzbekistan,Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Kenya,Uganda,Bangladesh,Nigeria,Zambia,Rwanda,Pakistan,Côte D’Ivoire</t>
+  </si>
+  <si>
+    <t>Uganda,Ethiopia</t>
+  </si>
+  <si>
+    <t>Bangladesh,Ghana,Nigeria,Nepal</t>
+  </si>
+  <si>
+    <t>Tanzania,Benin,Côte D’Ivoire,Cameroon</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300552</t>
+  </si>
+  <si>
+    <t>Asia Regional Child Labour Programme</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300343</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1271,7 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,6 +1391,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1391,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1506,8 +1698,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1550,8 +1757,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1564,8 +1772,11 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1599,6 +1810,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1609,7 +1821,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1634,6 +1856,21 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B084"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1947,20 +2184,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F4EA4-DC3A-4C1B-81EE-634021F720DA}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="87.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="74.19921875" customWidth="1"/>
+    <col min="1" max="1" width="29.58203125" customWidth="1"/>
+    <col min="2" max="2" width="87.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1971,7 +2208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>319</v>
       </c>
@@ -1990,7 +2227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +2235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -2006,7 +2243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -2017,7 +2254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2028,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -2039,7 +2276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -2050,7 +2287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -2069,7 +2306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>339</v>
       </c>
@@ -2077,7 +2314,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -2099,7 +2336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2110,7 +2347,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -2121,7 +2358,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2129,7 +2366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -2140,7 +2377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2159,7 +2396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2167,7 +2404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -2178,7 +2415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -2189,7 +2426,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2200,7 +2437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -2222,7 +2459,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -2230,7 +2467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>342</v>
       </c>
@@ -2238,7 +2475,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2246,7 +2483,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2491,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -2262,7 +2499,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>309</v>
       </c>
@@ -2270,163 +2507,182 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>317</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>313</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>336</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>337</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>324</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>338</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>325</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>318</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>311</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>312</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C44" xr:uid="{97E336E5-A533-4260-8E56-96E4AAD413F4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
-      <sortCondition ref="A1:A44"/>
+  <autoFilter ref="A1:C46" xr:uid="{97E336E5-A533-4260-8E56-96E4AAD413F4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
+      <sortCondition ref="A1:A46"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Columbia"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Columbia">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Columbia">
       <formula>NOT(ISERROR(SEARCH("Columbia",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A32 A34:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2435,20 +2691,20 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.3984375" customWidth="1"/>
+    <col min="2" max="2" width="55.4140625" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="40.09765625" customWidth="1"/>
-    <col min="5" max="6" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="37.19921875" customWidth="1"/>
+    <col min="4" max="4" width="40.08203125" customWidth="1"/>
+    <col min="5" max="6" width="18.58203125" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2477,7 +2733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200574</v>
       </c>
@@ -2503,7 +2759,7 @@
         <v>15678567</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201267</v>
       </c>
@@ -2532,7 +2788,7 @@
         <v>60200023.200000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201879</v>
       </c>
@@ -2558,7 +2814,7 @@
         <v>24108119.600000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201880</v>
       </c>
@@ -2587,7 +2843,7 @@
         <v>15484470</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300704</v>
       </c>
@@ -2616,7 +2872,7 @@
         <v>1729643.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202749</v>
       </c>
@@ -2645,7 +2901,7 @@
         <v>11736364.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>202766</v>
       </c>
@@ -2674,7 +2930,7 @@
         <v>5506031.7999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202835</v>
       </c>
@@ -2703,7 +2959,7 @@
         <v>22713800.899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>202960</v>
       </c>
@@ -2732,7 +2988,7 @@
         <v>17210000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>203052</v>
       </c>
@@ -2761,7 +3017,7 @@
         <v>24057052.800000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>204773</v>
       </c>
@@ -2790,7 +3046,7 @@
         <v>11146113.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>203051</v>
       </c>
@@ -2819,7 +3075,7 @@
         <v>14274938.800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>204153</v>
       </c>
@@ -2848,7 +3104,7 @@
         <v>15686534</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>203067</v>
       </c>
@@ -2877,7 +3133,7 @@
         <v>12287517.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>204764</v>
       </c>
@@ -2906,7 +3162,7 @@
         <v>139114489</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>300100</v>
       </c>
@@ -2935,7 +3191,7 @@
         <v>7502239.7000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>203529</v>
       </c>
@@ -2964,7 +3220,7 @@
         <v>19957172.100000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>203569</v>
       </c>
@@ -2993,7 +3249,7 @@
         <v>5748956.4000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>203752</v>
       </c>
@@ -3022,7 +3278,7 @@
         <v>13199472.699999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>203804</v>
       </c>
@@ -3051,7 +3307,7 @@
         <v>50566292.700000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>203835</v>
       </c>
@@ -3080,7 +3336,7 @@
         <v>19118231.600000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>203844</v>
       </c>
@@ -3109,7 +3365,7 @@
         <v>7779152.4000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>204836</v>
       </c>
@@ -3138,7 +3394,7 @@
         <v>1574613.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>203933</v>
       </c>
@@ -3167,7 +3423,7 @@
         <v>27196950</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>204133</v>
       </c>
@@ -3196,7 +3452,7 @@
         <v>1915865</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>300649</v>
       </c>
@@ -3225,7 +3481,7 @@
         <v>25678000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>204291</v>
       </c>
@@ -3254,7 +3510,7 @@
         <v>4278920.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>203041</v>
       </c>
@@ -3283,7 +3539,7 @@
         <v>14783100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>204324</v>
       </c>
@@ -3312,7 +3568,7 @@
         <v>12858249.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>300405</v>
       </c>
@@ -3341,7 +3597,7 @@
         <v>619341.4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>204427</v>
       </c>
@@ -3370,7 +3626,7 @@
         <v>6232123.0999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>301135</v>
       </c>
@@ -3399,7 +3655,7 @@
         <v>111034.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>204653</v>
       </c>
@@ -3428,7 +3684,7 @@
         <v>1959860.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>204725</v>
       </c>
@@ -3457,7 +3713,7 @@
         <v>6211834.2000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>204765</v>
       </c>
@@ -3486,7 +3742,7 @@
         <v>281590118.60000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>202568</v>
       </c>
@@ -3515,7 +3771,7 @@
         <v>12461864.199999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>204931</v>
       </c>
@@ -3544,7 +3800,7 @@
         <v>11099855</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>203050</v>
       </c>
@@ -3573,7 +3829,7 @@
         <v>19701355</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>301138</v>
       </c>
@@ -3602,7 +3858,7 @@
         <v>956166.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>205053</v>
       </c>
@@ -3631,7 +3887,7 @@
         <v>4544146</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>205103</v>
       </c>
@@ -3660,7 +3916,7 @@
         <v>4961891.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>205109</v>
       </c>
@@ -3689,7 +3945,7 @@
         <v>3759425.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>205121</v>
       </c>
@@ -3715,7 +3971,7 @@
         <v>8293978.7000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>203089</v>
       </c>
@@ -3744,7 +4000,7 @@
         <v>9904337.3000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>300049</v>
       </c>
@@ -3773,7 +4029,7 @@
         <v>9887920.5999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>204322</v>
       </c>
@@ -3802,7 +4058,7 @@
         <v>28199097.699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>300111</v>
       </c>
@@ -3831,7 +4087,7 @@
         <v>15624119</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>300123</v>
       </c>
@@ -3860,7 +4116,7 @@
         <v>15828676.300000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>300124</v>
       </c>
@@ -3889,7 +4145,7 @@
         <v>1758681.7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>300125</v>
       </c>
@@ -3912,7 +4168,7 @@
         <v>4113266.7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>300126</v>
       </c>
@@ -3941,7 +4197,7 @@
         <v>9916381.6999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>300180</v>
       </c>
@@ -3967,7 +4223,7 @@
         <v>809778.6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>204420</v>
       </c>
@@ -3996,7 +4252,7 @@
         <v>18916870.100000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>300632</v>
       </c>
@@ -4025,7 +4281,7 @@
         <v>6940534</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>300294</v>
       </c>
@@ -4054,7 +4310,7 @@
         <v>11948500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>300341</v>
       </c>
@@ -4083,7 +4339,7 @@
         <v>377489579.80000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>300342</v>
       </c>
@@ -4109,7 +4365,7 @@
         <v>21448728.199999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>300343</v>
       </c>
@@ -4135,7 +4391,7 @@
         <v>22214869</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>300346</v>
       </c>
@@ -4164,7 +4420,7 @@
         <v>5197310.4000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>300347</v>
       </c>
@@ -4193,7 +4449,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>300384</v>
       </c>
@@ -4222,7 +4478,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>300781</v>
       </c>
@@ -4251,7 +4507,7 @@
         <v>1397116</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>300446</v>
       </c>
@@ -4277,7 +4533,7 @@
         <v>11467782.699999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>300482</v>
       </c>
@@ -4306,7 +4562,7 @@
         <v>9015201.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>300484</v>
       </c>
@@ -4332,7 +4588,7 @@
         <v>3740328</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>300504</v>
       </c>
@@ -4361,7 +4617,7 @@
         <v>7786167</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>300574</v>
       </c>
@@ -4390,7 +4646,7 @@
         <v>3906211</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>300615</v>
       </c>
@@ -4419,7 +4675,7 @@
         <v>393186.1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>301134</v>
       </c>
@@ -4448,7 +4704,7 @@
         <v>957250.6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>300644</v>
       </c>
@@ -4477,7 +4733,7 @@
         <v>7714532.0999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>205271</v>
       </c>
@@ -4506,7 +4762,7 @@
         <v>41125249</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>300654</v>
       </c>
@@ -4535,7 +4791,7 @@
         <v>2103363.2999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>300655</v>
       </c>
@@ -4564,7 +4820,7 @@
         <v>3056192.1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>300656</v>
       </c>
@@ -4590,7 +4846,7 @@
         <v>1666092.8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>300728</v>
       </c>
@@ -4619,7 +4875,7 @@
         <v>6357872.0999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>300708</v>
       </c>
@@ -4645,7 +4901,7 @@
         <v>4691326.2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>300211</v>
       </c>
@@ -4674,7 +4930,7 @@
         <v>4306194</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>300755</v>
       </c>
@@ -4703,7 +4959,7 @@
         <v>5603072.2999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>300760</v>
       </c>
@@ -4726,7 +4982,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>300769</v>
       </c>
@@ -4755,7 +5011,7 @@
         <v>547195</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>204867</v>
       </c>
@@ -4784,7 +5040,7 @@
         <v>76891056.900000006</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>300785</v>
       </c>
@@ -4813,7 +5069,7 @@
         <v>1631848.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>300815</v>
       </c>
@@ -4839,7 +5095,7 @@
         <v>12633595.9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>300849</v>
       </c>
@@ -4868,7 +5124,7 @@
         <v>1079504.6000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>300966</v>
       </c>
@@ -4894,7 +5150,7 @@
         <v>6445497</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>301050</v>
       </c>
@@ -4917,7 +5173,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>301067</v>
       </c>
@@ -4940,7 +5196,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>301108</v>
       </c>
@@ -4969,7 +5225,7 @@
         <v>2833458.1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>205288</v>
       </c>
@@ -4998,7 +5254,7 @@
         <v>10566684</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>301133</v>
       </c>
@@ -5027,7 +5283,7 @@
         <v>928203.3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>203212</v>
       </c>
@@ -5056,7 +5312,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>204415</v>
       </c>
@@ -5085,7 +5341,7 @@
         <v>20362597.199999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>301136</v>
       </c>
@@ -5114,7 +5370,7 @@
         <v>167296.29999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>301132</v>
       </c>
@@ -5143,7 +5399,7 @@
         <v>833464.7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>301139</v>
       </c>
@@ -5172,7 +5428,7 @@
         <v>781523.6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>301263</v>
       </c>
@@ -5198,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>301290</v>
       </c>
@@ -5218,7 +5474,7 @@
         <v>4790000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>301291</v>
       </c>
@@ -5242,10 +5498,2816 @@
       </c>
       <c r="I99" s="6">
         <v>8360472.9000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SOUTH AFRICA">
+      <formula>NOT(ISERROR(SEARCH("SOUTH AFRICA",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83534B1A-76F9-4460-918B-21DF3189CA9D}">
+  <dimension ref="A1:L92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="45.9140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="18.58203125" customWidth="1"/>
+    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>203050</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K2" s="5">
+        <v>19761356</v>
+      </c>
+      <c r="L2" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A2,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203050/summary</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>205288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K3" s="5">
+        <v>36297928</v>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A3,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205288/summary</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>203051</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" s="5">
+        <v>14994000</v>
+      </c>
+      <c r="L4" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A4,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203051/summary</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>204764</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" t="s">
+        <v>400</v>
+      </c>
+      <c r="K5" s="5">
+        <v>139261429</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A5,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204764/summary</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>204773</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" t="s">
+        <v>400</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15500000</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A6,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204773/summary</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>300728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K7" s="5">
+        <v>38000000</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A7,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300728/summary</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>300769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
+        <v>388</v>
+      </c>
+      <c r="J8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="5">
+        <v>20500000</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A8,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300769/summary</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>301133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7682213</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A9,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301133/summary</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>301134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6941624</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A10,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301134/summary</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>300704</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>400</v>
+      </c>
+      <c r="K11" s="5">
+        <v>32207530</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A11,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300704/summary</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>204153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K12" s="5">
+        <v>22300000</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" ref="L12:L45" si="0">HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A12,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204153/summary</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>203041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="5">
+        <v>15376244</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203041/summary</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>204931</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>368</v>
+      </c>
+      <c r="J14" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" s="5">
+        <v>12250000</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204931/summary</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>205271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="5">
+        <v>44925736</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205271/summary</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>200574</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="5">
+        <v>17162788</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-200574/summary</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>201267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2009</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="5">
+        <v>77000000</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201267/summary</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>201879</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" s="5">
+        <v>40501000</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201879/summary</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>201880</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" t="s">
+        <v>400</v>
+      </c>
+      <c r="K19" s="5">
+        <v>22500000</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201880/summary</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202568</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="5">
+        <v>24600000</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202568/summary</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>202766</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>348</v>
+      </c>
+      <c r="J21" t="s">
+        <v>400</v>
+      </c>
+      <c r="K21" s="5">
+        <v>6128571</v>
+      </c>
+      <c r="L21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202766/summary</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>202835</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>351</v>
+      </c>
+      <c r="J22" t="s">
+        <v>400</v>
+      </c>
+      <c r="K22" s="5">
+        <v>36640000</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202835/summary</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>202960</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>348</v>
+      </c>
+      <c r="J23" t="s">
+        <v>400</v>
+      </c>
+      <c r="K23" s="5">
+        <v>19835986</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202960/summary</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>203052</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2029</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>352</v>
+      </c>
+      <c r="J24" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="5">
+        <v>31131042</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203052/summary</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>203212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>394</v>
+      </c>
+      <c r="J25" t="s">
+        <v>400</v>
+      </c>
+      <c r="K25" s="5">
+        <v>9800000</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203212/summary</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>203529</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>358</v>
+      </c>
+      <c r="J26" t="s">
+        <v>400</v>
+      </c>
+      <c r="K26" s="5">
+        <v>30896804</v>
+      </c>
+      <c r="L26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203529/summary</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>203569</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" t="s">
+        <v>400</v>
+      </c>
+      <c r="K27" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203569/summary</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>203752</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>348</v>
+      </c>
+      <c r="J28" t="s">
+        <v>400</v>
+      </c>
+      <c r="K28" s="5">
+        <v>16248812</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203752/summary</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>203844</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J29" t="s">
+        <v>400</v>
+      </c>
+      <c r="K29" s="5">
+        <v>18000000</v>
+      </c>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203844/summary</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>203933</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" t="s">
+        <v>400</v>
+      </c>
+      <c r="K30" s="5">
+        <v>29904657</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203933/summary</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>204133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" t="s">
+        <v>400</v>
+      </c>
+      <c r="K31" s="5">
+        <v>3103308</v>
+      </c>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204133/summary</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>204291</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>348</v>
+      </c>
+      <c r="J32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K32" s="5">
+        <v>4914002</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204291/summary</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>204322</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>374</v>
+      </c>
+      <c r="J33" t="s">
+        <v>400</v>
+      </c>
+      <c r="K33" s="5">
+        <v>37660852</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204322/summary</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>204324</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>348</v>
+      </c>
+      <c r="J34" t="s">
+        <v>400</v>
+      </c>
+      <c r="K34" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204324/summary</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>204415</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>395</v>
+      </c>
+      <c r="J35" t="s">
+        <v>400</v>
+      </c>
+      <c r="K35" s="5">
+        <v>40150002</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204415/summary</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>204420</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" t="s">
+        <v>400</v>
+      </c>
+      <c r="K36" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204420/summary</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>204427</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>364</v>
+      </c>
+      <c r="J37" t="s">
+        <v>400</v>
+      </c>
+      <c r="K37" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204427/summary</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>204725</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
+        <v>366</v>
+      </c>
+      <c r="J38" t="s">
+        <v>400</v>
+      </c>
+      <c r="K38" s="5">
+        <v>6782899</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204725/summary</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>204765</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>400</v>
+      </c>
+      <c r="K39" s="5">
+        <v>317065080</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204765/summary</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>204836</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" t="s">
+        <v>400</v>
+      </c>
+      <c r="K40" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="L40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204836/summary</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>204867</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+      <c r="J41" t="s">
+        <v>400</v>
+      </c>
+      <c r="K41" s="5">
+        <v>99193930</v>
+      </c>
+      <c r="L41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204867/summary</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>205053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>400</v>
+      </c>
+      <c r="K42" s="5">
+        <v>4900000</v>
+      </c>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205053/summary</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>205103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="L43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205103/summary</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>205109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>400</v>
+      </c>
+      <c r="K44" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205109/summary</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>205121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" s="5">
+        <v>9646279</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205121/summary</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>300049</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>400</v>
+      </c>
+      <c r="K46" s="5">
+        <v>15300000</v>
+      </c>
+      <c r="L46" s="9" t="str">
+        <f t="shared" ref="L46:L92" si="1">HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A46,"/summary"))</f>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300049/summary</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>300100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" s="5">
+        <v>29000000</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300100/summary</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>300111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" t="s">
+        <v>348</v>
+      </c>
+      <c r="J48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K48" s="5">
+        <v>18199769</v>
+      </c>
+      <c r="L48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300111/summary</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>300123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" s="5">
+        <v>40150001</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300123/summary</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>300124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" s="5">
+        <v>24650000</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300124/summary</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>300125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" s="5">
+        <v>38000000</v>
+      </c>
+      <c r="L51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300125/summary</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>300126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F52" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" s="5">
+        <v>102500000</v>
+      </c>
+      <c r="L52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300126/summary</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>300180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" t="s">
+        <v>347</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" s="5">
+        <v>32750000</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300180/summary</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>300294</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" t="s">
+        <v>348</v>
+      </c>
+      <c r="J54" t="s">
+        <v>400</v>
+      </c>
+      <c r="K54" s="5">
+        <v>12923500</v>
+      </c>
+      <c r="L54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300294/summary</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>300341</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" t="s">
+        <v>348</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" s="5">
+        <v>391033790</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300341/summary</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>300342</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J56" t="s">
+        <v>400</v>
+      </c>
+      <c r="K56" s="5">
+        <v>26805635</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300342/summary</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>300343</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>400</v>
+      </c>
+      <c r="K57" s="5">
+        <v>30214869</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300343/summary</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>300346</v>
+      </c>
+      <c r="B58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="s">
+        <v>348</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" s="5">
+        <v>10687612</v>
+      </c>
+      <c r="L58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300346/summary</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>300347</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>348</v>
+      </c>
+      <c r="J59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" s="5">
+        <v>23500000</v>
+      </c>
+      <c r="L59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300347/summary</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>300384</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F60" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" t="s">
+        <v>348</v>
+      </c>
+      <c r="J60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K60" s="5">
+        <v>11250000</v>
+      </c>
+      <c r="L60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300384/summary</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>300405</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E61" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F61" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" t="s">
+        <v>363</v>
+      </c>
+      <c r="J61" t="s">
+        <v>400</v>
+      </c>
+      <c r="K61" s="5">
+        <v>26500000</v>
+      </c>
+      <c r="L61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300405/summary</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>300446</v>
+      </c>
+      <c r="B62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
+        <v>400</v>
+      </c>
+      <c r="K62" s="5">
+        <v>15500000</v>
+      </c>
+      <c r="L62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300446/summary</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>300482</v>
+      </c>
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F63" t="s">
+        <v>209</v>
+      </c>
+      <c r="G63" t="s">
+        <v>378</v>
+      </c>
+      <c r="J63" t="s">
+        <v>400</v>
+      </c>
+      <c r="K63" s="5">
+        <v>38053854</v>
+      </c>
+      <c r="L63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300482/summary</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>300484</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" t="s">
+        <v>347</v>
+      </c>
+      <c r="J64" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" s="5">
+        <v>18099997</v>
+      </c>
+      <c r="L64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300484/summary</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>300504</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" t="s">
+        <v>379</v>
+      </c>
+      <c r="J65" t="s">
+        <v>400</v>
+      </c>
+      <c r="K65" s="5">
+        <v>12600000</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300504/summary</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>300574</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F66" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" t="s">
+        <v>380</v>
+      </c>
+      <c r="J66" t="s">
+        <v>400</v>
+      </c>
+      <c r="K66" s="5">
+        <v>9224743</v>
+      </c>
+      <c r="L66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300574/summary</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>300615</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F67" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" t="s">
+        <v>348</v>
+      </c>
+      <c r="J67" t="s">
+        <v>400</v>
+      </c>
+      <c r="K67" s="5">
+        <v>3505619</v>
+      </c>
+      <c r="L67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300615/summary</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>300632</v>
+      </c>
+      <c r="B68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F68" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" t="s">
+        <v>376</v>
+      </c>
+      <c r="J68" t="s">
+        <v>400</v>
+      </c>
+      <c r="K68" s="5">
+        <v>18535350</v>
+      </c>
+      <c r="L68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300632/summary</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>300644</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
+        <v>382</v>
+      </c>
+      <c r="J69" t="s">
+        <v>400</v>
+      </c>
+      <c r="K69" s="5">
+        <v>37800000</v>
+      </c>
+      <c r="L69" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300644/summary</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>300649</v>
+      </c>
+      <c r="B70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E70" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F70" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" t="s">
+        <v>361</v>
+      </c>
+      <c r="J70" t="s">
+        <v>400</v>
+      </c>
+      <c r="K70" s="5">
+        <v>25828000</v>
+      </c>
+      <c r="L70" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300649/summary</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>300654</v>
+      </c>
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E71" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" t="s">
+        <v>400</v>
+      </c>
+      <c r="K71" s="5">
+        <v>12124941</v>
+      </c>
+      <c r="L71" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300654/summary</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>300655</v>
+      </c>
+      <c r="B72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E72" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" t="s">
+        <v>400</v>
+      </c>
+      <c r="K72" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="L72" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300655/summary</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>300656</v>
+      </c>
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E73" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+      <c r="G73" t="s">
+        <v>347</v>
+      </c>
+      <c r="J73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K73" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="L73" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300656/summary</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>300708</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E74" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F74" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" t="s">
+        <v>347</v>
+      </c>
+      <c r="J74" t="s">
+        <v>400</v>
+      </c>
+      <c r="K74" s="5">
+        <v>49947720</v>
+      </c>
+      <c r="L74" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300708/summary</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>300755</v>
+      </c>
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E75" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F75" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" t="s">
+        <v>387</v>
+      </c>
+      <c r="J75" t="s">
+        <v>400</v>
+      </c>
+      <c r="K75" s="5">
+        <v>16000000</v>
+      </c>
+      <c r="L75" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300755/summary</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>300760</v>
+      </c>
+      <c r="B76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E76" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F76" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76" t="s">
+        <v>347</v>
+      </c>
+      <c r="J76" t="s">
+        <v>400</v>
+      </c>
+      <c r="K76" s="5">
+        <v>35050000</v>
+      </c>
+      <c r="L76" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300760/summary</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>300781</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E77" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F77" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" t="s">
+        <v>377</v>
+      </c>
+      <c r="J77" t="s">
+        <v>400</v>
+      </c>
+      <c r="K77" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="L77" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300781/summary</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>300785</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E78" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F78" t="s">
+        <v>262</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+      <c r="J78" t="s">
+        <v>400</v>
+      </c>
+      <c r="K78" s="5">
+        <v>4985058</v>
+      </c>
+      <c r="L78" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300785/summary</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>300815</v>
+      </c>
+      <c r="B79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E79" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F79" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" t="s">
+        <v>347</v>
+      </c>
+      <c r="J79" t="s">
+        <v>400</v>
+      </c>
+      <c r="K79" s="5">
+        <v>19800000</v>
+      </c>
+      <c r="L79" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300815/summary</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>300849</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E80" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F80" t="s">
+        <v>268</v>
+      </c>
+      <c r="G80" t="s">
+        <v>348</v>
+      </c>
+      <c r="J80" t="s">
+        <v>400</v>
+      </c>
+      <c r="K80" s="5">
+        <v>4900000</v>
+      </c>
+      <c r="L80" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300849/summary</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>300966</v>
+      </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E81" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81" t="s">
+        <v>347</v>
+      </c>
+      <c r="J81" t="s">
+        <v>400</v>
+      </c>
+      <c r="K81" s="5">
+        <v>19266871</v>
+      </c>
+      <c r="L81" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300966/summary</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>301050</v>
+      </c>
+      <c r="B82" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E82" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" t="s">
+        <v>347</v>
+      </c>
+      <c r="J82" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" s="5">
+        <v>4700000</v>
+      </c>
+      <c r="L82" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301050/summary</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>301067</v>
+      </c>
+      <c r="B83" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F83" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" t="s">
+        <v>347</v>
+      </c>
+      <c r="J83" t="s">
+        <v>400</v>
+      </c>
+      <c r="K83" s="5">
+        <v>32850000</v>
+      </c>
+      <c r="L83" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301067/summary</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>301108</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F84" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" t="s">
+        <v>391</v>
+      </c>
+      <c r="J84" t="s">
+        <v>400</v>
+      </c>
+      <c r="K84" s="5">
+        <v>9400000</v>
+      </c>
+      <c r="L84" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301108/summary</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>301132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E85" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F85" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" t="s">
+        <v>397</v>
+      </c>
+      <c r="J85" t="s">
+        <v>400</v>
+      </c>
+      <c r="K85" s="5">
+        <v>7972870</v>
+      </c>
+      <c r="L85" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301132/summary</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>301135</v>
+      </c>
+      <c r="B86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
+      <c r="G86" t="s">
+        <v>365</v>
+      </c>
+      <c r="J86" t="s">
+        <v>400</v>
+      </c>
+      <c r="K86" s="5">
+        <v>7953129</v>
+      </c>
+      <c r="L86" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301135/summary</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>301136</v>
+      </c>
+      <c r="B87" t="s">
+        <v>292</v>
+      </c>
+      <c r="D87" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E87" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F87" t="s">
+        <v>293</v>
+      </c>
+      <c r="G87" t="s">
+        <v>396</v>
+      </c>
+      <c r="J87" t="s">
+        <v>400</v>
+      </c>
+      <c r="K87" s="5">
+        <v>8000000</v>
+      </c>
+      <c r="L87" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301136/summary</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>301138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E88" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F88" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" t="s">
+        <v>370</v>
+      </c>
+      <c r="J88" t="s">
+        <v>400</v>
+      </c>
+      <c r="K88" s="5">
+        <v>7903834</v>
+      </c>
+      <c r="L88" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301138/summary</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>301139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E89" s="8">
+        <v>2026</v>
+      </c>
+      <c r="F89" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" t="s">
+        <v>398</v>
+      </c>
+      <c r="J89" t="s">
+        <v>400</v>
+      </c>
+      <c r="K89" s="5">
+        <v>7812831</v>
+      </c>
+      <c r="L89" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301139/summary</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>301263</v>
+      </c>
+      <c r="B90" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F90" t="s">
+        <v>302</v>
+      </c>
+      <c r="G90" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" t="s">
+        <v>400</v>
+      </c>
+      <c r="K90" s="5">
+        <v>19000000</v>
+      </c>
+      <c r="L90" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301263/summary</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>301290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E91" s="8">
+        <v>2024</v>
+      </c>
+      <c r="F91" t="s">
+        <v>305</v>
+      </c>
+      <c r="G91" t="s">
+        <v>347</v>
+      </c>
+      <c r="J91" t="s">
+        <v>400</v>
+      </c>
+      <c r="K91" s="5">
+        <v>4790000</v>
+      </c>
+      <c r="L91" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301290/summary</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>301291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E92" s="8">
+        <v>2025</v>
+      </c>
+      <c r="F92" t="s">
+        <v>307</v>
+      </c>
+      <c r="G92" t="s">
+        <v>347</v>
+      </c>
+      <c r="J92" t="s">
+        <v>400</v>
+      </c>
+      <c r="K92" s="5">
+        <v>10739851</v>
+      </c>
+      <c r="L92" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301291/summary</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
+++ b/Inputs/FCDO core contribution programmes (with beneficiary countries).xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-clegg\Documents\GitHub projects\ODA_research_and_innovation\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\My Documents\GitHub\ODA_research_and_innovation\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070E39C3-B5FA-4896-9E25-FB4E27AA2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43183D6B-D4AA-42DF-B398-F5598F6E724E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCDO core contribution projects" sheetId="4" r:id="rId1"/>
     <sheet name="RED geotagging (from AMP)" sheetId="6" r:id="rId2"/>
-    <sheet name="RED geotagging (from AMP) (2)" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCDO core contribution projects'!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCDO core contribution projects'!$A$1:$C$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RED geotagging (from AMP)'!$A$1:$I$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RED geotagging (from AMP) (2)'!$A$1:$L$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="367">
   <si>
     <t>KENYA,MOZAMBIQUE,PAKISTAN,SIERRA LEONE,TUVALU</t>
   </si>
@@ -1080,180 +1078,6 @@
     <t>GB-1-203052-104</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>This Programme Supports A Global Public Good</t>
-  </si>
-  <si>
-    <t>This Programme Supports A Regional Public Good</t>
-  </si>
-  <si>
-    <t>Kenya,Tanzania,Ghana,Nigeria,Rwanda,South Africa</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Ethiopia,Bangladesh,Mozambique,Malawi,Pakistan</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Nigeria,Zambia,Senegal,Viet Nam,Indonesia</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Rwanda,Pakistan,Sierra Leone,Nepal,India,Afghanistan,Bhutan,Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Kenya,Mozambique,Pakistan,Sierra Leone,Tuvalu</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Mozambique,Zambia,Malawi,Zimbabwe,Drc,South Africa</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Zambia,Malawi,Rwanda,Pakistan,Sierra Leone,Nepal,Zimbabwe,Drc,Afghanistan,South Sudan,Senegal,Somalia,Sudan (The),Mali,Niger (The),Benin,Burkina Faso,Burundi,Cameroon,Chad,Côte D’Ivoire,Gambia (The),Jordan,Lebanon,Mauritania,Togo,Viet Nam</t>
-  </si>
-  <si>
-    <t>Nigeria,Pakistan,Afghanistan,South Sudan,Myanmar,Somalia,Sudan (The),Iran (Islamic Republic Of),Iraq,Syrian Arab Republic,Yemen,Egypt,Libyan Arab Jamahiriya,Chad,Tunisia,Algeria</t>
-  </si>
-  <si>
-    <t>Ethiopia,Bangladesh,Rwanda,Nepal,Jordan,Lebanon</t>
-  </si>
-  <si>
-    <t>Ethiopia,Bangladesh,Zambia,Malawi,Nepal</t>
-  </si>
-  <si>
-    <t>Tanzania,Ethiopia,Bangladesh,Nigeria,Mozambique,India,Myanmar,Madagascar</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Ethiopia,Bangladesh,Nigeria</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ghana,Nigeria,Zambia,Malawi,Zimbabwe,Drc,South Africa,Senegal,Botswana,Burkina Faso,Cameroon,Gabon,Mauritius,Namibia,Congo (The)</t>
-  </si>
-  <si>
-    <t>Nigeria,South Sudan,Myanmar,Syrian Arab Republic,Jordan,Lebanon</t>
-  </si>
-  <si>
-    <t>Nigeria,Mozambique,Pakistan,Myanmar</t>
-  </si>
-  <si>
-    <t>Nigeria,Drc,South Sudan,Somalia</t>
-  </si>
-  <si>
-    <t>Kenya,Tanzania,Ethiopia,Ghana,Mozambique,Malawi,Zimbabwe</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Ethiopia,Bangladesh,Ghana,Nigeria,Zambia,Rwanda,Pakistan,Nepal,India,Myanmar,Sudan (The),Egypt,Philippines (The)</t>
-  </si>
-  <si>
-    <t>Kenya,Tanzania,Ethiopia,Nigeria,Mozambique,Malawi,Rwanda,Pakistan,Nepal,India,South Africa,Senegal,Guinea-Bissau,Iraq,Liberia,Nicaragua,Tunisia</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Mozambique,Zambia,Malawi,Rwanda,Sierra Leone,Drc,South Africa,South Sudan,Somalia,Niger (The),Côte D’Ivoire,Benin,Burkina Faso,Cameroon,Central African Republic (The),Guinea,Liberia,Madagascar,Mauritania,Congo (The),Togo</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Nigeria,Malawi</t>
-  </si>
-  <si>
-    <t>Bangladesh,Pakistan,Nepal,India,Afghanistan,Myanmar</t>
-  </si>
-  <si>
-    <t>Ethiopia,Pakistan,Jamaica,Liberia</t>
-  </si>
-  <si>
-    <t>United Kingdom Of Great Britain And Northern Ireland (The)</t>
-  </si>
-  <si>
-    <t>Tanzania,Ethiopia,Nigeria,Pakistan,India,Indonesia,Viet Nam</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Malawi,Nepal,India,Niger (The),Burkina Faso,Guinea,Indonesia,Viet Nam</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Zambia,Rwanda</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Ghana,Nigeria,Rwanda</t>
-  </si>
-  <si>
-    <t>Ethiopia,Drc,South Sudan,Sudan (The),Lebanon,Iraq,Syrian Arab Republic,Switzerland,Indonesia,United States Of America (The)</t>
-  </si>
-  <si>
-    <t>Kenya,Tanzania,Ghana,Nepal,Senegal,Côte D’Ivoire</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Nigeria,Malawi,Sierra Leone,South Sudan</t>
-  </si>
-  <si>
-    <t>This Is A Multi-Lateral Programme Which Is Core Funded</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Mozambique,Zambia,Malawi,Rwanda,Pakistan,Nepal,India,Drc,South Africa,Afghanistan,Myanmar,Somalia,Benin,Brazil,Burkina Faso,Burundi,Cambodia,Côte D’Ivoire,Indonesia,Lao Peoples Democratic Republic (The),Madagascar,Mauritius,Nicaragua,Sri Lanka,Tajikistan,Thailand,Viet Nam</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Ethiopia,Nigeria,South Sudan,Somalia,Sudan (The),Mali,Niger (The),Burkina Faso,Chad,Eritrea,Mauritania,Syrian Arab Republic,Yemen</t>
-  </si>
-  <si>
-    <t>Kenya,Ethiopia,Ghana,Nigeria,Mozambique,Malawi,Rwanda,Sierra Leone,Drc,Benin,Burkina Faso,Cameroon,Côte D’Ivoire,Gabon,Togo</t>
-  </si>
-  <si>
-    <t>Kenya,Ethiopia,Bangladesh,Pakistan,Nepal,India</t>
-  </si>
-  <si>
-    <t>Tanzania,Ethiopia,Ghana,Rwanda,Pakistan,Sierra Leone,South Sudan,Lebanon,Kiribati</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Bangladesh,Nigeria,Zambia,Rwanda,Pakistan</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Ethiopia,India,Viet Nam,Peru</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Tanzania,Ethiopia,Bangladesh,Ghana,Nigeria,Malawi,Pakistan,Sierra Leone,India,Zimbabwe,South Africa,South Sudan,Somalia,Sudan (The),Philippines (The),Lebanon,Morocco,Mongolia,Indonesia,Cambodia,Liberia,Thailand</t>
-  </si>
-  <si>
-    <t>Sierra Leone,Nepal,Myanmar,United Kingdom Of Great Britain And Northern Ireland (The),Lebanon</t>
-  </si>
-  <si>
-    <t>Uganda,Tanzania,Bangladesh,Nigeria,Malawi,Tajikistan,Mongolia,Uzbekistan,Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Kenya,Uganda,Bangladesh,Nigeria,Zambia,Rwanda,Pakistan,Côte D’Ivoire</t>
-  </si>
-  <si>
-    <t>Uganda,Ethiopia</t>
-  </si>
-  <si>
-    <t>Bangladesh,Ghana,Nigeria,Nepal</t>
-  </si>
-  <si>
-    <t>Tanzania,Benin,Côte D’Ivoire,Cameroon</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>GB-GOV-1-300552</t>
   </si>
   <si>
@@ -1261,6 +1085,57 @@
   </si>
   <si>
     <t>GB-GOV-1-300343</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300124-103</t>
+  </si>
+  <si>
+    <t>SMEP - UNCTAD Technical Assistance</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300384</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300342-103</t>
+  </si>
+  <si>
+    <t>Coalition for Neglected Tropical Diseases (COR-NTD) Programme to Identify and Fund NTD Priorities around Gender, Social Science and Economic Impact</t>
+  </si>
+  <si>
+    <t>International Partnership for Microbicides (IPM) 2017-2022 for the development of women-controlled HIV prevention technologies through the organisation.</t>
+  </si>
+  <si>
+    <t>Foundation for Innovative New Diagnostics (FIND) 2017-2021for the development of new diagnostic testing for epidemic diseases, diseases with emerging resistance and neglected diseases</t>
+  </si>
+  <si>
+    <t>Drugs for Neglected Diseases initiative (DNDi) 2017-2021 for the development of new effective treatments for neglected diseases and diseases with emerging resistance</t>
+  </si>
+  <si>
+    <t>Medicines for Malaria Venture (MMV) – 2017-2021for the development of new anti-malarial medicines</t>
+  </si>
+  <si>
+    <t>Innovative Vector Control Consortium (IVCC) 2017-2021 for the development of new insecticides to control insects that carry malaria, diseases of epidemic potential and some neglected tropical diseases</t>
+  </si>
+  <si>
+    <t>Global Alliance for TB Drug Development (TB Alliance) 2017-2021 to fund the development of new, safe and effective drugs for tuberculosis</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-101</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-102</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-103</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-104</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-105</t>
+  </si>
+  <si>
+    <t>GB-GOV-1-300341-106</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1146,7 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,13 +1266,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1583,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1698,23 +1566,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1757,9 +1610,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1772,11 +1624,8 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1810,7 +1659,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1853,9 +1701,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1863,14 +1724,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2184,20 +2037,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F4EA4-DC3A-4C1B-81EE-634021F720DA}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.58203125" customWidth="1"/>
-    <col min="2" max="2" width="87.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="87.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>319</v>
       </c>
@@ -2227,7 +2078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2235,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -2243,7 +2094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -2254,7 +2105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -2276,7 +2127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -2287,7 +2138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2295,7 +2146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -2306,7 +2157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>339</v>
       </c>
@@ -2314,7 +2165,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -2336,7 +2187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2347,7 +2198,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -2358,7 +2209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2366,7 +2217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -2377,7 +2228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2396,7 +2247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -2415,7 +2266,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -2426,7 +2277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2448,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -2459,7 +2310,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -2467,7 +2318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>342</v>
       </c>
@@ -2475,208 +2326,286 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>309</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C44" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>335</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>313</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B48" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>336</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C51" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>337</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C52" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>324</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C53" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>325</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C55" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>311</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C46" xr:uid="{97E336E5-A533-4260-8E56-96E4AAD413F4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
-      <sortCondition ref="A1:A46"/>
+  <autoFilter ref="A1:C56" xr:uid="{E4E0E211-F7E8-42FB-8134-807B3BAC66DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
+      <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Columbia"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Columbia">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Columbia">
       <formula>NOT(ISERROR(SEARCH("Columbia",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A57:A1048576 A1:A27">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A33 A43:A56">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A42">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2690,21 +2619,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A274C2EA-44BD-4C0C-A095-E8879E667E76}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="55.4140625" customWidth="1"/>
+    <col min="2" max="2" width="55.375" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="40.08203125" customWidth="1"/>
-    <col min="5" max="6" width="18.58203125" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="37.125" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2733,7 +2660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200574</v>
       </c>
@@ -2759,7 +2686,7 @@
         <v>15678567</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>201267</v>
       </c>
@@ -2788,7 +2715,7 @@
         <v>60200023.200000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>201879</v>
       </c>
@@ -2814,7 +2741,7 @@
         <v>24108119.600000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>201880</v>
       </c>
@@ -2843,36 +2770,36 @@
         <v>15484470</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>300704</v>
+        <v>202568</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4">
-        <v>43556</v>
+        <v>40695</v>
       </c>
       <c r="F6" s="4">
         <v>45747</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="H6" s="5">
-        <v>32207530</v>
+        <v>24600000</v>
       </c>
       <c r="I6" s="6">
-        <v>1729643.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12461864.199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>202749</v>
       </c>
@@ -2901,7 +2828,7 @@
         <v>11736364.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>202766</v>
       </c>
@@ -2930,7 +2857,7 @@
         <v>5506031.7999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202835</v>
       </c>
@@ -2959,7 +2886,7 @@
         <v>22713800.899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>202960</v>
       </c>
@@ -2988,65 +2915,65 @@
         <v>17210000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>203052</v>
+        <v>203041</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
-        <v>40891</v>
+        <v>41214</v>
       </c>
       <c r="F11" s="4">
-        <v>47208</v>
+        <v>44742</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5">
-        <v>31131042</v>
+        <v>15376244</v>
       </c>
       <c r="I11" s="6">
-        <v>24057052.800000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14783100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>204773</v>
+        <v>203050</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="4">
-        <v>42522</v>
+        <v>41275</v>
       </c>
       <c r="F12" s="4">
-        <v>44834</v>
+        <v>45107</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5">
-        <v>15500000</v>
+        <v>19761356</v>
       </c>
       <c r="I12" s="6">
-        <v>11146113.300000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19701355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>203051</v>
       </c>
@@ -3075,36 +3002,36 @@
         <v>14274938.800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>204153</v>
+        <v>203052</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4">
-        <v>42064</v>
+        <v>40891</v>
       </c>
       <c r="F14" s="4">
-        <v>45747</v>
+        <v>47208</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H14" s="5">
-        <v>22300000</v>
+        <v>31131042</v>
       </c>
       <c r="I14" s="6">
-        <v>15686534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24057052.800000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>203067</v>
       </c>
@@ -3133,65 +3060,65 @@
         <v>12287517.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>204764</v>
+        <v>203089</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4">
-        <v>43066</v>
+        <v>41456</v>
       </c>
       <c r="F16" s="4">
-        <v>45046</v>
+        <v>44500</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H16" s="5">
-        <v>139261429</v>
+        <v>11333974</v>
       </c>
       <c r="I16" s="6">
-        <v>139114489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9904337.3000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>300100</v>
+        <v>203212</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4">
-        <v>43009</v>
+        <v>41000</v>
       </c>
       <c r="F17" s="4">
-        <v>45747</v>
+        <v>44651</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H17" s="5">
-        <v>29000000</v>
+        <v>9800000</v>
       </c>
       <c r="I17" s="6">
-        <v>7502239.7000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8900000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>203529</v>
       </c>
@@ -3220,7 +3147,7 @@
         <v>19957172.100000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>203569</v>
       </c>
@@ -3249,7 +3176,7 @@
         <v>5748956.4000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>203752</v>
       </c>
@@ -3278,7 +3205,7 @@
         <v>13199472.699999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>203804</v>
       </c>
@@ -3307,7 +3234,7 @@
         <v>50566292.700000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>203835</v>
       </c>
@@ -3336,7 +3263,7 @@
         <v>19118231.600000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>203844</v>
       </c>
@@ -3365,239 +3292,239 @@
         <v>7779152.4000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>204836</v>
+        <v>203933</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E24" s="4">
-        <v>43009</v>
+        <v>41000</v>
       </c>
       <c r="F24" s="4">
-        <v>46445</v>
+        <v>45534</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5">
-        <v>12000000</v>
+        <v>29904657</v>
       </c>
       <c r="I24" s="6">
-        <v>1574613.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27196950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>203933</v>
+        <v>204133</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="F25" s="4">
-        <v>45534</v>
+        <v>44651</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="5">
-        <v>29904657</v>
+        <v>3103308</v>
       </c>
       <c r="I25" s="6">
-        <v>27196950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1915865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>204133</v>
+        <v>204153</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4">
-        <v>41365</v>
+        <v>42064</v>
       </c>
       <c r="F26" s="4">
-        <v>44651</v>
+        <v>45747</v>
       </c>
       <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>22300000</v>
+      </c>
+      <c r="I26" s="6">
+        <v>15686534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>204291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41670</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44650</v>
+      </c>
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="5">
-        <v>3103308</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1915865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>300649</v>
-      </c>
-      <c r="B27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="4">
-        <v>43556</v>
-      </c>
-      <c r="F27" s="4">
-        <v>44651</v>
-      </c>
-      <c r="G27" t="s">
-        <v>230</v>
-      </c>
       <c r="H27" s="5">
-        <v>25828000</v>
+        <v>4914002</v>
       </c>
       <c r="I27" s="6">
-        <v>25678000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4278920.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>204291</v>
+        <v>204322</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="4">
-        <v>41670</v>
+        <v>41730</v>
       </c>
       <c r="F28" s="4">
-        <v>44650</v>
+        <v>45746</v>
       </c>
       <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="5">
+        <v>37660852</v>
+      </c>
+      <c r="I28" s="6">
+        <v>28199097.699999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>204324</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="4">
+        <v>41649</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45747</v>
+      </c>
+      <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="5">
-        <v>4914002</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4278920.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>203041</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="4">
-        <v>41214</v>
-      </c>
-      <c r="F29" s="4">
-        <v>44742</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
       <c r="H29" s="5">
-        <v>15376244</v>
+        <v>15000000</v>
       </c>
       <c r="I29" s="6">
-        <v>14783100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12858249.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>204324</v>
+        <v>204415</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E30" s="4">
-        <v>41649</v>
+        <v>41730</v>
       </c>
       <c r="F30" s="4">
         <v>45747</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5">
-        <v>15000000</v>
+        <v>40150002</v>
       </c>
       <c r="I30" s="6">
-        <v>12858249.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20362597.199999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>300405</v>
+        <v>204420</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4">
-        <v>42917</v>
+        <v>41821</v>
       </c>
       <c r="F31" s="4">
-        <v>46295</v>
+        <v>45747</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="H31" s="5">
-        <v>26500000</v>
+        <v>35000000</v>
       </c>
       <c r="I31" s="6">
-        <v>619341.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18916870.100000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>204427</v>
       </c>
@@ -3626,94 +3553,94 @@
         <v>6232123.0999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>301135</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>204653</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E33" s="4">
-        <v>43891</v>
+        <v>41715</v>
       </c>
       <c r="F33" s="4">
-        <v>46142</v>
+        <v>43830</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="H33" s="5">
-        <v>7953129</v>
+        <v>2000000</v>
       </c>
       <c r="I33" s="6">
-        <v>111034.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>204653</v>
+        <v>1959860.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>204725</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E34" s="4">
-        <v>41715</v>
+        <v>41883</v>
       </c>
       <c r="F34" s="4">
-        <v>43830</v>
+        <v>44620</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H34" s="5">
-        <v>2000000</v>
+        <v>6782899</v>
       </c>
       <c r="I34" s="6">
-        <v>1959860.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6211834.2000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>204725</v>
+        <v>204764</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
       </c>
       <c r="E35" s="4">
-        <v>41883</v>
+        <v>43066</v>
       </c>
       <c r="F35" s="4">
-        <v>44620</v>
+        <v>45046</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5">
-        <v>6782899</v>
+        <v>139261429</v>
       </c>
       <c r="I35" s="6">
-        <v>6211834.2000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>139114489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>204765</v>
       </c>
@@ -3742,123 +3669,123 @@
         <v>281590118.60000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>202568</v>
+        <v>204773</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
-        <v>40695</v>
+        <v>42522</v>
       </c>
       <c r="F37" s="4">
-        <v>45747</v>
+        <v>44834</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="H37" s="5">
-        <v>24600000</v>
+        <v>15500000</v>
       </c>
       <c r="I37" s="6">
-        <v>12461864.199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11146113.300000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>204836</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43009</v>
+      </c>
+      <c r="F38" s="4">
+        <v>46445</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1574613.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>204867</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42270</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45382</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="5">
+        <v>99193930</v>
+      </c>
+      <c r="I39" s="6">
+        <v>76891056.900000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>204931</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>152</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <v>42370</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="4">
         <v>45291</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H40" s="5">
         <v>12250000</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I40" s="6">
         <v>11099855</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>203050</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4">
-        <v>41275</v>
-      </c>
-      <c r="F39" s="4">
-        <v>45107</v>
-      </c>
-      <c r="G39" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="5">
-        <v>19761356</v>
-      </c>
-      <c r="I39" s="6">
-        <v>19701355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>301138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="4">
-        <v>43891</v>
-      </c>
-      <c r="F40" s="4">
-        <v>46142</v>
-      </c>
-      <c r="G40" t="s">
-        <v>297</v>
-      </c>
-      <c r="H40" s="5">
-        <v>7903834</v>
-      </c>
-      <c r="I40" s="6">
-        <v>956166.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>205053</v>
       </c>
@@ -3887,7 +3814,7 @@
         <v>4544146</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>205103</v>
       </c>
@@ -3916,7 +3843,7 @@
         <v>4961891.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>205109</v>
       </c>
@@ -3945,7 +3872,7 @@
         <v>3759425.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>205121</v>
       </c>
@@ -3971,131 +3898,131 @@
         <v>8293978.7000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>203089</v>
+        <v>205271</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E45" s="4">
-        <v>41456</v>
+        <v>42583</v>
       </c>
       <c r="F45" s="4">
-        <v>44500</v>
+        <v>45199</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="H45" s="5">
-        <v>11333974</v>
+        <v>44925736</v>
       </c>
       <c r="I45" s="6">
-        <v>9904337.3000000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41125249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>205288</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="4">
+        <v>42425</v>
+      </c>
+      <c r="F46" s="4">
+        <v>46554</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="5">
+        <v>36297928</v>
+      </c>
+      <c r="I46" s="6">
+        <v>10566684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>300049</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>167</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>168</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>42614</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>45382</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H47" s="5">
         <v>15300000</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="6">
         <v>9887920.5999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>204322</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="4">
-        <v>41730</v>
-      </c>
-      <c r="F47" s="4">
-        <v>45746</v>
-      </c>
-      <c r="G47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="5">
-        <v>37660852</v>
-      </c>
-      <c r="I47" s="6">
-        <v>28199097.699999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>300100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43009</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45747</v>
+      </c>
+      <c r="G48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" s="5">
+        <v>29000000</v>
+      </c>
+      <c r="I48" s="6">
+        <v>7502239.7000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>300111</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>173</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>174</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="4">
-        <v>42485</v>
-      </c>
-      <c r="F48" s="4">
-        <v>44865</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="5">
-        <v>18199769</v>
-      </c>
-      <c r="I48" s="6">
-        <v>15624119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>300123</v>
-      </c>
-      <c r="B49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" t="s">
-        <v>176</v>
       </c>
       <c r="D49" t="s">
         <v>53</v>
@@ -4104,184 +4031,184 @@
         <v>42485</v>
       </c>
       <c r="F49" s="4">
-        <v>45199</v>
+        <v>44865</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>
       </c>
       <c r="H49" s="5">
-        <v>40150001</v>
+        <v>18199769</v>
       </c>
       <c r="I49" s="6">
-        <v>15828676.300000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15624119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>300124</v>
+        <v>300123</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="4">
-        <v>42826</v>
+        <v>42485</v>
       </c>
       <c r="F50" s="4">
-        <v>45626</v>
+        <v>45199</v>
       </c>
       <c r="G50" t="s">
         <v>50</v>
       </c>
       <c r="H50" s="5">
+        <v>40150001</v>
+      </c>
+      <c r="I50" s="6">
+        <v>15828676.300000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>300124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="4">
+        <v>42826</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45626</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="5">
         <v>24650000</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>1758681.7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>300125</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>179</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>180</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <v>43709</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>45747</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H52" s="5">
         <v>38000000</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="6">
         <v>4113266.7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>300126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>181</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>182</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>43457</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>46477</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H53" s="5">
         <v>102500000</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I53" s="6">
         <v>9916381.6999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>300180</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>184</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>185</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>43313</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>46295</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H54" s="5">
         <v>32750000</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>809778.6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>204420</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="4">
-        <v>41821</v>
-      </c>
-      <c r="F54" s="4">
-        <v>45747</v>
-      </c>
-      <c r="G54" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="5">
-        <v>35000000</v>
-      </c>
-      <c r="I54" s="6">
-        <v>18916870.100000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>300632</v>
+        <v>300211</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="E55" s="4">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="F55" s="4">
-        <v>45746</v>
+        <v>45382</v>
       </c>
       <c r="G55" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="H55" s="5">
-        <v>18535350</v>
+        <v>13300000</v>
       </c>
       <c r="I55" s="6">
-        <v>6940534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4306194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>300294</v>
       </c>
@@ -4310,7 +4237,7 @@
         <v>11948500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>300341</v>
       </c>
@@ -4339,7 +4266,7 @@
         <v>377489579.80000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>300342</v>
       </c>
@@ -4365,7 +4292,7 @@
         <v>21448728.199999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>300343</v>
       </c>
@@ -4391,7 +4318,7 @@
         <v>22214869</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>300346</v>
       </c>
@@ -4420,7 +4347,7 @@
         <v>5197310.4000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>300347</v>
       </c>
@@ -4449,7 +4376,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>300384</v>
       </c>
@@ -4478,36 +4405,36 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>300781</v>
+        <v>300405</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="E63" s="4">
-        <v>43431</v>
+        <v>42917</v>
       </c>
       <c r="F63" s="4">
-        <v>45747</v>
+        <v>46295</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="H63" s="5">
-        <v>20000000</v>
+        <v>26500000</v>
       </c>
       <c r="I63" s="6">
-        <v>1397116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>619341.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>300446</v>
       </c>
@@ -4533,7 +4460,7 @@
         <v>11467782.699999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>300482</v>
       </c>
@@ -4562,7 +4489,7 @@
         <v>9015201.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>300484</v>
       </c>
@@ -4588,7 +4515,7 @@
         <v>3740328</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>300504</v>
       </c>
@@ -4617,7 +4544,7 @@
         <v>7786167</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>300574</v>
       </c>
@@ -4646,7 +4573,7 @@
         <v>3906211</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>300615</v>
       </c>
@@ -4675,36 +4602,36 @@
         <v>393186.1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>301134</v>
+        <v>300632</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E70" s="4">
-        <v>43891</v>
+        <v>43556</v>
       </c>
       <c r="F70" s="4">
-        <v>46142</v>
+        <v>45746</v>
       </c>
       <c r="G70" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="H70" s="5">
-        <v>6941624</v>
+        <v>18535350</v>
       </c>
       <c r="I70" s="6">
-        <v>957250.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6940534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>300644</v>
       </c>
@@ -4733,36 +4660,36 @@
         <v>7714532.0999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>205271</v>
+        <v>300649</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
         <v>46</v>
       </c>
       <c r="E72" s="4">
-        <v>42583</v>
+        <v>43556</v>
       </c>
       <c r="F72" s="4">
-        <v>45199</v>
+        <v>44651</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H72" s="5">
-        <v>44925736</v>
+        <v>25828000</v>
       </c>
       <c r="I72" s="6">
-        <v>41125249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>25678000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>300654</v>
       </c>
@@ -4791,7 +4718,7 @@
         <v>2103363.2999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>300655</v>
       </c>
@@ -4820,7 +4747,7 @@
         <v>3056192.1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>300656</v>
       </c>
@@ -4846,36 +4773,36 @@
         <v>1666092.8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>300728</v>
+        <v>300704</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="E76" s="4">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="F76" s="4">
-        <v>45473</v>
+        <v>45747</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H76" s="5">
-        <v>38000000</v>
+        <v>32207530</v>
       </c>
       <c r="I76" s="6">
-        <v>6357872.0999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1729643.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>300708</v>
       </c>
@@ -4901,36 +4828,36 @@
         <v>4691326.2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>300211</v>
+        <v>300728</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E78" s="4">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="F78" s="4">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="H78" s="5">
-        <v>13300000</v>
+        <v>38000000</v>
       </c>
       <c r="I78" s="6">
-        <v>4306194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6357872.0999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>300755</v>
       </c>
@@ -4959,7 +4886,7 @@
         <v>5603072.2999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>300760</v>
       </c>
@@ -4982,7 +4909,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>300769</v>
       </c>
@@ -5011,36 +4938,36 @@
         <v>547195</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>204867</v>
+        <v>300781</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="E82" s="4">
-        <v>42270</v>
+        <v>43431</v>
       </c>
       <c r="F82" s="4">
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="G82" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="H82" s="5">
-        <v>99193930</v>
+        <v>20000000</v>
       </c>
       <c r="I82" s="6">
-        <v>76891056.900000006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1397116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>300785</v>
       </c>
@@ -5069,7 +4996,7 @@
         <v>1631848.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>300815</v>
       </c>
@@ -5095,7 +5022,7 @@
         <v>12633595.9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>300849</v>
       </c>
@@ -5124,7 +5051,7 @@
         <v>1079504.6000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>300966</v>
       </c>
@@ -5150,7 +5077,7 @@
         <v>6445497</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>301050</v>
       </c>
@@ -5173,7 +5100,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>301067</v>
       </c>
@@ -5196,7 +5123,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>301108</v>
       </c>
@@ -5225,36 +5152,36 @@
         <v>2833458.1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>205288</v>
+        <v>301132</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E90" s="4">
-        <v>42425</v>
+        <v>43891</v>
       </c>
       <c r="F90" s="4">
-        <v>46554</v>
+        <v>46142</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="H90" s="5">
-        <v>36297928</v>
+        <v>7972870</v>
       </c>
       <c r="I90" s="6">
-        <v>10566684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>833464.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>301133</v>
       </c>
@@ -5283,65 +5210,65 @@
         <v>928203.3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>203212</v>
+        <v>301134</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E92" s="4">
-        <v>41000</v>
+        <v>43891</v>
       </c>
       <c r="F92" s="4">
-        <v>44651</v>
+        <v>46142</v>
       </c>
       <c r="G92" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="H92" s="5">
-        <v>9800000</v>
+        <v>6941624</v>
       </c>
       <c r="I92" s="6">
-        <v>8900000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>957250.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>204415</v>
+        <v>301135</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="E93" s="4">
-        <v>41730</v>
+        <v>43891</v>
       </c>
       <c r="F93" s="4">
-        <v>45747</v>
+        <v>46142</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="H93" s="5">
-        <v>40150002</v>
+        <v>7953129</v>
       </c>
       <c r="I93" s="6">
-        <v>20362597.199999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111034.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>301136</v>
       </c>
@@ -5370,15 +5297,15 @@
         <v>167296.29999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>301132</v>
+        <v>301138</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
         <v>49</v>
@@ -5390,16 +5317,16 @@
         <v>46142</v>
       </c>
       <c r="G95" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H95" s="5">
-        <v>7972870</v>
+        <v>7903834</v>
       </c>
       <c r="I95" s="6">
-        <v>833464.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>956166.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>301139</v>
       </c>
@@ -5428,7 +5355,7 @@
         <v>781523.6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>301263</v>
       </c>
@@ -5454,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>301290</v>
       </c>
@@ -5474,7 +5401,7 @@
         <v>4790000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>301291</v>
       </c>
@@ -5501,2809 +5428,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SOUTH AFRICA">
-      <formula>NOT(ISERROR(SEARCH("SOUTH AFRICA",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83534B1A-76F9-4460-918B-21DF3189CA9D}">
-  <dimension ref="A1:L92"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="45.9140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="18.58203125" customWidth="1"/>
-    <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>203050</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K2" s="5">
-        <v>19761356</v>
-      </c>
-      <c r="L2" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A2,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203050/summary</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>205288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2027</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K3" s="5">
-        <v>36297928</v>
-      </c>
-      <c r="L3" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A3,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205288/summary</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>203051</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K4" s="5">
-        <v>14994000</v>
-      </c>
-      <c r="L4" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A4,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203051/summary</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>204764</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J5" t="s">
-        <v>400</v>
-      </c>
-      <c r="K5" s="5">
-        <v>139261429</v>
-      </c>
-      <c r="L5" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A5,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204764/summary</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>204773</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" t="s">
-        <v>400</v>
-      </c>
-      <c r="K6" s="5">
-        <v>15500000</v>
-      </c>
-      <c r="L6" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A6,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204773/summary</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>300728</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" t="s">
-        <v>386</v>
-      </c>
-      <c r="J7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K7" s="5">
-        <v>38000000</v>
-      </c>
-      <c r="L7" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A7,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300728/summary</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>300769</v>
-      </c>
-      <c r="B8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" t="s">
-        <v>388</v>
-      </c>
-      <c r="J8" t="s">
-        <v>400</v>
-      </c>
-      <c r="K8" s="5">
-        <v>20500000</v>
-      </c>
-      <c r="L8" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A8,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300769/summary</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>301133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" t="s">
-        <v>400</v>
-      </c>
-      <c r="K9" s="5">
-        <v>7682213</v>
-      </c>
-      <c r="L9" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A9,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301133/summary</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>301134</v>
-      </c>
-      <c r="B10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" t="s">
-        <v>381</v>
-      </c>
-      <c r="J10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K10" s="5">
-        <v>6941624</v>
-      </c>
-      <c r="L10" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A10,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301134/summary</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>300704</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J11" t="s">
-        <v>400</v>
-      </c>
-      <c r="K11" s="5">
-        <v>32207530</v>
-      </c>
-      <c r="L11" s="9" t="str">
-        <f>HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A11,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300704/summary</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>204153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>355</v>
-      </c>
-      <c r="J12" t="s">
-        <v>400</v>
-      </c>
-      <c r="K12" s="5">
-        <v>22300000</v>
-      </c>
-      <c r="L12" s="9" t="str">
-        <f t="shared" ref="L12:L45" si="0">HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-1-",A12,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204153/summary</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>203041</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>362</v>
-      </c>
-      <c r="J13" t="s">
-        <v>400</v>
-      </c>
-      <c r="K13" s="5">
-        <v>15376244</v>
-      </c>
-      <c r="L13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203041/summary</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>204931</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" t="s">
-        <v>368</v>
-      </c>
-      <c r="J14" t="s">
-        <v>400</v>
-      </c>
-      <c r="K14" s="5">
-        <v>12250000</v>
-      </c>
-      <c r="L14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204931/summary</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>205271</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="s">
-        <v>383</v>
-      </c>
-      <c r="J15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K15" s="5">
-        <v>44925736</v>
-      </c>
-      <c r="L15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205271/summary</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>200574</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K16" s="5">
-        <v>17162788</v>
-      </c>
-      <c r="L16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-200574/summary</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>201267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2027</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>348</v>
-      </c>
-      <c r="J17" t="s">
-        <v>400</v>
-      </c>
-      <c r="K17" s="5">
-        <v>77000000</v>
-      </c>
-      <c r="L17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201267/summary</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>201879</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s">
-        <v>347</v>
-      </c>
-      <c r="J18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K18" s="5">
-        <v>40501000</v>
-      </c>
-      <c r="L18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201879/summary</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>201880</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>349</v>
-      </c>
-      <c r="J19" t="s">
-        <v>400</v>
-      </c>
-      <c r="K19" s="5">
-        <v>22500000</v>
-      </c>
-      <c r="L19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-201880/summary</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>202568</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>367</v>
-      </c>
-      <c r="J20" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="5">
-        <v>24600000</v>
-      </c>
-      <c r="L20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202568/summary</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>202766</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>348</v>
-      </c>
-      <c r="J21" t="s">
-        <v>400</v>
-      </c>
-      <c r="K21" s="5">
-        <v>6128571</v>
-      </c>
-      <c r="L21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202766/summary</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>202835</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>351</v>
-      </c>
-      <c r="J22" t="s">
-        <v>400</v>
-      </c>
-      <c r="K22" s="5">
-        <v>36640000</v>
-      </c>
-      <c r="L22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202835/summary</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>202960</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>348</v>
-      </c>
-      <c r="J23" t="s">
-        <v>400</v>
-      </c>
-      <c r="K23" s="5">
-        <v>19835986</v>
-      </c>
-      <c r="L23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-202960/summary</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>203052</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2029</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="J24" t="s">
-        <v>400</v>
-      </c>
-      <c r="K24" s="5">
-        <v>31131042</v>
-      </c>
-      <c r="L24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203052/summary</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>203212</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>394</v>
-      </c>
-      <c r="J25" t="s">
-        <v>400</v>
-      </c>
-      <c r="K25" s="5">
-        <v>9800000</v>
-      </c>
-      <c r="L25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203212/summary</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>203529</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E26" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" t="s">
-        <v>358</v>
-      </c>
-      <c r="J26" t="s">
-        <v>400</v>
-      </c>
-      <c r="K26" s="5">
-        <v>30896804</v>
-      </c>
-      <c r="L26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203529/summary</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>203569</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>348</v>
-      </c>
-      <c r="J27" t="s">
-        <v>400</v>
-      </c>
-      <c r="K27" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="L27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203569/summary</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>203752</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E28" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>348</v>
-      </c>
-      <c r="J28" t="s">
-        <v>400</v>
-      </c>
-      <c r="K28" s="5">
-        <v>16248812</v>
-      </c>
-      <c r="L28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203752/summary</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>203844</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" t="s">
-        <v>359</v>
-      </c>
-      <c r="J29" t="s">
-        <v>400</v>
-      </c>
-      <c r="K29" s="5">
-        <v>18000000</v>
-      </c>
-      <c r="L29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203844/summary</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>203933</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E30" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" t="s">
-        <v>348</v>
-      </c>
-      <c r="J30" t="s">
-        <v>400</v>
-      </c>
-      <c r="K30" s="5">
-        <v>29904657</v>
-      </c>
-      <c r="L30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-203933/summary</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>204133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>348</v>
-      </c>
-      <c r="J31" t="s">
-        <v>400</v>
-      </c>
-      <c r="K31" s="5">
-        <v>3103308</v>
-      </c>
-      <c r="L31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204133/summary</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>204291</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E32" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" t="s">
-        <v>348</v>
-      </c>
-      <c r="J32" t="s">
-        <v>400</v>
-      </c>
-      <c r="K32" s="5">
-        <v>4914002</v>
-      </c>
-      <c r="L32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204291/summary</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>204322</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E33" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>374</v>
-      </c>
-      <c r="J33" t="s">
-        <v>400</v>
-      </c>
-      <c r="K33" s="5">
-        <v>37660852</v>
-      </c>
-      <c r="L33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204322/summary</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>204324</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E34" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" t="s">
-        <v>348</v>
-      </c>
-      <c r="J34" t="s">
-        <v>400</v>
-      </c>
-      <c r="K34" s="5">
-        <v>15000000</v>
-      </c>
-      <c r="L34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204324/summary</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>204415</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E35" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" t="s">
-        <v>395</v>
-      </c>
-      <c r="J35" t="s">
-        <v>400</v>
-      </c>
-      <c r="K35" s="5">
-        <v>40150002</v>
-      </c>
-      <c r="L35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204415/summary</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>204420</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" t="s">
-        <v>400</v>
-      </c>
-      <c r="K36" s="5">
-        <v>35000000</v>
-      </c>
-      <c r="L36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204420/summary</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>204427</v>
-      </c>
-      <c r="B37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E37" s="8">
-        <v>2021</v>
-      </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" t="s">
-        <v>364</v>
-      </c>
-      <c r="J37" t="s">
-        <v>400</v>
-      </c>
-      <c r="K37" s="5">
-        <v>6500000</v>
-      </c>
-      <c r="L37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204427/summary</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>204725</v>
-      </c>
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E38" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" t="s">
-        <v>366</v>
-      </c>
-      <c r="J38" t="s">
-        <v>400</v>
-      </c>
-      <c r="K38" s="5">
-        <v>6782899</v>
-      </c>
-      <c r="L38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204725/summary</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>204765</v>
-      </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E39" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" t="s">
-        <v>348</v>
-      </c>
-      <c r="J39" t="s">
-        <v>400</v>
-      </c>
-      <c r="K39" s="5">
-        <v>317065080</v>
-      </c>
-      <c r="L39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204765/summary</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>204836</v>
-      </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E40" s="8">
-        <v>2027</v>
-      </c>
-      <c r="F40" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" t="s">
-        <v>360</v>
-      </c>
-      <c r="J40" t="s">
-        <v>400</v>
-      </c>
-      <c r="K40" s="5">
-        <v>12000000</v>
-      </c>
-      <c r="L40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204836/summary</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>204867</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E41" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" t="s">
-        <v>389</v>
-      </c>
-      <c r="J41" t="s">
-        <v>400</v>
-      </c>
-      <c r="K41" s="5">
-        <v>99193930</v>
-      </c>
-      <c r="L41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-204867/summary</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>205053</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F42" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" t="s">
-        <v>371</v>
-      </c>
-      <c r="J42" t="s">
-        <v>400</v>
-      </c>
-      <c r="K42" s="5">
-        <v>4900000</v>
-      </c>
-      <c r="L42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205053/summary</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>205103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E43" s="8">
-        <v>2021</v>
-      </c>
-      <c r="F43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" t="s">
-        <v>372</v>
-      </c>
-      <c r="J43" t="s">
-        <v>400</v>
-      </c>
-      <c r="K43" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="L43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205103/summary</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>205109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E44" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" t="s">
-        <v>348</v>
-      </c>
-      <c r="J44" t="s">
-        <v>400</v>
-      </c>
-      <c r="K44" s="5">
-        <v>4500000</v>
-      </c>
-      <c r="L44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205109/summary</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>205121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E45" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F45" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" t="s">
-        <v>373</v>
-      </c>
-      <c r="J45" t="s">
-        <v>400</v>
-      </c>
-      <c r="K45" s="5">
-        <v>9646279</v>
-      </c>
-      <c r="L45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-1-205121/summary</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>300049</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E46" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" t="s">
-        <v>348</v>
-      </c>
-      <c r="J46" t="s">
-        <v>400</v>
-      </c>
-      <c r="K46" s="5">
-        <v>15300000</v>
-      </c>
-      <c r="L46" s="9" t="str">
-        <f t="shared" ref="L46:L92" si="1">HYPERLINK(CONCATENATE("https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-",A46,"/summary"))</f>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300049/summary</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>300100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F47" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" t="s">
-        <v>357</v>
-      </c>
-      <c r="J47" t="s">
-        <v>400</v>
-      </c>
-      <c r="K47" s="5">
-        <v>29000000</v>
-      </c>
-      <c r="L47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300100/summary</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>300111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F48" t="s">
-        <v>174</v>
-      </c>
-      <c r="G48" t="s">
-        <v>348</v>
-      </c>
-      <c r="J48" t="s">
-        <v>400</v>
-      </c>
-      <c r="K48" s="5">
-        <v>18199769</v>
-      </c>
-      <c r="L48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300111/summary</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>300123</v>
-      </c>
-      <c r="B49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" t="s">
-        <v>348</v>
-      </c>
-      <c r="J49" t="s">
-        <v>400</v>
-      </c>
-      <c r="K49" s="5">
-        <v>40150001</v>
-      </c>
-      <c r="L49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300123/summary</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>300124</v>
-      </c>
-      <c r="B50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" t="s">
-        <v>348</v>
-      </c>
-      <c r="J50" t="s">
-        <v>400</v>
-      </c>
-      <c r="K50" s="5">
-        <v>24650000</v>
-      </c>
-      <c r="L50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300124/summary</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>300125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" t="s">
-        <v>347</v>
-      </c>
-      <c r="J51" t="s">
-        <v>400</v>
-      </c>
-      <c r="K51" s="5">
-        <v>38000000</v>
-      </c>
-      <c r="L51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300125/summary</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>300126</v>
-      </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E52" s="8">
-        <v>2027</v>
-      </c>
-      <c r="F52" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" t="s">
-        <v>348</v>
-      </c>
-      <c r="J52" t="s">
-        <v>400</v>
-      </c>
-      <c r="K52" s="5">
-        <v>102500000</v>
-      </c>
-      <c r="L52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300126/summary</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>300180</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E53" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" t="s">
-        <v>347</v>
-      </c>
-      <c r="J53" t="s">
-        <v>400</v>
-      </c>
-      <c r="K53" s="5">
-        <v>32750000</v>
-      </c>
-      <c r="L53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300180/summary</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>300294</v>
-      </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="8">
-        <v>2016</v>
-      </c>
-      <c r="E54" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F54" t="s">
-        <v>190</v>
-      </c>
-      <c r="G54" t="s">
-        <v>348</v>
-      </c>
-      <c r="J54" t="s">
-        <v>400</v>
-      </c>
-      <c r="K54" s="5">
-        <v>12923500</v>
-      </c>
-      <c r="L54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300294/summary</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>300341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E55" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F55" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" t="s">
-        <v>348</v>
-      </c>
-      <c r="J55" t="s">
-        <v>400</v>
-      </c>
-      <c r="K55" s="5">
-        <v>391033790</v>
-      </c>
-      <c r="L55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300341/summary</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>300342</v>
-      </c>
-      <c r="B56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E56" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" t="s">
-        <v>347</v>
-      </c>
-      <c r="J56" t="s">
-        <v>400</v>
-      </c>
-      <c r="K56" s="5">
-        <v>26805635</v>
-      </c>
-      <c r="L56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300342/summary</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>300343</v>
-      </c>
-      <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E57" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F57" t="s">
-        <v>196</v>
-      </c>
-      <c r="G57" t="s">
-        <v>347</v>
-      </c>
-      <c r="J57" t="s">
-        <v>400</v>
-      </c>
-      <c r="K57" s="5">
-        <v>30214869</v>
-      </c>
-      <c r="L57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300343/summary</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>300346</v>
-      </c>
-      <c r="B58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E58" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F58" t="s">
-        <v>198</v>
-      </c>
-      <c r="G58" t="s">
-        <v>348</v>
-      </c>
-      <c r="J58" t="s">
-        <v>400</v>
-      </c>
-      <c r="K58" s="5">
-        <v>10687612</v>
-      </c>
-      <c r="L58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300346/summary</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>300347</v>
-      </c>
-      <c r="B59" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E59" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G59" t="s">
-        <v>348</v>
-      </c>
-      <c r="J59" t="s">
-        <v>400</v>
-      </c>
-      <c r="K59" s="5">
-        <v>23500000</v>
-      </c>
-      <c r="L59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300347/summary</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>300384</v>
-      </c>
-      <c r="B60" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E60" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F60" t="s">
-        <v>202</v>
-      </c>
-      <c r="G60" t="s">
-        <v>348</v>
-      </c>
-      <c r="J60" t="s">
-        <v>400</v>
-      </c>
-      <c r="K60" s="5">
-        <v>11250000</v>
-      </c>
-      <c r="L60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300384/summary</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>300405</v>
-      </c>
-      <c r="B61" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E61" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F61" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" t="s">
-        <v>363</v>
-      </c>
-      <c r="J61" t="s">
-        <v>400</v>
-      </c>
-      <c r="K61" s="5">
-        <v>26500000</v>
-      </c>
-      <c r="L61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300405/summary</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>300446</v>
-      </c>
-      <c r="B62" t="s">
-        <v>206</v>
-      </c>
-      <c r="D62" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E62" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" t="s">
-        <v>347</v>
-      </c>
-      <c r="J62" t="s">
-        <v>400</v>
-      </c>
-      <c r="K62" s="5">
-        <v>15500000</v>
-      </c>
-      <c r="L62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300446/summary</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>300482</v>
-      </c>
-      <c r="B63" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E63" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F63" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" t="s">
-        <v>378</v>
-      </c>
-      <c r="J63" t="s">
-        <v>400</v>
-      </c>
-      <c r="K63" s="5">
-        <v>38053854</v>
-      </c>
-      <c r="L63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300482/summary</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>300484</v>
-      </c>
-      <c r="B64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E64" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F64" t="s">
-        <v>212</v>
-      </c>
-      <c r="G64" t="s">
-        <v>347</v>
-      </c>
-      <c r="J64" t="s">
-        <v>400</v>
-      </c>
-      <c r="K64" s="5">
-        <v>18099997</v>
-      </c>
-      <c r="L64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300484/summary</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>300504</v>
-      </c>
-      <c r="B65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E65" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F65" t="s">
-        <v>214</v>
-      </c>
-      <c r="G65" t="s">
-        <v>379</v>
-      </c>
-      <c r="J65" t="s">
-        <v>400</v>
-      </c>
-      <c r="K65" s="5">
-        <v>12600000</v>
-      </c>
-      <c r="L65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300504/summary</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>300574</v>
-      </c>
-      <c r="B66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E66" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F66" t="s">
-        <v>217</v>
-      </c>
-      <c r="G66" t="s">
-        <v>380</v>
-      </c>
-      <c r="J66" t="s">
-        <v>400</v>
-      </c>
-      <c r="K66" s="5">
-        <v>9224743</v>
-      </c>
-      <c r="L66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300574/summary</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>300615</v>
-      </c>
-      <c r="B67" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E67" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F67" t="s">
-        <v>221</v>
-      </c>
-      <c r="G67" t="s">
-        <v>348</v>
-      </c>
-      <c r="J67" t="s">
-        <v>400</v>
-      </c>
-      <c r="K67" s="5">
-        <v>3505619</v>
-      </c>
-      <c r="L67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300615/summary</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>300632</v>
-      </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E68" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F68" t="s">
-        <v>223</v>
-      </c>
-      <c r="G68" t="s">
-        <v>376</v>
-      </c>
-      <c r="J68" t="s">
-        <v>400</v>
-      </c>
-      <c r="K68" s="5">
-        <v>18535350</v>
-      </c>
-      <c r="L68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300632/summary</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>300644</v>
-      </c>
-      <c r="B69" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E69" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F69" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69" t="s">
-        <v>382</v>
-      </c>
-      <c r="J69" t="s">
-        <v>400</v>
-      </c>
-      <c r="K69" s="5">
-        <v>37800000</v>
-      </c>
-      <c r="L69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300644/summary</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>300649</v>
-      </c>
-      <c r="B70" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E70" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F70" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" t="s">
-        <v>361</v>
-      </c>
-      <c r="J70" t="s">
-        <v>400</v>
-      </c>
-      <c r="K70" s="5">
-        <v>25828000</v>
-      </c>
-      <c r="L70" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300649/summary</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>300654</v>
-      </c>
-      <c r="B71" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E71" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F71" t="s">
-        <v>232</v>
-      </c>
-      <c r="G71" t="s">
-        <v>384</v>
-      </c>
-      <c r="J71" t="s">
-        <v>400</v>
-      </c>
-      <c r="K71" s="5">
-        <v>12124941</v>
-      </c>
-      <c r="L71" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300654/summary</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>300655</v>
-      </c>
-      <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E72" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F72" t="s">
-        <v>235</v>
-      </c>
-      <c r="G72" t="s">
-        <v>385</v>
-      </c>
-      <c r="J72" t="s">
-        <v>400</v>
-      </c>
-      <c r="K72" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="L72" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300655/summary</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>300656</v>
-      </c>
-      <c r="B73" t="s">
-        <v>237</v>
-      </c>
-      <c r="D73" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E73" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F73" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" t="s">
-        <v>347</v>
-      </c>
-      <c r="J73" t="s">
-        <v>400</v>
-      </c>
-      <c r="K73" s="5">
-        <v>12000000</v>
-      </c>
-      <c r="L73" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300656/summary</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>300708</v>
-      </c>
-      <c r="B74" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E74" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F74" t="s">
-        <v>244</v>
-      </c>
-      <c r="G74" t="s">
-        <v>347</v>
-      </c>
-      <c r="J74" t="s">
-        <v>400</v>
-      </c>
-      <c r="K74" s="5">
-        <v>49947720</v>
-      </c>
-      <c r="L74" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300708/summary</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>300755</v>
-      </c>
-      <c r="B75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E75" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F75" t="s">
-        <v>250</v>
-      </c>
-      <c r="G75" t="s">
-        <v>387</v>
-      </c>
-      <c r="J75" t="s">
-        <v>400</v>
-      </c>
-      <c r="K75" s="5">
-        <v>16000000</v>
-      </c>
-      <c r="L75" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300755/summary</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>300760</v>
-      </c>
-      <c r="B76" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E76" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F76" t="s">
-        <v>253</v>
-      </c>
-      <c r="G76" t="s">
-        <v>347</v>
-      </c>
-      <c r="J76" t="s">
-        <v>400</v>
-      </c>
-      <c r="K76" s="5">
-        <v>35050000</v>
-      </c>
-      <c r="L76" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300760/summary</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>300781</v>
-      </c>
-      <c r="B77" t="s">
-        <v>257</v>
-      </c>
-      <c r="D77" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E77" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F77" t="s">
-        <v>258</v>
-      </c>
-      <c r="G77" t="s">
-        <v>377</v>
-      </c>
-      <c r="J77" t="s">
-        <v>400</v>
-      </c>
-      <c r="K77" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="L77" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300781/summary</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>300785</v>
-      </c>
-      <c r="B78" t="s">
-        <v>261</v>
-      </c>
-      <c r="D78" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E78" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F78" t="s">
-        <v>262</v>
-      </c>
-      <c r="G78" t="s">
-        <v>390</v>
-      </c>
-      <c r="J78" t="s">
-        <v>400</v>
-      </c>
-      <c r="K78" s="5">
-        <v>4985058</v>
-      </c>
-      <c r="L78" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300785/summary</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>300815</v>
-      </c>
-      <c r="B79" t="s">
-        <v>264</v>
-      </c>
-      <c r="D79" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E79" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F79" t="s">
-        <v>265</v>
-      </c>
-      <c r="G79" t="s">
-        <v>347</v>
-      </c>
-      <c r="J79" t="s">
-        <v>400</v>
-      </c>
-      <c r="K79" s="5">
-        <v>19800000</v>
-      </c>
-      <c r="L79" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300815/summary</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>300849</v>
-      </c>
-      <c r="B80" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E80" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F80" t="s">
-        <v>268</v>
-      </c>
-      <c r="G80" t="s">
-        <v>348</v>
-      </c>
-      <c r="J80" t="s">
-        <v>400</v>
-      </c>
-      <c r="K80" s="5">
-        <v>4900000</v>
-      </c>
-      <c r="L80" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300849/summary</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>300966</v>
-      </c>
-      <c r="B81" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E81" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F81" t="s">
-        <v>271</v>
-      </c>
-      <c r="G81" t="s">
-        <v>347</v>
-      </c>
-      <c r="J81" t="s">
-        <v>400</v>
-      </c>
-      <c r="K81" s="5">
-        <v>19266871</v>
-      </c>
-      <c r="L81" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-300966/summary</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>301050</v>
-      </c>
-      <c r="B82" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="8">
-        <v>2022</v>
-      </c>
-      <c r="E82" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F82" t="s">
-        <v>273</v>
-      </c>
-      <c r="G82" t="s">
-        <v>347</v>
-      </c>
-      <c r="J82" t="s">
-        <v>400</v>
-      </c>
-      <c r="K82" s="5">
-        <v>4700000</v>
-      </c>
-      <c r="L82" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301050/summary</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>301067</v>
-      </c>
-      <c r="B83" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="8">
-        <v>2021</v>
-      </c>
-      <c r="E83" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F83" t="s">
-        <v>275</v>
-      </c>
-      <c r="G83" t="s">
-        <v>347</v>
-      </c>
-      <c r="J83" t="s">
-        <v>400</v>
-      </c>
-      <c r="K83" s="5">
-        <v>32850000</v>
-      </c>
-      <c r="L83" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301067/summary</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>301108</v>
-      </c>
-      <c r="B84" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E84" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F84" t="s">
-        <v>277</v>
-      </c>
-      <c r="G84" t="s">
-        <v>391</v>
-      </c>
-      <c r="J84" t="s">
-        <v>400</v>
-      </c>
-      <c r="K84" s="5">
-        <v>9400000</v>
-      </c>
-      <c r="L84" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301108/summary</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>301132</v>
-      </c>
-      <c r="B85" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E85" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F85" t="s">
-        <v>281</v>
-      </c>
-      <c r="G85" t="s">
-        <v>397</v>
-      </c>
-      <c r="J85" t="s">
-        <v>400</v>
-      </c>
-      <c r="K85" s="5">
-        <v>7972870</v>
-      </c>
-      <c r="L85" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301132/summary</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>301135</v>
-      </c>
-      <c r="B86" t="s">
-        <v>289</v>
-      </c>
-      <c r="D86" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E86" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F86" t="s">
-        <v>290</v>
-      </c>
-      <c r="G86" t="s">
-        <v>365</v>
-      </c>
-      <c r="J86" t="s">
-        <v>400</v>
-      </c>
-      <c r="K86" s="5">
-        <v>7953129</v>
-      </c>
-      <c r="L86" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301135/summary</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>301136</v>
-      </c>
-      <c r="B87" t="s">
-        <v>292</v>
-      </c>
-      <c r="D87" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E87" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F87" t="s">
-        <v>293</v>
-      </c>
-      <c r="G87" t="s">
-        <v>396</v>
-      </c>
-      <c r="J87" t="s">
-        <v>400</v>
-      </c>
-      <c r="K87" s="5">
-        <v>8000000</v>
-      </c>
-      <c r="L87" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301136/summary</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>301138</v>
-      </c>
-      <c r="B88" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E88" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F88" t="s">
-        <v>296</v>
-      </c>
-      <c r="G88" t="s">
-        <v>370</v>
-      </c>
-      <c r="J88" t="s">
-        <v>400</v>
-      </c>
-      <c r="K88" s="5">
-        <v>7903834</v>
-      </c>
-      <c r="L88" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301138/summary</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>301139</v>
-      </c>
-      <c r="B89" t="s">
-        <v>298</v>
-      </c>
-      <c r="D89" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E89" s="8">
-        <v>2026</v>
-      </c>
-      <c r="F89" t="s">
-        <v>299</v>
-      </c>
-      <c r="G89" t="s">
-        <v>398</v>
-      </c>
-      <c r="J89" t="s">
-        <v>400</v>
-      </c>
-      <c r="K89" s="5">
-        <v>7812831</v>
-      </c>
-      <c r="L89" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301139/summary</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>301263</v>
-      </c>
-      <c r="B90" t="s">
-        <v>301</v>
-      </c>
-      <c r="D90" s="8">
-        <v>2021</v>
-      </c>
-      <c r="E90" s="8">
-        <v>2027</v>
-      </c>
-      <c r="F90" t="s">
-        <v>302</v>
-      </c>
-      <c r="G90" t="s">
-        <v>347</v>
-      </c>
-      <c r="J90" t="s">
-        <v>400</v>
-      </c>
-      <c r="K90" s="5">
-        <v>19000000</v>
-      </c>
-      <c r="L90" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301263/summary</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>301290</v>
-      </c>
-      <c r="B91" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E91" s="8">
-        <v>2024</v>
-      </c>
-      <c r="F91" t="s">
-        <v>305</v>
-      </c>
-      <c r="G91" t="s">
-        <v>347</v>
-      </c>
-      <c r="J91" t="s">
-        <v>400</v>
-      </c>
-      <c r="K91" s="5">
-        <v>4790000</v>
-      </c>
-      <c r="L91" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301290/summary</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>301291</v>
-      </c>
-      <c r="B92" t="s">
-        <v>306</v>
-      </c>
-      <c r="D92" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E92" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F92" t="s">
-        <v>307</v>
-      </c>
-      <c r="G92" t="s">
-        <v>347</v>
-      </c>
-      <c r="J92" t="s">
-        <v>400</v>
-      </c>
-      <c r="K92" s="5">
-        <v>10739851</v>
-      </c>
-      <c r="L92" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://devtracker.fcdo.gov.uk/projects/GB-GOV-1-301291/summary</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:I99" xr:uid="{5C404A3B-7652-4EB2-9BC5-ED8425EFF28E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
+      <sortCondition ref="A1:A99"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
